--- a/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1058.xlsx
+++ b/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1058.xlsx
@@ -914,24 +914,24 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="168" fontId="27" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="168" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -2738,19 +2738,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$K$65:$K$2000</f>
+              <f>'1'!$K$65:$K$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$J$65:$J$2000</f>
+              <f>'1'!$J$65:$J$200000</f>
               <numCache>
                 <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -2781,19 +2781,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$M$65:$M$2000</f>
+              <f>'1'!$M$65:$M$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$L$65:$L$2000</f>
+              <f>'1'!$L$65:$L$200000</f>
               <numCache>
                 <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -2824,19 +2824,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$O$65:$O$2000</f>
+              <f>'1'!$O$65:$O$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$N$65:$N$2000</f>
+              <f>'1'!$N$65:$N$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -3181,19 +3181,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$G$65:$G$2000</f>
+              <f>'1'!$G$65:$G$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$F$65:$F$2000</f>
+              <f>'1'!$F$65:$F$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -3399,7 +3399,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.0000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -3508,7 +3508,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -3657,19 +3657,19 @@
           </trendline>
           <xVal>
             <numRef>
-              <f>'1'!$G$65:$G$2000</f>
+              <f>'1'!$G$65:$G$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$F$65:$F$2000</f>
+              <f>'1'!$F$65:$F$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -3749,10 +3749,9 @@
             <numRef>
               <f>'1'!$A$81:$A$82</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
-                  <formatCode>General</formatCode>
                   <v>0</v>
                 </pt>
                 <pt idx="1">
@@ -3814,10 +3813,9 @@
             <numRef>
               <f>'1'!$A$75:$A$76</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
-                  <formatCode>General</formatCode>
                   <v>0</v>
                 </pt>
                 <pt idx="1">
@@ -3869,7 +3867,7 @@
             <numRef>
               <f>'1'!$A$85:$A$86</f>
               <numCache>
-                <formatCode>0.000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
                   <v>0</v>
@@ -3923,7 +3921,7 @@
             <numRef>
               <f>'1'!$A$88:$A$89</f>
               <numCache>
-                <formatCode>0.000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
                   <v>#N/A</v>
@@ -3978,7 +3976,7 @@
             <numRef>
               <f>'1'!$A$78:$A$79</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
                   <v>0</v>
@@ -4088,7 +4086,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.0000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -4198,7 +4196,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -4886,8 +4884,8 @@
   </sheetPr>
   <dimension ref="A1:BF264"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A65" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="S81" sqref="S81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -4917,13 +4915,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="150" t="inlineStr">
+      <c r="A1" s="153" t="inlineStr">
         <is>
           <t>Общество с ограниченной ответственностью "Инженерная геология" (ООО "ИнжГео")</t>
         </is>
       </c>
-      <c r="L1" s="150" t="n"/>
-      <c r="M1" s="150" t="inlineStr">
+      <c r="L1" s="153" t="n"/>
+      <c r="M1" s="153" t="inlineStr">
         <is>
           <t>Общество с ограниченной ответственностью "Инженерная геология" (ООО "ИнжГео")</t>
         </is>
@@ -4974,13 +4972,13 @@
       <c r="BC1" s="40" t="n"/>
     </row>
     <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="150" t="inlineStr">
+      <c r="A2" s="153" t="inlineStr">
         <is>
           <t>Юр. адрес: 117279, г. Москва, ул. Миклухо-Маклая, 36 а, этаж 5, пом. XXIII к. 76-84</t>
         </is>
       </c>
-      <c r="L2" s="150" t="n"/>
-      <c r="M2" s="150" t="inlineStr">
+      <c r="L2" s="153" t="n"/>
+      <c r="M2" s="153" t="inlineStr">
         <is>
           <t>Юр. адрес: 117279, г. Москва, ул. Миклухо-Маклая, 36 а, этаж 5, пом. XXIII к. 76-84</t>
         </is>
@@ -5096,13 +5094,13 @@
       <c r="BD2" s="50" t="n"/>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="150" t="inlineStr">
+      <c r="A3" s="153" t="inlineStr">
         <is>
           <t>Телефон/факс +7 (495) 132-30-00,  Адрес электронной почты inbox@inj-geo.ru</t>
         </is>
       </c>
-      <c r="L3" s="150" t="n"/>
-      <c r="M3" s="150" t="inlineStr">
+      <c r="L3" s="153" t="n"/>
+      <c r="M3" s="153" t="inlineStr">
         <is>
           <t>Телефон/факс +7 (495) 132-30-00,  Адрес электронной почты inbox@inj-geo.ru</t>
         </is>
@@ -5173,27 +5171,27 @@
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="150" t="n"/>
-      <c r="B4" s="150" t="n"/>
-      <c r="C4" s="150" t="n"/>
-      <c r="D4" s="150" t="n"/>
-      <c r="E4" s="150" t="n"/>
-      <c r="F4" s="150" t="n"/>
-      <c r="G4" s="150" t="n"/>
-      <c r="H4" s="150" t="n"/>
-      <c r="I4" s="150" t="n"/>
-      <c r="J4" s="150" t="n"/>
-      <c r="K4" s="150" t="n"/>
-      <c r="L4" s="150" t="n"/>
-      <c r="M4" s="150" t="n"/>
-      <c r="N4" s="150" t="n"/>
-      <c r="O4" s="150" t="n"/>
-      <c r="P4" s="150" t="n"/>
-      <c r="Q4" s="150" t="n"/>
-      <c r="R4" s="150" t="n"/>
-      <c r="S4" s="150" t="n"/>
-      <c r="T4" s="150" t="n"/>
-      <c r="U4" s="150" t="n"/>
+      <c r="A4" s="153" t="n"/>
+      <c r="B4" s="153" t="n"/>
+      <c r="C4" s="153" t="n"/>
+      <c r="D4" s="153" t="n"/>
+      <c r="E4" s="153" t="n"/>
+      <c r="F4" s="153" t="n"/>
+      <c r="G4" s="153" t="n"/>
+      <c r="H4" s="153" t="n"/>
+      <c r="I4" s="153" t="n"/>
+      <c r="J4" s="153" t="n"/>
+      <c r="K4" s="153" t="n"/>
+      <c r="L4" s="153" t="n"/>
+      <c r="M4" s="153" t="n"/>
+      <c r="N4" s="153" t="n"/>
+      <c r="O4" s="153" t="n"/>
+      <c r="P4" s="153" t="n"/>
+      <c r="Q4" s="153" t="n"/>
+      <c r="R4" s="153" t="n"/>
+      <c r="S4" s="153" t="n"/>
+      <c r="T4" s="153" t="n"/>
+      <c r="U4" s="153" t="n"/>
       <c r="X4" s="66">
         <f>X2-X1</f>
         <v/>
@@ -5256,13 +5254,13 @@
       <c r="BC4" s="58" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="150" t="inlineStr">
+      <c r="A5" s="153" t="inlineStr">
         <is>
           <t>Испытательная лаборатория ООО «ИнжГео»</t>
         </is>
       </c>
-      <c r="L5" s="150" t="n"/>
-      <c r="M5" s="150" t="inlineStr">
+      <c r="L5" s="153" t="n"/>
+      <c r="M5" s="153" t="inlineStr">
         <is>
           <t>Испытательная лаборатория ООО «ИнжГео»</t>
         </is>
@@ -5377,13 +5375,13 @@
       <c r="BC5" s="58" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="154" t="inlineStr">
+      <c r="A6" s="152" t="inlineStr">
         <is>
           <t>Адрес места осуществления деятельности лаборатории: г. Москва, просп. Вернадского, д. 51, стр. 1</t>
         </is>
       </c>
-      <c r="L6" s="154" t="n"/>
-      <c r="M6" s="154" t="inlineStr">
+      <c r="L6" s="152" t="n"/>
+      <c r="M6" s="152" t="inlineStr">
         <is>
           <t>Адрес места осуществления деятельности лаборатории: г. Москва, просп. Вернадского, д. 51, стр. 1</t>
         </is>
@@ -5456,13 +5454,13 @@
       <c r="BF6" s="67" t="n"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="150" t="inlineStr">
+      <c r="A7" s="153" t="inlineStr">
         <is>
           <t>Телефон +7(910)4557682, E-mail: slg85@mail.ru</t>
         </is>
       </c>
-      <c r="L7" s="150" t="n"/>
-      <c r="M7" s="150" t="inlineStr">
+      <c r="L7" s="153" t="n"/>
+      <c r="M7" s="153" t="inlineStr">
         <is>
           <t>Телефон +7(910)4557682, E-mail: slg85@mail.ru</t>
         </is>
@@ -5624,8 +5622,8 @@
       <c r="BF8" s="67" t="n"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="156" t="n"/>
-      <c r="M9" s="156" t="inlineStr">
+      <c r="A9" s="155" t="n"/>
+      <c r="M9" s="155" t="inlineStr">
         <is>
           <t>Протокол испытаний № 13-63/23 от 21-11-2022</t>
         </is>
@@ -6442,13 +6440,13 @@
       <c r="BC17" s="58" t="n"/>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="155" t="inlineStr">
+      <c r="A18" s="154" t="inlineStr">
         <is>
           <t>Испытание грунтов методом трехосного сжатия</t>
         </is>
       </c>
-      <c r="L18" s="155" t="n"/>
-      <c r="M18" s="155" t="inlineStr">
+      <c r="L18" s="154" t="n"/>
+      <c r="M18" s="154" t="inlineStr">
         <is>
           <t>Испытание грунтов методом трехосного сжатия</t>
         </is>
@@ -7328,13 +7326,13 @@
       <c r="BC26" s="58" t="n"/>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="155" t="inlineStr">
+      <c r="A27" s="154" t="inlineStr">
         <is>
           <t xml:space="preserve">Результаты испытаний </t>
         </is>
       </c>
-      <c r="L27" s="155" t="n"/>
-      <c r="M27" s="155" t="inlineStr">
+      <c r="L27" s="154" t="n"/>
+      <c r="M27" s="154" t="inlineStr">
         <is>
           <t xml:space="preserve">Результаты испытаний </t>
         </is>
@@ -9133,26 +9131,26 @@
       <c r="U59" s="10" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="152" t="inlineStr">
+      <c r="A60" s="156" t="inlineStr">
         <is>
           <t>Лист 1 , всего листов 2</t>
         </is>
       </c>
-      <c r="L60" s="152" t="n"/>
-      <c r="M60" s="152" t="inlineStr">
+      <c r="L60" s="156" t="n"/>
+      <c r="M60" s="156" t="inlineStr">
         <is>
           <t>Лист 2 , всего листов 2</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="153" t="inlineStr">
+      <c r="A61" s="150" t="inlineStr">
         <is>
           <t>Частичное воспроизведение протокола испытаний без письменного разрешения  ООО «ИнжГео» ЗАПРЕЩАЕТСЯ</t>
         </is>
       </c>
-      <c r="L61" s="153" t="n"/>
-      <c r="M61" s="153" t="inlineStr">
+      <c r="L61" s="150" t="n"/>
+      <c r="M61" s="150" t="inlineStr">
         <is>
           <t>Частичное воспроизведение протокола испытаний без письменного разрешения  ООО «ИнжГео» ЗАПРЕЩАЕТСЯ</t>
         </is>
@@ -9257,7 +9255,7 @@
         <v>0.0174681646244358</v>
       </c>
       <c r="B65" t="n">
-        <v>0.001745506350096747</v>
+        <v>0.001746803361320112</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9272,29 +9270,29 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>0.0003200000000000008</v>
+        <v>0.0003499999999999961</v>
       </c>
       <c r="G65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>0.0003200000000000008</v>
+        <v>0.0003499999999999961</v>
       </c>
       <c r="K65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>0.01728604797491129</v>
+        <v>0.001439999999999997</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0.0003554132394841585</v>
+        <v>0</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0.02618737693009343</v>
+        <v>0.03109751010448591</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0.0003834100571047013</v>
+        <v>0.0003769366893716379</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9314,29 +9312,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.007685992434751751</v>
+        <v>0.009432808897195333</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0005120151960283791</v>
+        <v>0.0006288492100752402</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.007685992434751751</v>
+        <v>0.009432808897195333</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0005120151960283791</v>
+        <v>0.0006288492100752402</v>
       </c>
       <c r="L66" s="172" t="n">
         <v>0.03601259994773187</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001110666373387996</v>
+        <v>0.001188525737730437</v>
       </c>
       <c r="N66" s="171" t="n">
         <v>0.05455703527102795</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001198156428452191</v>
+        <v>0.0009919386562411531</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9357,26 +9355,26 @@
         <v>0.0174681646244358</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001745506350096747</v>
+        <v>0.001746803361320112</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
         <v>0.0174681646244358</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001745506350096747</v>
+        <v>0.001746803361320112</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.0398403991397375</v>
+        <v>0.03732636902181957</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001664942329959768</v>
+        <v>0.001591593445835239</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.06348241924689091</v>
+        <v>0.05687764223704739</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001665821626995589</v>
+        <v>0.001589617696272532</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9396,29 +9394,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.01842699654849968</v>
+        <v>0.01846156806612538</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002506983946849833</v>
+        <v>0.002395806414334612</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01842699654849968</v>
+        <v>0.01846156806612538</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002506983946849833</v>
+        <v>0.002395806414334612</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.04480497340597314</v>
+        <v>0.03891752600382939</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002497413494939651</v>
+        <v>0.002387390168752858</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.05967425139487137</v>
+        <v>0.05818894185240325</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002498732440493383</v>
+        <v>0.002384426544408798</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9443,29 +9441,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.02141976341110705</v>
+        <v>0.01936531170402503</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003342645262466444</v>
+        <v>0.003194408552446149</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.02141976341110705</v>
+        <v>0.01936531170402503</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003342645262466444</v>
+        <v>0.003194408552446149</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.04183739166168834</v>
+        <v>0.04071816400468403</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003329884659919535</v>
+        <v>0.003183186891670477</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.06727567483462171</v>
+        <v>0.06364266427714033</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003331643253991177</v>
+        <v>0.003179235392545064</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9480,62 +9478,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0005120151960283791</v>
+        <v>0.0006288492100752402</v>
       </c>
       <c r="B70" t="n">
-        <v>0.007685992434751751</v>
+        <v>0.009432808897195333</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.02154784896493175</v>
+        <v>0.02015452948305961</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.004178306578083055</v>
+        <v>0.003993010690557687</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02154784896493175</v>
+        <v>0.02015452948305961</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.004178306578083055</v>
+        <v>0.003993010690557687</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.04682630345197344</v>
+        <v>0.04391578960385747</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.004162355824899418</v>
+        <v>0.003978983614588097</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.07116256045614827</v>
+        <v>0.06824762193155326</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.004164554067488971</v>
+        <v>0.00397404424068133</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.02289699753077884</v>
+        <v>0.02133195274942662</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.005013967893699667</v>
+        <v>0.004791612828669223</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02289699753077884</v>
+        <v>0.02133195274942662</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.005013967893699667</v>
+        <v>0.004791612828669223</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.0496201784846535</v>
+        <v>0.04595471603565224</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004994826989879303</v>
+        <v>0.004774780337505716</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.06650541618541489</v>
+        <v>0.07370316558428003</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004997464880986765</v>
+        <v>0.004768853088817596</v>
       </c>
     </row>
     <row r="72">
@@ -9550,29 +9548,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.02142620577169199</v>
+        <v>0.02229858975519455</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005849629209316277</v>
+        <v>0.00559021496678076</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02142620577169199</v>
+        <v>0.02229858975519455</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005849629209316277</v>
+        <v>0.00559021496678076</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04782815102032617</v>
+        <v>0.04746790732855227</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005827298154859187</v>
+        <v>0.005570577060423335</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.07662127265223995</v>
+        <v>0.0704935160355914</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.00583037569448456</v>
+        <v>0.005563661936953863</v>
       </c>
     </row>
     <row r="73">
@@ -9596,29 +9594,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.02456389592102784</v>
+        <v>0.02255376160269952</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006685290524932888</v>
+        <v>0.006388817104892298</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02456389592102784</v>
+        <v>0.02255376160269952</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006685290524932888</v>
+        <v>0.006388817104892298</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.05147616098347124</v>
+        <v>0.04837289841400785</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.00665976931983907</v>
+        <v>0.006366373783340954</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.07999845213985968</v>
+        <v>0.07495269349450334</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006663286507982354</v>
+        <v>0.006358470785090129</v>
       </c>
     </row>
     <row r="74">
@@ -9633,29 +9631,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.02476537990132968</v>
+        <v>0.02378668078554806</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007520951840549499</v>
+        <v>0.007187419243003835</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02476537990132968</v>
+        <v>0.02378668078554806</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007520951840549499</v>
+        <v>0.007187419243003835</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.05164896951636727</v>
+        <v>0.05077259883514998</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007492240484818953</v>
+        <v>0.007162170506258575</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.08302374062550211</v>
+        <v>0.07846457790568712</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007496197321480149</v>
+        <v>0.007153279633226394</v>
       </c>
     </row>
     <row r="75">
@@ -9677,29 +9675,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.02584428023309536</v>
+        <v>0.02482976913453862</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.00835661315616611</v>
+        <v>0.007986021381115373</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02584428023309536</v>
+        <v>0.02482976913453862</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.00835661315616611</v>
+        <v>0.007986021381115373</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.05025189674593872</v>
+        <v>0.05046414025773874</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.008324711649798837</v>
+        <v>0.007957967229176193</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.08640487377875256</v>
+        <v>0.08001532065816575</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.008329108134977942</v>
+        <v>0.007948088481362661</v>
       </c>
     </row>
     <row r="76">
@@ -9719,29 +9717,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.02465655059830316</v>
+        <v>0.02477233334816478</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.009192274471782721</v>
+        <v>0.00878462351922691</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02465655059830316</v>
+        <v>0.02477233334816478</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.009192274471782721</v>
+        <v>0.00878462351922691</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.05662931209443675</v>
+        <v>0.05398200441518688</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.009157182814778722</v>
+        <v>0.008753763952093813</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.07950772976694392</v>
+        <v>0.08069147432087637</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.009162018948475736</v>
+        <v>0.008742897329498928</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9756,28 +9754,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.02577154871767202</v>
+        <v>0.02586864040950501</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01002793578739933</v>
+        <v>0.009583225657338447</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02577154871767202</v>
+        <v>0.02586864040950501</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01002793578739933</v>
+        <v>0.009583225657338447</v>
       </c>
       <c r="L77" t="n">
-        <v>0.05788878642338549</v>
+        <v>0.05353168817730972</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009989653979758605</v>
+        <v>0.009549560675011433</v>
       </c>
       <c r="N77" t="n">
-        <v>0.07951538467577224</v>
+        <v>0.08244603343536899</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009994929761973531</v>
+        <v>0.009537706177635193</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9796,28 +9794,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.02792430356965804</v>
+        <v>0.0260810888732647</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01086359710301594</v>
+        <v>0.01038182779544998</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02792430356965804</v>
+        <v>0.0260810888732647</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01086359710301594</v>
+        <v>0.01038182779544998</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05253109480962626</v>
+        <v>0.05621939113070884</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01082212514473849</v>
+        <v>0.01034535739792905</v>
       </c>
       <c r="N78" t="n">
-        <v>0.0853049744753217</v>
+        <v>0.08299735283375437</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01082784057547133</v>
+        <v>0.01033251502577146</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9838,28 +9836,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.0273439686904029</v>
+        <v>0.02635171811752753</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01169925841863255</v>
+        <v>0.01118042993356152</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0273439686904029</v>
+        <v>0.02635171811752753</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01169925841863255</v>
+        <v>0.01118042993356152</v>
       </c>
       <c r="L79" t="n">
-        <v>0.05747671543038801</v>
+        <v>0.05838151546864939</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01165459630971837</v>
+        <v>0.01114115412084667</v>
       </c>
       <c r="N79" t="n">
-        <v>0.09268625390277468</v>
+        <v>0.08758443134227134</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01166075138896912</v>
+        <v>0.01112732387390773</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9869,28 +9867,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02847857712894698</v>
+        <v>0.02643596810141841</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01253491973424917</v>
+        <v>0.01197903207167306</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02847857712894698</v>
+        <v>0.02643596810141841</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01253491973424917</v>
+        <v>0.01197903207167306</v>
       </c>
       <c r="L80" t="n">
-        <v>0.06072295548950979</v>
+        <v>0.05693698947748546</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01248706747469826</v>
+        <v>0.01193695084376429</v>
       </c>
       <c r="N80" t="n">
-        <v>0.08699985952680317</v>
+        <v>0.08575351557484745</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01249366220246691</v>
+        <v>0.01192213272204399</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9906,28 +9904,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02654214379037996</v>
+        <v>0.02769281649408421</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01337058104986578</v>
+        <v>0.0127776342097846</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02654214379037996</v>
+        <v>0.02769281649408421</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01337058104986578</v>
+        <v>0.0127776342097846</v>
       </c>
       <c r="L81" t="n">
-        <v>0.06094048476469408</v>
+        <v>0.05631695836936362</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01331953863967814</v>
+        <v>0.01273274756668191</v>
       </c>
       <c r="N81" t="n">
-        <v>0.08276227634166999</v>
+        <v>0.09114475562567736</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01332657301596471</v>
+        <v>0.01271694157018026</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9940,28 +9938,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02945844268066704</v>
+        <v>0.02796282366689774</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01420624236548239</v>
+        <v>0.01357623634789613</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02945844268066704</v>
+        <v>0.02796282366689774</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01420624236548239</v>
+        <v>0.01357623634789613</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05827610211824574</v>
+        <v>0.05670798822814277</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01415200980465802</v>
+        <v>0.01352854428959953</v>
       </c>
       <c r="N82" t="n">
-        <v>0.09161145388571978</v>
+        <v>0.08904657493285989</v>
       </c>
       <c r="O82" t="n">
-        <v>0.0141594838294625</v>
+        <v>0.01351175041831652</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9971,28 +9969,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02915991720845244</v>
+        <v>0.02916686410211926</v>
       </c>
       <c r="G83" t="n">
-        <v>0.015041903681099</v>
+        <v>0.01437483848600767</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02915991720845244</v>
+        <v>0.02916686410211926</v>
       </c>
       <c r="K83" t="n">
-        <v>0.015041903681099</v>
+        <v>0.01437483848600767</v>
       </c>
       <c r="L83" t="n">
-        <v>0.06217948917264865</v>
+        <v>0.05994987960439441</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01498448096963791</v>
+        <v>0.01432434101251715</v>
       </c>
       <c r="N83" t="n">
-        <v>0.08758077050976093</v>
+        <v>0.08848857485293671</v>
       </c>
       <c r="O83" t="n">
-        <v>0.0149923946429603</v>
+        <v>0.01430655926645279</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10007,28 +10005,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02747367507513468</v>
+        <v>0.02792870297873504</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01587756499671561</v>
+        <v>0.01517344062411921</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02747367507513468</v>
+        <v>0.02792870297873504</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01587756499671561</v>
+        <v>0.01517344062411921</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05920794139483213</v>
+        <v>0.05856997488134782</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01581695213461779</v>
+        <v>0.01512013773543477</v>
       </c>
       <c r="N84" t="n">
-        <v>0.09177944636916696</v>
+        <v>0.09043765871124193</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01582530545645809</v>
+        <v>0.01510136811458906</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10047,28 +10045,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.0275447258386084</v>
+        <v>0.02886451168600687</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01671322631233222</v>
+        <v>0.01597204276223075</v>
       </c>
       <c r="J85" t="n">
-        <v>0.0275447258386084</v>
+        <v>0.02886451168600687</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01671322631233222</v>
+        <v>0.01597204276223075</v>
       </c>
       <c r="L85" t="n">
-        <v>0.0586441798704343</v>
+        <v>0.0587544097755123</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01664942329959767</v>
+        <v>0.01591593445835239</v>
       </c>
       <c r="N85" t="n">
-        <v>0.08755750085445996</v>
+        <v>0.09137176064118413</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01665821626995588</v>
+        <v>0.01589617696272532</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10089,28 +10087,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.03059587478334296</v>
+        <v>0.0289352631099221</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01754888762794883</v>
+        <v>0.01677064490034228</v>
       </c>
       <c r="J86" t="n">
-        <v>0.03059587478334296</v>
+        <v>0.0289352631099221</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01754888762794883</v>
+        <v>0.01677064490034228</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05988073950597259</v>
+        <v>0.06185449233900148</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01748189446457756</v>
+        <v>0.01671173118127001</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0902608162188589</v>
+        <v>0.08938741749646456</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01749112708345368</v>
+        <v>0.01669098581086159</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10120,28 +10118,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02907470595060485</v>
+        <v>0.02984657355285351</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01838454894356544</v>
+        <v>0.01756924703845382</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02907470595060485</v>
+        <v>0.02984657355285351</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01838454894356544</v>
+        <v>0.01756924703845382</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05857241667933005</v>
+        <v>0.05973065966685634</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01831436562955744</v>
+        <v>0.01750752790418763</v>
       </c>
       <c r="N87" t="n">
-        <v>0.08798784939085874</v>
+        <v>0.09556024212254871</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01832403789695147</v>
+        <v>0.01748579465899786</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10155,28 +10153,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.03034275054504813</v>
+        <v>0.02936872634425651</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01922021025918205</v>
+        <v>0.01836784917656535</v>
       </c>
       <c r="J88" t="n">
-        <v>0.03034275054504813</v>
+        <v>0.02936872634425651</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01922021025918205</v>
+        <v>0.01836784917656535</v>
       </c>
       <c r="L88" t="n">
-        <v>0.06325025206398521</v>
+        <v>0.06265524300557218</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01914683679453733</v>
+        <v>0.01830332462710525</v>
       </c>
       <c r="N88" t="n">
-        <v>0.09507418020481834</v>
+        <v>0.09325279790333924</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01915694871044927</v>
+        <v>0.01828060350713412</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10189,4578 +10187,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.0295716073976246</v>
+        <v>0.03035174312018359</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02005587157479867</v>
+        <v>0.01916645131467689</v>
       </c>
       <c r="J89" t="n">
-        <v>0.0295716073976246</v>
+        <v>0.03035174312018359</v>
       </c>
       <c r="K89" t="n">
-        <v>0.02005587157479867</v>
+        <v>0.01916645131467689</v>
       </c>
       <c r="L89" t="n">
-        <v>0.06160630107208243</v>
+        <v>0.06262749519079611</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01997930795951721</v>
+        <v>0.01909912135002287</v>
       </c>
       <c r="N89" t="n">
-        <v>0.08757204867542284</v>
+        <v>0.08991430246395143</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01998985952394706</v>
+        <v>0.01907541235527039</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.03113009943113421</v>
+        <v>0.030119062963977</v>
       </c>
       <c r="G90" t="n">
-        <v>0.02089153289041528</v>
+        <v>0.01996505345278843</v>
       </c>
       <c r="J90" t="n">
-        <v>0.03113009943113421</v>
+        <v>0.030119062963977</v>
       </c>
       <c r="K90" t="n">
-        <v>0.02089153289041528</v>
+        <v>0.01996505345278843</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05879204500848173</v>
+        <v>0.06277594757985799</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0208117791244971</v>
+        <v>0.01989491807294048</v>
       </c>
       <c r="N90" t="n">
-        <v>0.09056702294340352</v>
+        <v>0.09597040465060142</v>
       </c>
       <c r="O90" t="n">
-        <v>0.02082277033744486</v>
+        <v>0.01987022120340665</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03120954780778619</v>
+        <v>0.0294047679095617</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02172719420603189</v>
+        <v>0.02076365559089997</v>
       </c>
       <c r="J91" t="n">
-        <v>0.03120954780778619</v>
+        <v>0.0294047679095617</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02172719420603189</v>
+        <v>0.02076365559089997</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06494874238199758</v>
+        <v>0.06157079435208329</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02164425028947698</v>
+        <v>0.0206907147958581</v>
       </c>
       <c r="N91" t="n">
-        <v>0.09954574515574699</v>
+        <v>0.09487520693345169</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02165568115094265</v>
+        <v>0.02066503005154292</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02886955756803758</v>
+        <v>0.03088310543472578</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0225628555216485</v>
+        <v>0.02156225772901151</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02886955756803758</v>
+        <v>0.03088310543472578</v>
       </c>
       <c r="K92" t="n">
-        <v>0.0225628555216485</v>
+        <v>0.02156225772901151</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06411629347372733</v>
+        <v>0.06438957199351877</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02247672145445686</v>
+        <v>0.02148651151877572</v>
       </c>
       <c r="N92" t="n">
-        <v>0.09934146880735573</v>
+        <v>0.09322622840560107</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02248859196444045</v>
+        <v>0.02145983889967918</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03094883621807676</v>
+        <v>0.03031923648782947</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02339851683726511</v>
+        <v>0.02236085986712304</v>
       </c>
       <c r="J93" t="n">
-        <v>0.03094883621807676</v>
+        <v>0.03031923648782947</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02339851683726511</v>
+        <v>0.02236085986712304</v>
       </c>
       <c r="L93" t="n">
-        <v>0.0643271734547432</v>
+        <v>0.06161958509118665</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02330919261943675</v>
+        <v>0.02228230824169334</v>
       </c>
       <c r="N93" t="n">
-        <v>0.09453575518101071</v>
+        <v>0.09819353852490303</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02332150277793824</v>
+        <v>0.02225464774781545</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03056580787545891</v>
+        <v>0.03014626586577156</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02423417815288172</v>
+        <v>0.02315946200523458</v>
       </c>
       <c r="J94" t="n">
-        <v>0.03056580787545891</v>
+        <v>0.03014626586577156</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02423417815288172</v>
+        <v>0.02315946200523458</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06398590118068975</v>
+        <v>0.06422578716381014</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02414166378441663</v>
+        <v>0.02307810496461096</v>
       </c>
       <c r="N94" t="n">
-        <v>0.09074604181533663</v>
+        <v>0.09852608211119307</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02415441359143604</v>
+        <v>0.02304945659595171</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03002530883040662</v>
+        <v>0.03032679762392886</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02506983946849833</v>
+        <v>0.02395806414334612</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03002530883040662</v>
+        <v>0.03032679762392886</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02506983946849833</v>
+        <v>0.02395806414334612</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06883242431628378</v>
+        <v>0.06215100891697428</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02497413494939651</v>
+        <v>0.02387390168752858</v>
       </c>
       <c r="N95" t="n">
-        <v>0.09282035848175441</v>
+        <v>0.098851296428974</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02498732440493383</v>
+        <v>0.02384426544408798</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02982703020142168</v>
+        <v>0.03138419434074982</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02590550078411494</v>
+        <v>0.02475666628145766</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02982703020142168</v>
+        <v>0.03138419434074982</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02590550078411494</v>
+        <v>0.02475666628145766</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06223829893627719</v>
+        <v>0.06215341436619456</v>
       </c>
       <c r="M96" t="n">
-        <v>0.0258066061143764</v>
+        <v>0.0246696984104462</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1005054311214978</v>
+        <v>0.09748646978090214</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02582023521843162</v>
+        <v>0.02463907429222425</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03191826803930944</v>
+        <v>0.03028145119668793</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02674116209973155</v>
+        <v>0.02555526841956919</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03191826803930944</v>
+        <v>0.03028145119668793</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02674116209973155</v>
+        <v>0.02555526841956919</v>
       </c>
       <c r="L97" t="n">
-        <v>0.069514516748206</v>
+        <v>0.06342708826307791</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02663907727935628</v>
+        <v>0.02546549513336382</v>
       </c>
       <c r="N97" t="n">
-        <v>0.09943040934697323</v>
+        <v>0.09883392196665108</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02665314603192942</v>
+        <v>0.02543388314036052</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03232062696508867</v>
+        <v>0.03145574058574067</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02757682341534816</v>
+        <v>0.02635387055768073</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03232062696508867</v>
+        <v>0.03145574058574067</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02757682341534816</v>
+        <v>0.02635387055768073</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06602224173684429</v>
+        <v>0.06602020849574297</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02747154844433616</v>
+        <v>0.02626129185628144</v>
       </c>
       <c r="N98" t="n">
-        <v>0.09562774533840013</v>
+        <v>0.1001212323406947</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02748605684542721</v>
+        <v>0.02622869198849678</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03102913326212087</v>
+        <v>0.03051729432803252</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02841248473096478</v>
+        <v>0.02715247269579226</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03102913326212087</v>
+        <v>0.03051729432803252</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02841248473096478</v>
+        <v>0.02715247269579226</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06606654337653359</v>
+        <v>0.06545010218166983</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02830401960931605</v>
+        <v>0.02705708857919906</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1016703906061244</v>
+        <v>0.0960025769542871</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02831896765892501</v>
+        <v>0.02702350083663305</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03356382721759217</v>
+        <v>0.03165506549092351</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02924814604658139</v>
+        <v>0.02795107483390381</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03356382721759217</v>
+        <v>0.03165506549092351</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02924814604658139</v>
+        <v>0.02795107483390381</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06995357862672527</v>
+        <v>0.06613997748466249</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02913649077429593</v>
+        <v>0.02785288530211668</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1008371102355406</v>
+        <v>0.09961869729555906</v>
       </c>
       <c r="O100" t="n">
-        <v>0.0291518784724228</v>
+        <v>0.02781830968476931</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.0328142009167238</v>
+        <v>0.03198616182083582</v>
       </c>
       <c r="G101" t="n">
-        <v>0.030083807362198</v>
+        <v>0.02874967697201534</v>
       </c>
       <c r="J101" t="n">
-        <v>0.0328142009167238</v>
+        <v>0.03198616182083582</v>
       </c>
       <c r="K101" t="n">
-        <v>0.030083807362198</v>
+        <v>0.02874967697201534</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06831862276465045</v>
+        <v>0.06603097177411663</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02996896193927581</v>
+        <v>0.0286486820250343</v>
       </c>
       <c r="N101" t="n">
-        <v>0.09971701605784378</v>
+        <v>0.09883828767660308</v>
       </c>
       <c r="O101" t="n">
-        <v>0.0299847892859206</v>
+        <v>0.02861311853290558</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03167868756413103</v>
+        <v>0.03175286241894401</v>
       </c>
       <c r="G102" t="n">
-        <v>0.03091946867781461</v>
+        <v>0.02954827911012688</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03167868756413103</v>
+        <v>0.03175286241894401</v>
       </c>
       <c r="K102" t="n">
-        <v>0.03091946867781461</v>
+        <v>0.02954827911012688</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06428916210687499</v>
+        <v>0.0664508124933896</v>
       </c>
       <c r="M102" t="n">
-        <v>0.0308014331042557</v>
+        <v>0.02944447874795192</v>
       </c>
       <c r="N102" t="n">
-        <v>0.09838085438005301</v>
+        <v>0.1021240202906205</v>
       </c>
       <c r="O102" t="n">
-        <v>0.03081770009941839</v>
+        <v>0.02940792738104184</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03309289258669462</v>
+        <v>0.03146690468171351</v>
       </c>
       <c r="G103" t="n">
-        <v>0.03175512999343122</v>
+        <v>0.03034688124823841</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03309289258669462</v>
+        <v>0.03146690468171351</v>
       </c>
       <c r="K103" t="n">
-        <v>0.03175512999343122</v>
+        <v>0.03034688124823841</v>
       </c>
       <c r="L103" t="n">
-        <v>0.06903310008604235</v>
+        <v>0.06472362482707233</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03163390426923558</v>
+        <v>0.03024027547086953</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1077393589747913</v>
+        <v>0.09835731149350613</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03165061091291618</v>
+        <v>0.03020273622917811</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.03401938556958685</v>
+        <v>0.03200649583955095</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03259079130904783</v>
+        <v>0.03114548338634995</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03401938556958685</v>
+        <v>0.03200649583955095</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03259079130904783</v>
+        <v>0.03114548338634995</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06478648790548627</v>
+        <v>0.06584591769327405</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03246637543421547</v>
+        <v>0.03103607219378715</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1091140705420559</v>
+        <v>0.09926430204873982</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03248352172641398</v>
+        <v>0.03099754507731438</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03320293171339513</v>
+        <v>0.03188798912090333</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03342645262466444</v>
+        <v>0.03194408552446149</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03320293171339513</v>
+        <v>0.03188798912090333</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03342645262466444</v>
+        <v>0.03194408552446149</v>
       </c>
       <c r="L105" t="n">
-        <v>0.07045183029538876</v>
+        <v>0.06828378323441162</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03329884659919535</v>
+        <v>0.03183186891670477</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1071225566749908</v>
+        <v>0.09779229905734987</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03331643253991177</v>
+        <v>0.03179235392545064</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.03210418705915875</v>
+        <v>0.03165481650361453</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03426211394028105</v>
+        <v>0.03274268766257302</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03210418705915875</v>
+        <v>0.03165481650361453</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03426211394028105</v>
+        <v>0.03274268766257302</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06868816962009705</v>
+        <v>0.06532149092664652</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03413131776417524</v>
+        <v>0.0326276656396224</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1050043543105884</v>
+        <v>0.09801148912600427</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03414934335340956</v>
+        <v>0.03258716277358691</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.0337936779191992</v>
+        <v>0.03173915785576645</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03509777525589766</v>
+        <v>0.03354128980068456</v>
       </c>
       <c r="J107" t="n">
-        <v>0.0337936779191992</v>
+        <v>0.03173915785576645</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03509777525589766</v>
+        <v>0.03354128980068456</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06872675493842417</v>
+        <v>0.06391939561564325</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03496378892915512</v>
+        <v>0.03342346236254001</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1040731567540744</v>
+        <v>0.1007911584141069</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03498225416690736</v>
+        <v>0.03338197162172318</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.03472467747381784</v>
+        <v>0.03201611971141213</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03593343657151428</v>
+        <v>0.0343398919387961</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03472467747381784</v>
+        <v>0.03201611971141213</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03593343657151428</v>
+        <v>0.0343398919387961</v>
       </c>
       <c r="L108" t="n">
-        <v>0.07385665856249404</v>
+        <v>0.0672108924689658</v>
       </c>
       <c r="M108" t="n">
-        <v>0.035796260094135</v>
+        <v>0.03421925908545763</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1095416021040365</v>
+        <v>0.1002968101120417</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03581516498040516</v>
+        <v>0.03417678046985945</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.03180000313916227</v>
+        <v>0.03145099978766136</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03676909788713088</v>
+        <v>0.03513849407690764</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03180000313916227</v>
+        <v>0.03145099978766136</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03676909788713088</v>
+        <v>0.03513849407690764</v>
       </c>
       <c r="L109" t="n">
-        <v>0.07001368940556923</v>
+        <v>0.0648971922716946</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03662873125911489</v>
+        <v>0.03501505580837525</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1069118204896099</v>
+        <v>0.1010637237563592</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03664807579390295</v>
+        <v>0.03497158931799571</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.03369104310192499</v>
+        <v>0.03273199874546368</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03760475920274749</v>
+        <v>0.03593709621501918</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03369104310192499</v>
+        <v>0.03273199874546368</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03760475920274749</v>
+        <v>0.03593709621501918</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06939270709973516</v>
+        <v>0.06532786769371271</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03746120242409477</v>
+        <v>0.03581085253129287</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1119855923083167</v>
+        <v>0.1003327529730619</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03748098660740074</v>
+        <v>0.03576639816613197</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.03268910665737676</v>
+        <v>0.03242216523143741</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0384404205183641</v>
+        <v>0.03673569835313071</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03268910665737676</v>
+        <v>0.03242216523143741</v>
       </c>
       <c r="K111" t="n">
-        <v>0.0384404205183641</v>
+        <v>0.03673569835313071</v>
       </c>
       <c r="L111" t="n">
-        <v>0.06985709319082115</v>
+        <v>0.06511421190393671</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03829367358907465</v>
+        <v>0.03660664925421049</v>
       </c>
       <c r="N111" t="n">
-        <v>0.112090122994837</v>
+        <v>0.09987096469191625</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03831389742089854</v>
+        <v>0.03656120701426824</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.03285481298153339</v>
+        <v>0.03300519124038145</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03927608183398072</v>
+        <v>0.03753430049124225</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03285481298153339</v>
+        <v>0.03300519124038145</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03927608183398072</v>
+        <v>0.03753430049124225</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06720616795726184</v>
+        <v>0.06712556473196613</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03912614475405454</v>
+        <v>0.03740244597712811</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1045313087009591</v>
+        <v>0.1029401275197385</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03914680823439633</v>
+        <v>0.0373560158624045</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.03264139790975902</v>
+        <v>0.03228419858767297</v>
       </c>
       <c r="G113" t="n">
-        <v>0.04011174314959733</v>
+        <v>0.03833290262935379</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03264139790975902</v>
+        <v>0.03228419858767297</v>
       </c>
       <c r="K113" t="n">
-        <v>0.04011174314959733</v>
+        <v>0.03833290262935379</v>
       </c>
       <c r="L113" t="n">
-        <v>0.07371554405221162</v>
+        <v>0.06857355445601382</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03995861591903442</v>
+        <v>0.03819824270004573</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1139914606002199</v>
+        <v>0.1040263531757958</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03997971904789412</v>
+        <v>0.03815082471054077</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.03311858298809713</v>
+        <v>0.03217685344275156</v>
       </c>
       <c r="G114" t="n">
-        <v>0.04094740446521394</v>
+        <v>0.03913150476746532</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03311858298809713</v>
+        <v>0.03217685344275156</v>
       </c>
       <c r="K114" t="n">
-        <v>0.04094740446521394</v>
+        <v>0.03913150476746532</v>
       </c>
       <c r="L114" t="n">
-        <v>0.06894804417102532</v>
+        <v>0.06482670226240483</v>
       </c>
       <c r="M114" t="n">
-        <v>0.0407910870840143</v>
+        <v>0.03899403942296335</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1075382648216212</v>
+        <v>0.1023007868623615</v>
       </c>
       <c r="O114" t="n">
-        <v>0.04081262986139192</v>
+        <v>0.03894563355867704</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.03519637381024664</v>
+        <v>0.032023201873773</v>
       </c>
       <c r="G115" t="n">
-        <v>0.04178306578083055</v>
+        <v>0.03993010690557686</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03519637381024664</v>
+        <v>0.032023201873773</v>
       </c>
       <c r="K115" t="n">
-        <v>0.04178306578083055</v>
+        <v>0.03993010690557686</v>
       </c>
       <c r="L115" t="n">
-        <v>0.07267053340730986</v>
+        <v>0.06743892796481182</v>
       </c>
       <c r="M115" t="n">
-        <v>0.04162355824899419</v>
+        <v>0.03978983614588096</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1081455579003621</v>
+        <v>0.1040467247927345</v>
       </c>
       <c r="O115" t="n">
-        <v>0.04164554067488972</v>
+        <v>0.03974044240681331</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03312922935953025</v>
+        <v>0.03283076178412826</v>
       </c>
       <c r="G116" t="n">
-        <v>0.04261872709644716</v>
+        <v>0.0407287090436884</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03312922935953025</v>
+        <v>0.03283076178412826</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04261872709644716</v>
+        <v>0.0407287090436884</v>
       </c>
       <c r="L116" t="n">
-        <v>0.07226864774805428</v>
+        <v>0.06726784680378875</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04245602941397407</v>
+        <v>0.04058563286879859</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1018208644058662</v>
+        <v>0.1002086090354549</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04247845148838751</v>
+        <v>0.04053525125494957</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03259315939682231</v>
+        <v>0.0323514270865124</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04345438841206378</v>
+        <v>0.04152731118179993</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03259315939682231</v>
+        <v>0.0323514270865124</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04345438841206378</v>
+        <v>0.04152731118179993</v>
       </c>
       <c r="L117" t="n">
-        <v>0.06747651621030618</v>
+        <v>0.06837078878139211</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04328850057895395</v>
+        <v>0.04138142959171621</v>
       </c>
       <c r="N117" t="n">
-        <v>0.107336163654758</v>
+        <v>0.10071790337931</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04331136230188531</v>
+        <v>0.04133006010308584</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.03265056725213017</v>
+        <v>0.03347264050269713</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04429004972768038</v>
+        <v>0.04232591331991148</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03265056725213017</v>
+        <v>0.03347264050269713</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04429004972768038</v>
+        <v>0.04232591331991148</v>
       </c>
       <c r="L118" t="n">
-        <v>0.06878357436720187</v>
+        <v>0.06885848046010085</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04412097174393384</v>
+        <v>0.04217722631463382</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1095981449590579</v>
+        <v>0.1003889113424208</v>
       </c>
       <c r="O118" t="n">
-        <v>0.0441442731153831</v>
+        <v>0.0421248689512221</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.03336973050254187</v>
+        <v>0.0324009879844238</v>
       </c>
       <c r="G119" t="n">
-        <v>0.045125711043297</v>
+        <v>0.04312451545802301</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03336973050254187</v>
+        <v>0.0324009879844238</v>
       </c>
       <c r="K119" t="n">
-        <v>0.045125711043297</v>
+        <v>0.04312451545802301</v>
       </c>
       <c r="L119" t="n">
-        <v>0.06973717123715822</v>
+        <v>0.06670688957789744</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04495344290891373</v>
+        <v>0.04297302303755144</v>
       </c>
       <c r="N119" t="n">
-        <v>0.111145467630271</v>
+        <v>0.1020744231153459</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04497718392888089</v>
+        <v>0.04291967779935837</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.03548731074111876</v>
+        <v>0.03350708833909166</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04596137235891361</v>
+        <v>0.04392311759613455</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03548731074111876</v>
+        <v>0.03350708833909166</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04596137235891361</v>
+        <v>0.04392311759613455</v>
       </c>
       <c r="L120" t="n">
-        <v>0.07015502312476452</v>
+        <v>0.06597449468063266</v>
       </c>
       <c r="M120" t="n">
-        <v>0.0457859140738936</v>
+        <v>0.04376881976046906</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1074245672894185</v>
+        <v>0.1003575500483782</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04581009474237868</v>
+        <v>0.04371448664749464</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03379194294608752</v>
+        <v>0.03284164866167213</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04679703367453022</v>
+        <v>0.04472171973424608</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03379194294608752</v>
+        <v>0.03284164866167213</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04679703367453022</v>
+        <v>0.04472171973424608</v>
       </c>
       <c r="L121" t="n">
-        <v>0.07634395071773686</v>
+        <v>0.06822489060062745</v>
       </c>
       <c r="M121" t="n">
-        <v>0.0466183852388735</v>
+        <v>0.04456461648338668</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1086783245291367</v>
+        <v>0.1066752736828553</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04664300555587648</v>
+        <v>0.0445092954956309</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03594289728204045</v>
+        <v>0.03278329425483359</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04763269499014683</v>
+        <v>0.04552032187235762</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03594289728204045</v>
+        <v>0.03278329425483359</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04763269499014683</v>
+        <v>0.04552032187235762</v>
       </c>
       <c r="L122" t="n">
-        <v>0.07416247361736877</v>
+        <v>0.06937579502514507</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04745085640385337</v>
+        <v>0.0453604132063043</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1122615316144113</v>
+        <v>0.1004813858249624</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04747591636937427</v>
+        <v>0.04530410434376717</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.03577463162899475</v>
+        <v>0.0330674856496137</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04846835630576344</v>
+        <v>0.04631892401046916</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03577463162899475</v>
+        <v>0.0330674856496137</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04846835630576344</v>
+        <v>0.04631892401046916</v>
       </c>
       <c r="L123" t="n">
-        <v>0.06787156010391368</v>
+        <v>0.07016928495230326</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04828332756883326</v>
+        <v>0.04615620992922193</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1105675233813346</v>
+        <v>0.1068159686054734</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04830882718287207</v>
+        <v>0.04609891319190343</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03391918293424898</v>
+        <v>0.03323550094383375</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04930401762138006</v>
+        <v>0.0471175261485807</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03391918293424898</v>
+        <v>0.03323550094383375</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04930401762138006</v>
+        <v>0.0471175261485807</v>
       </c>
       <c r="L124" t="n">
-        <v>0.06822839136146902</v>
+        <v>0.06935044851174085</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04911579873381314</v>
+        <v>0.04695200665213954</v>
       </c>
       <c r="N124" t="n">
-        <v>0.107663272138697</v>
+        <v>0.1023485640648875</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04914173799636987</v>
+        <v>0.0468937220400397</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.03596180045268316</v>
+        <v>0.03377206812618737</v>
       </c>
       <c r="G125" t="n">
-        <v>0.05013967893699666</v>
+        <v>0.04791612828669223</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03596180045268316</v>
+        <v>0.03377206812618737</v>
       </c>
       <c r="K125" t="n">
-        <v>0.05013967893699666</v>
+        <v>0.04791612828669223</v>
       </c>
       <c r="L125" t="n">
-        <v>0.0695253577058069</v>
+        <v>0.06967535485557766</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04994826989879303</v>
+        <v>0.04774780337505716</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1028157107776216</v>
+        <v>0.104721808470769</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04997464880986766</v>
+        <v>0.04768853088817596</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03501635455369616</v>
+        <v>0.03253698544489488</v>
       </c>
       <c r="G126" t="n">
-        <v>0.05097534025261327</v>
+        <v>0.04871473042480377</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03501635455369616</v>
+        <v>0.03253698544489488</v>
       </c>
       <c r="K126" t="n">
-        <v>0.05097534025261327</v>
+        <v>0.04871473042480377</v>
       </c>
       <c r="L126" t="n">
-        <v>0.07062493520237684</v>
+        <v>0.06954115938560076</v>
       </c>
       <c r="M126" t="n">
-        <v>0.05078074106377291</v>
+        <v>0.04854360009797478</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1162284337090515</v>
+        <v>0.1021302801306853</v>
       </c>
       <c r="O126" t="n">
-        <v>0.05080755962336545</v>
+        <v>0.04848333973631223</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.03575584822385504</v>
+        <v>0.03300615488358181</v>
       </c>
       <c r="G127" t="n">
-        <v>0.05181100156822988</v>
+        <v>0.04951333256291531</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03575584822385504</v>
+        <v>0.03300615488358181</v>
       </c>
       <c r="K127" t="n">
-        <v>0.05181100156822988</v>
+        <v>0.04951333256291531</v>
       </c>
       <c r="L127" t="n">
-        <v>0.07618168380470902</v>
+        <v>0.07105016624747229</v>
       </c>
       <c r="M127" t="n">
-        <v>0.05161321222875279</v>
+        <v>0.0493393968208924</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1091733037512694</v>
+        <v>0.1053485887909745</v>
       </c>
       <c r="O127" t="n">
-        <v>0.05164047043686324</v>
+        <v>0.0492781485844485</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.03350009258953131</v>
+        <v>0.03288114052098917</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0526466628838465</v>
+        <v>0.05031193470102685</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03350009258953131</v>
+        <v>0.03288114052098917</v>
       </c>
       <c r="K128" t="n">
-        <v>0.0526466628838465</v>
+        <v>0.05031193470102685</v>
       </c>
       <c r="L128" t="n">
-        <v>0.06845684207662336</v>
+        <v>0.07032543480474371</v>
       </c>
       <c r="M128" t="n">
-        <v>0.05244568339373268</v>
+        <v>0.05013519354381002</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1078981429372342</v>
+        <v>0.1054875909215333</v>
       </c>
       <c r="O128" t="n">
-        <v>0.05247338125036104</v>
+        <v>0.05007295743258476</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.03417732760231043</v>
+        <v>0.03335202036623212</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0534823241994631</v>
+        <v>0.05111053683913838</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03417732760231043</v>
+        <v>0.03335202036623212</v>
       </c>
       <c r="K129" t="n">
-        <v>0.0534823241994631</v>
+        <v>0.05111053683913838</v>
       </c>
       <c r="L129" t="n">
-        <v>0.07670013728261033</v>
+        <v>0.06905470280389692</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05327815455871256</v>
+        <v>0.05093099026672764</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1097268491419507</v>
+        <v>0.106974779515712</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05330629206385883</v>
+        <v>0.05086776628072103</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.0345355178507372</v>
+        <v>0.03341759543990132</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05431798551507971</v>
+        <v>0.05190913897724992</v>
       </c>
       <c r="J130" t="n">
-        <v>0.0345355178507372</v>
+        <v>0.03341759543990132</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05431798551507971</v>
+        <v>0.05190913897724992</v>
       </c>
       <c r="L130" t="n">
-        <v>0.07202519989546374</v>
+        <v>0.06914332660596983</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05411062572369245</v>
+        <v>0.05172678698964526</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1166084374214058</v>
+        <v>0.1083083792395267</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05413920287735663</v>
+        <v>0.0516625751288573</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.03387795104659401</v>
+        <v>0.03304007878541862</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05515364683069632</v>
+        <v>0.05270774111536145</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03387795104659401</v>
+        <v>0.03304007878541862</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05515364683069632</v>
+        <v>0.05270774111536145</v>
       </c>
       <c r="L131" t="n">
-        <v>0.07022581417847001</v>
+        <v>0.06902190549863629</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05494309688867233</v>
+        <v>0.05252258371256287</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1103453258447993</v>
+        <v>0.1056980164977294</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05497211369085443</v>
+        <v>0.05245738397699357</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.03376846136929212</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05598930814631294</v>
+        <v>0.053506343253473</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.03376846136929212</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05598930814631294</v>
+        <v>0.053506343253473</v>
       </c>
       <c r="L132" t="n">
-        <v>0.07267354933701325</v>
+        <v>0.07136216280430074</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05577556805365221</v>
+        <v>0.0533183804354805</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1170341079411211</v>
+        <v>0.1079752906492311</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05580502450435222</v>
+        <v>0.05325219282512982</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.03502271993565004</v>
+        <v>0.03422110288849645</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05682496946192955</v>
+        <v>0.05430494539158453</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03502271993565004</v>
+        <v>0.03422110288849645</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05682496946192955</v>
+        <v>0.05430494539158453</v>
       </c>
       <c r="L133" t="n">
-        <v>0.07300338129737621</v>
+        <v>0.07071484621013394</v>
       </c>
       <c r="M133" t="n">
-        <v>0.0566080392186321</v>
+        <v>0.05411417715839811</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1147009297896717</v>
+        <v>0.1053377171197924</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05663793531785002</v>
+        <v>0.05404700167326609</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.03509231975324413</v>
+        <v>0.03454620963866581</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05766063077754616</v>
+        <v>0.05510354752969607</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03509231975324413</v>
+        <v>0.03454620963866581</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05766063077754616</v>
+        <v>0.05510354752969607</v>
       </c>
       <c r="L134" t="n">
-        <v>0.07548686987418826</v>
+        <v>0.06928230600362975</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05744051038361198</v>
+        <v>0.05490997388131574</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1152875332001199</v>
+        <v>0.1064904869355449</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05747084613134781</v>
+        <v>0.05484181052140236</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.03604637578827415</v>
+        <v>0.03436524452062006</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05849629209316278</v>
+        <v>0.05590214966780761</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03604637578827415</v>
+        <v>0.03436524452062006</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05849629209316278</v>
+        <v>0.05590214966780761</v>
       </c>
       <c r="L135" t="n">
-        <v>0.06899598755190683</v>
+        <v>0.07097383914487509</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05827298154859186</v>
+        <v>0.05570577060423336</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1045649989365912</v>
+        <v>0.1070974571398529</v>
       </c>
       <c r="O135" t="n">
-        <v>0.0583037569448456</v>
+        <v>0.05563661936953862</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.03551184437022541</v>
+        <v>0.03327360276012552</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05933195340877939</v>
+        <v>0.05670075180591914</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03551184437022541</v>
+        <v>0.03327360276012552</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05933195340877939</v>
+        <v>0.05670075180591914</v>
       </c>
       <c r="L136" t="n">
-        <v>0.07326447626041999</v>
+        <v>0.06849479817288009</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05910545271357175</v>
+        <v>0.05650156732715097</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1131179314695748</v>
+        <v>0.1092996792280255</v>
       </c>
       <c r="O136" t="n">
-        <v>0.0591366677583434</v>
+        <v>0.05643142821767489</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.03329328587695921</v>
+        <v>0.03361831798128076</v>
       </c>
       <c r="G137" t="n">
-        <v>0.060167614724396</v>
+        <v>0.05749935394403068</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03329328587695921</v>
+        <v>0.03361831798128076</v>
       </c>
       <c r="K137" t="n">
-        <v>0.060167614724396</v>
+        <v>0.05749935394403068</v>
       </c>
       <c r="L137" t="n">
-        <v>0.07721584630798484</v>
+        <v>0.07073590181661038</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05993792387855162</v>
+        <v>0.0572973640500686</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1055174324754927</v>
+        <v>0.1049247648934684</v>
       </c>
       <c r="O137" t="n">
-        <v>0.0599695785718412</v>
+        <v>0.05722623706581115</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.03321815799361169</v>
+        <v>0.03499935391564168</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0610032760400126</v>
+        <v>0.05829795608214221</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03321815799361169</v>
+        <v>0.03499935391564168</v>
       </c>
       <c r="K138" t="n">
-        <v>0.0610032760400126</v>
+        <v>0.05829795608214221</v>
       </c>
       <c r="L138" t="n">
-        <v>0.0728637469849388</v>
+        <v>0.07062889005579806</v>
       </c>
       <c r="M138" t="n">
-        <v>0.06077039504353152</v>
+        <v>0.05809316077298621</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1112448703639292</v>
+        <v>0.1102338642260697</v>
       </c>
       <c r="O138" t="n">
-        <v>0.06080248938533898</v>
+        <v>0.05802104591394742</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.03619164165719277</v>
+        <v>0.03471944922208846</v>
       </c>
       <c r="G139" t="n">
-        <v>0.06183893735562921</v>
+        <v>0.05909655822025375</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03619164165719277</v>
+        <v>0.03471944922208846</v>
       </c>
       <c r="K139" t="n">
-        <v>0.06183893735562921</v>
+        <v>0.05909655822025375</v>
       </c>
       <c r="L139" t="n">
-        <v>0.07290911248299803</v>
+        <v>0.07119607912243769</v>
       </c>
       <c r="M139" t="n">
-        <v>0.0616028662085114</v>
+        <v>0.05888895749590383</v>
       </c>
       <c r="N139" t="n">
-        <v>0.115420927540166</v>
+        <v>0.1037036652648836</v>
       </c>
       <c r="O139" t="n">
-        <v>0.06163540019883677</v>
+        <v>0.05881585476208369</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.03660275015793943</v>
+        <v>0.03424420955275362</v>
       </c>
       <c r="G140" t="n">
-        <v>0.06267459867124583</v>
+        <v>0.0598951603583653</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03660275015793943</v>
+        <v>0.03424420955275362</v>
       </c>
       <c r="K140" t="n">
-        <v>0.06267459867124583</v>
+        <v>0.0598951603583653</v>
       </c>
       <c r="L140" t="n">
-        <v>0.07506921469426428</v>
+        <v>0.0723014852399434</v>
       </c>
       <c r="M140" t="n">
-        <v>0.06243533737349128</v>
+        <v>0.05968475421882145</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1100874661266317</v>
+        <v>0.1067282995409736</v>
       </c>
       <c r="O140" t="n">
-        <v>0.06246831101233457</v>
+        <v>0.05961066361021996</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.03390735049307597</v>
+        <v>0.03388734054298047</v>
       </c>
       <c r="G141" t="n">
-        <v>0.06351025998686244</v>
+        <v>0.06069376249647682</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03390735049307597</v>
+        <v>0.03388734054298047</v>
       </c>
       <c r="K141" t="n">
-        <v>0.06351025998686244</v>
+        <v>0.06069376249647682</v>
       </c>
       <c r="L141" t="n">
-        <v>0.07120781103064247</v>
+        <v>0.0698169464626229</v>
       </c>
       <c r="M141" t="n">
-        <v>0.06326780853847117</v>
+        <v>0.06048055094173907</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1070824767702916</v>
+        <v>0.1085891774730888</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06330122182583237</v>
+        <v>0.06040547245835622</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.03431627571633057</v>
+        <v>0.0353390029801295</v>
       </c>
       <c r="G142" t="n">
-        <v>0.06434592130247904</v>
+        <v>0.06149236463458837</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03431627571633057</v>
+        <v>0.0353390029801295</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06434592130247904</v>
+        <v>0.06149236463458837</v>
       </c>
       <c r="L142" t="n">
-        <v>0.06869374381969293</v>
+        <v>0.06980502637048203</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06410027970345106</v>
+        <v>0.06127634766465669</v>
       </c>
       <c r="N142" t="n">
-        <v>0.111783285955382</v>
+        <v>0.1091140705420559</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06413413263933015</v>
+        <v>0.06120028130649249</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.03556267874457682</v>
+        <v>0.0352100415962925</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06518158261809566</v>
+        <v>0.06229096677269991</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03556267874457682</v>
+        <v>0.0352100415962925</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06518158261809566</v>
+        <v>0.06229096677269991</v>
       </c>
       <c r="L143" t="n">
-        <v>0.07020613375156559</v>
+        <v>0.07093983365509376</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06493275086843094</v>
+        <v>0.0620721443875743</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1158542943552155</v>
+        <v>0.1050091862514784</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06496704345282796</v>
+        <v>0.06199509015462876</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.03540903320315138</v>
+        <v>0.03527139706196838</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06601724393371228</v>
+        <v>0.06308956891081144</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03540903320315138</v>
+        <v>0.03527139706196838</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06601724393371228</v>
+        <v>0.06308956891081144</v>
       </c>
       <c r="L144" t="n">
-        <v>0.07165152224547511</v>
+        <v>0.07215760591123513</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06576522203341081</v>
+        <v>0.06286794111049193</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1170975133859766</v>
+        <v>0.1063943383933591</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06579995426632575</v>
+        <v>0.06278989900276502</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.03355698278483278</v>
+        <v>0.03481989015568153</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06685290524932888</v>
+        <v>0.06388817104892298</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03355698278483278</v>
+        <v>0.03481989015568153</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06685290524932888</v>
+        <v>0.06388817104892298</v>
       </c>
       <c r="L145" t="n">
-        <v>0.06998772809284684</v>
+        <v>0.07199619978501334</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06659769319839069</v>
+        <v>0.06366373783340955</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1078661624729477</v>
+        <v>0.1049126598719911</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06663286507982354</v>
+        <v>0.06358470785090128</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.03641584291381066</v>
+        <v>0.03447837818470113</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06768856656494548</v>
+        <v>0.06468677318703452</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03641584291381066</v>
+        <v>0.03447837818470113</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06768856656494548</v>
+        <v>0.06468677318703452</v>
       </c>
       <c r="L146" t="n">
-        <v>0.07593626526019598</v>
+        <v>0.07310219288746314</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06743016436337058</v>
+        <v>0.06445953455632716</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1173487594142565</v>
+        <v>0.1105171399755847</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06746577589332134</v>
+        <v>0.06437951669903756</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.03539239140414847</v>
+        <v>0.03493632924887161</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0685242278805621</v>
+        <v>0.06548537532514605</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03539239140414847</v>
+        <v>0.03493632924887161</v>
       </c>
       <c r="K147" t="n">
-        <v>0.0685242278805621</v>
+        <v>0.06548537532514605</v>
       </c>
       <c r="L147" t="n">
-        <v>0.07034880669040414</v>
+        <v>0.07056595480496783</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06826263552835048</v>
+        <v>0.06525533127924479</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1112850772737026</v>
+        <v>0.1110793562843798</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06829868670681913</v>
+        <v>0.06517432554717383</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.03617521799729453</v>
+        <v>0.03497064193167738</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06935988919617872</v>
+        <v>0.06628397746325759</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03617521799729453</v>
+        <v>0.03497064193167738</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06935988919617872</v>
+        <v>0.06628397746325759</v>
       </c>
       <c r="L148" t="n">
-        <v>0.0731981403243252</v>
+        <v>0.07331208373623893</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06909510669333034</v>
+        <v>0.0660511280021624</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1137882062826459</v>
+        <v>0.1056594784984962</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06913159752031693</v>
+        <v>0.06596913439531009</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.03545803295734969</v>
+        <v>0.034666060219809</v>
       </c>
       <c r="G149" t="n">
-        <v>0.07019555051179532</v>
+        <v>0.06708257960136912</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03545803295734969</v>
+        <v>0.034666060219809</v>
       </c>
       <c r="K149" t="n">
-        <v>0.07019555051179532</v>
+        <v>0.06708257960136912</v>
       </c>
       <c r="L149" t="n">
-        <v>0.07585788033181784</v>
+        <v>0.0718803054841704</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06992757785831023</v>
+        <v>0.06684692472508003</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1079555551441347</v>
+        <v>0.1070035190573297</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06996450833381472</v>
+        <v>0.06676394324344635</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.03413593543857445</v>
+        <v>0.03404534128889175</v>
       </c>
       <c r="G150" t="n">
-        <v>0.07103121182741194</v>
+        <v>0.06788118173948067</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03413593543857445</v>
+        <v>0.03404534128889175</v>
       </c>
       <c r="K150" t="n">
-        <v>0.07103121182741194</v>
+        <v>0.06788118173948067</v>
       </c>
       <c r="L150" t="n">
-        <v>0.07080541665107504</v>
+        <v>0.07202519989546374</v>
       </c>
       <c r="M150" t="n">
-        <v>0.07076004902329013</v>
+        <v>0.06764272144799764</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1140374076708649</v>
+        <v>0.1106107907403298</v>
       </c>
       <c r="O150" t="n">
-        <v>0.07079741914731252</v>
+        <v>0.06755875209158262</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.0346967688432441</v>
+        <v>0.0343033848565492</v>
       </c>
       <c r="G151" t="n">
-        <v>0.07186687314302856</v>
+        <v>0.0686797838775922</v>
       </c>
       <c r="J151" t="n">
-        <v>0.0346967688432441</v>
+        <v>0.0343033848565492</v>
       </c>
       <c r="K151" t="n">
-        <v>0.07186687314302856</v>
+        <v>0.0686797838775922</v>
       </c>
       <c r="L151" t="n">
-        <v>0.07106902366721801</v>
+        <v>0.07132318454248274</v>
       </c>
       <c r="M151" t="n">
-        <v>0.07159252018827</v>
+        <v>0.06843851817091526</v>
       </c>
       <c r="N151" t="n">
-        <v>0.117030499322042</v>
+        <v>0.1116478345895542</v>
       </c>
       <c r="O151" t="n">
-        <v>0.07163032996081031</v>
+        <v>0.06835356093971889</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.0353402597173724</v>
+        <v>0.03482077751824363</v>
       </c>
       <c r="G152" t="n">
-        <v>0.07270253445864516</v>
+        <v>0.06947838601570373</v>
       </c>
       <c r="J152" t="n">
-        <v>0.0353402597173724</v>
+        <v>0.03482077751824363</v>
       </c>
       <c r="K152" t="n">
-        <v>0.07270253445864516</v>
+        <v>0.06947838601570373</v>
       </c>
       <c r="L152" t="n">
-        <v>0.07745106068164956</v>
+        <v>0.07200867169050701</v>
       </c>
       <c r="M152" t="n">
-        <v>0.07242499135324988</v>
+        <v>0.06923431489383289</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1117615351853138</v>
+        <v>0.1052577710582335</v>
       </c>
       <c r="O152" t="n">
-        <v>0.0724632407743081</v>
+        <v>0.06914836978785516</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.03683361364132172</v>
+        <v>0.03559744022401931</v>
       </c>
       <c r="G153" t="n">
-        <v>0.07353819577426177</v>
+        <v>0.07027698815381528</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03683361364132172</v>
+        <v>0.03559744022401931</v>
       </c>
       <c r="K153" t="n">
-        <v>0.07353819577426177</v>
+        <v>0.07027698815381528</v>
       </c>
       <c r="L153" t="n">
-        <v>0.07186004085513822</v>
+        <v>0.07100917047289304</v>
       </c>
       <c r="M153" t="n">
-        <v>0.07325746251822977</v>
+        <v>0.0700301116167505</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1099634843717394</v>
+        <v>0.1106751667313472</v>
       </c>
       <c r="O153" t="n">
-        <v>0.07329615158780589</v>
+        <v>0.06994317863599142</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.03432432689171129</v>
+        <v>0.03434660448570089</v>
       </c>
       <c r="G154" t="n">
-        <v>0.07437385708987838</v>
+        <v>0.07107559029192681</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03432432689171129</v>
+        <v>0.03434660448570089</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07437385708987838</v>
+        <v>0.07107559029192681</v>
       </c>
       <c r="L154" t="n">
-        <v>0.07687796528633012</v>
+        <v>0.07239841262249397</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07408993368320965</v>
+        <v>0.07082590833966812</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1158615126297976</v>
+        <v>0.1109929211273827</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07412906240130368</v>
+        <v>0.07073798748412768</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.03694783765059149</v>
+        <v>0.03459177533299297</v>
       </c>
       <c r="G155" t="n">
-        <v>0.07520951840549499</v>
+        <v>0.07187419243003836</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03694783765059149</v>
+        <v>0.03459177533299297</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07520951840549499</v>
+        <v>0.07187419243003836</v>
       </c>
       <c r="L155" t="n">
-        <v>0.07125090689005192</v>
+        <v>0.0735455532464698</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07492240484818953</v>
+        <v>0.07162170506258574</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1111883424584468</v>
+        <v>0.1063074928804622</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07496197321480148</v>
+        <v>0.07153279633226395</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.03597927951301495</v>
+        <v>0.03495577742722522</v>
       </c>
       <c r="G156" t="n">
-        <v>0.07604517972111161</v>
+        <v>0.07267279456814989</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03597927951301495</v>
+        <v>0.03495577742722522</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07604517972111161</v>
+        <v>0.07267279456814989</v>
       </c>
       <c r="L156" t="n">
-        <v>0.07526774366536926</v>
+        <v>0.07263978373338448</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07575487601316942</v>
+        <v>0.07241750178550337</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1122076912241533</v>
+        <v>0.1117413512332815</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07579488402829927</v>
+        <v>0.07232760518040021</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.03694333671334693</v>
+        <v>0.03471831329218036</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07688084103672821</v>
+        <v>0.07347139670626142</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03694333671334693</v>
+        <v>0.03471831329218036</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07688084103672821</v>
+        <v>0.07347139670626142</v>
       </c>
       <c r="L157" t="n">
-        <v>0.07638024955619904</v>
+        <v>0.0721684809329638</v>
       </c>
       <c r="M157" t="n">
-        <v>0.0765873471781493</v>
+        <v>0.07321329850842098</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1166897477788194</v>
+        <v>0.1080564210692909</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07662779484179708</v>
+        <v>0.07312241402853648</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.03544519796561453</v>
+        <v>0.03545261114142337</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07771650235234483</v>
+        <v>0.07426999884437296</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03544519796561453</v>
+        <v>0.03545261114142337</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07771650235234483</v>
+        <v>0.07426999884437296</v>
       </c>
       <c r="L158" t="n">
-        <v>0.07499522633515257</v>
+        <v>0.06980005539319412</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07741981834312919</v>
+        <v>0.0740090952313386</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1097234659518869</v>
+        <v>0.105429533380847</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07746070565529486</v>
+        <v>0.07391722287667274</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.03470181054799693</v>
+        <v>0.03550463556169031</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07855216366796144</v>
+        <v>0.0750686009824845</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03470181054799693</v>
+        <v>0.03550463556169031</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07855216366796144</v>
+        <v>0.0750686009824845</v>
       </c>
       <c r="L159" t="n">
-        <v>0.07343086100327706</v>
+        <v>0.07001926904110531</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07825228950810907</v>
+        <v>0.07480489195425621</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1067410210596702</v>
+        <v>0.1056737982799662</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07829361646879267</v>
+        <v>0.074712031724809</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.03674048469312889</v>
+        <v>0.03462206868033965</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07938782498357805</v>
+        <v>0.07586720312059604</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03674048469312889</v>
+        <v>0.03462206868033965</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07938782498357805</v>
+        <v>0.07586720312059604</v>
       </c>
       <c r="L160" t="n">
-        <v>0.07484989590430155</v>
+        <v>0.06959777747754303</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07908476067308895</v>
+        <v>0.07560068867717383</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1168132632060863</v>
+        <v>0.1100572667149165</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07912652728229046</v>
+        <v>0.07550684057294528</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.03687379672806385</v>
+        <v>0.03452280453787571</v>
       </c>
       <c r="G161" t="n">
-        <v>0.08022348629919467</v>
+        <v>0.07666580525870757</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03687379672806385</v>
+        <v>0.03452280453787571</v>
       </c>
       <c r="K161" t="n">
-        <v>0.08022348629919467</v>
+        <v>0.07666580525870757</v>
       </c>
       <c r="L161" t="n">
-        <v>0.07716606339469642</v>
+        <v>0.07056441297471044</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07991723183806884</v>
+        <v>0.07639648540009146</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1091666132839188</v>
+        <v>0.10822286930151</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07995943809578825</v>
+        <v>0.07630164942108154</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.03696732262616959</v>
+        <v>0.03367949700781919</v>
       </c>
       <c r="G162" t="n">
-        <v>0.08105914761481127</v>
+        <v>0.0774644073968191</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03696732262616959</v>
+        <v>0.03367949700781919</v>
       </c>
       <c r="K162" t="n">
-        <v>0.08105914761481127</v>
+        <v>0.0774644073968191</v>
       </c>
       <c r="L162" t="n">
-        <v>0.07833925828918528</v>
+        <v>0.06963758119103974</v>
       </c>
       <c r="M162" t="n">
-        <v>0.08074970300304873</v>
+        <v>0.07719228212300908</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1157548651045786</v>
+        <v>0.1107811577642411</v>
       </c>
       <c r="O162" t="n">
-        <v>0.08079234890928605</v>
+        <v>0.07709645826921781</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.03495209271112625</v>
+        <v>0.03457952065759533</v>
       </c>
       <c r="G163" t="n">
-        <v>0.08189480893042787</v>
+        <v>0.07826300953493065</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03495209271112625</v>
+        <v>0.03457952065759533</v>
       </c>
       <c r="K163" t="n">
-        <v>0.08189480893042787</v>
+        <v>0.07826300953493065</v>
       </c>
       <c r="L163" t="n">
-        <v>0.06984619673105594</v>
+        <v>0.07298172020791346</v>
       </c>
       <c r="M163" t="n">
-        <v>0.0815821741680286</v>
+        <v>0.07798807884592669</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1187067209578556</v>
+        <v>0.1114323740452802</v>
       </c>
       <c r="O163" t="n">
-        <v>0.08162525972278384</v>
+        <v>0.07789126711735407</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.03667269789852383</v>
+        <v>0.03460861307620756</v>
       </c>
       <c r="G164" t="n">
-        <v>0.08273047024604449</v>
+        <v>0.07906161167304218</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03667269789852383</v>
+        <v>0.03460861307620756</v>
       </c>
       <c r="K164" t="n">
-        <v>0.08273047024604449</v>
+        <v>0.07906161167304218</v>
       </c>
       <c r="L164" t="n">
-        <v>0.07515483855333407</v>
+        <v>0.0732571277854786</v>
       </c>
       <c r="M164" t="n">
-        <v>0.08241464533300849</v>
+        <v>0.07878387556884432</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1146006993570462</v>
+        <v>0.1083709626396225</v>
       </c>
       <c r="O164" t="n">
-        <v>0.08245817053628164</v>
+        <v>0.07868607596549033</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.0351385499288583</v>
+        <v>0.03434078455246739</v>
       </c>
       <c r="G165" t="n">
-        <v>0.08356613156166111</v>
+        <v>0.07986021381115373</v>
       </c>
       <c r="J165" t="n">
-        <v>0.0351385499288583</v>
+        <v>0.03434078455246739</v>
       </c>
       <c r="K165" t="n">
-        <v>0.08356613156166111</v>
+        <v>0.07986021381115373</v>
       </c>
       <c r="L165" t="n">
-        <v>0.0763126754161397</v>
+        <v>0.07017872790124194</v>
       </c>
       <c r="M165" t="n">
-        <v>0.08324711649798838</v>
+        <v>0.07957967229176192</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1109277680843359</v>
+        <v>0.1069278635818899</v>
       </c>
       <c r="O165" t="n">
-        <v>0.08329108134977943</v>
+        <v>0.07948088481362661</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.03643618022586893</v>
+        <v>0.03516540684752018</v>
       </c>
       <c r="G166" t="n">
-        <v>0.08440179287727771</v>
+        <v>0.08065881594926527</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03643618022586893</v>
+        <v>0.03516540684752018</v>
       </c>
       <c r="K166" t="n">
-        <v>0.08440179287727771</v>
+        <v>0.08065881594926527</v>
       </c>
       <c r="L166" t="n">
-        <v>0.07035502793237505</v>
+        <v>0.07231221918935055</v>
       </c>
       <c r="M166" t="n">
-        <v>0.08407958766296826</v>
+        <v>0.08037546901467955</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1095807136532676</v>
+        <v>0.1049343578038173</v>
       </c>
       <c r="O166" t="n">
-        <v>0.08412399216327722</v>
+        <v>0.08027569366176288</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.03659448871299768</v>
+        <v>0.03429643303907905</v>
       </c>
       <c r="G167" t="n">
-        <v>0.08523745419289433</v>
+        <v>0.08145741808737679</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03659448871299768</v>
+        <v>0.03429643303907905</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08523745419289433</v>
+        <v>0.08145741808737679</v>
       </c>
       <c r="L167" t="n">
-        <v>0.07563889871034424</v>
+        <v>0.07120222350435643</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08491205882794814</v>
+        <v>0.08117126573759718</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1046206102737636</v>
+        <v>0.1037601538745788</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08495690297677502</v>
+        <v>0.08107050250989914</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.03483401283786478</v>
+        <v>0.03447236599582355</v>
       </c>
       <c r="G168" t="n">
-        <v>0.08607311550851093</v>
+        <v>0.08225602022548834</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03483401283786478</v>
+        <v>0.03447236599582355</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08607311550851093</v>
+        <v>0.08225602022548834</v>
       </c>
       <c r="L168" t="n">
-        <v>0.07779154512839245</v>
+        <v>0.06962323389458824</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08574452999292803</v>
+        <v>0.08196706246051479</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1160970424406308</v>
+        <v>0.1065122824014957</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08578981379027281</v>
+        <v>0.0818653113580354</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.03493731721453272</v>
+        <v>0.03431681132912338</v>
       </c>
       <c r="G169" t="n">
-        <v>0.08690877682412755</v>
+        <v>0.08305462236359987</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03493731721453272</v>
+        <v>0.03431681132912338</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08690877682412755</v>
+        <v>0.08305462236359987</v>
       </c>
       <c r="L169" t="n">
-        <v>0.0737273877652275</v>
+        <v>0.06935652765846598</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08657700115790791</v>
+        <v>0.08276285918343242</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1103294706090817</v>
+        <v>0.1098804898377298</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08662272460377062</v>
+        <v>0.08266012020617168</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.0352669901116289</v>
+        <v>0.0340739621916349</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08774443813974415</v>
+        <v>0.08385322450171141</v>
       </c>
       <c r="J170" t="n">
-        <v>0.0352669901116289</v>
+        <v>0.0340739621916349</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08774443813974415</v>
+        <v>0.08385322450171141</v>
       </c>
       <c r="L170" t="n">
-        <v>0.07432409735661885</v>
+        <v>0.07108492283096987</v>
       </c>
       <c r="M170" t="n">
-        <v>0.0874094723228878</v>
+        <v>0.08355865590635003</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1055136855738754</v>
+        <v>0.1046414454117586</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08745563541726839</v>
+        <v>0.08345492905430794</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.0344237198965652</v>
+        <v>0.03472323520181929</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08858009945536076</v>
+        <v>0.08465182663982296</v>
       </c>
       <c r="J171" t="n">
-        <v>0.0344237198965652</v>
+        <v>0.03472323520181929</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08858009945536076</v>
+        <v>0.08465182663982296</v>
       </c>
       <c r="L171" t="n">
-        <v>0.07316543314043297</v>
+        <v>0.06909149477301324</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08824194348786768</v>
+        <v>0.08435445262926765</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1089695281477518</v>
+        <v>0.1059751939335074</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08828854623076619</v>
+        <v>0.08424973790244421</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03492496880558861</v>
+        <v>0.03404709042306869</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08941576077097739</v>
+        <v>0.08545042877793448</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03492496880558861</v>
+        <v>0.03404709042306869</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08941576077097739</v>
+        <v>0.08545042877793448</v>
       </c>
       <c r="L172" t="n">
-        <v>0.07011787626323956</v>
+        <v>0.06855551466803109</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08907441465284756</v>
+        <v>0.08515024935218528</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1110487941067257</v>
+        <v>0.106684618805179</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08912145704426398</v>
+        <v>0.08504454675058047</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.03715863583750181</v>
+        <v>0.03411460110626366</v>
       </c>
       <c r="G173" t="n">
-        <v>0.09025142208659399</v>
+        <v>0.08624903091604602</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03715863583750181</v>
+        <v>0.03411460110626366</v>
       </c>
       <c r="K173" t="n">
-        <v>0.09025142208659399</v>
+        <v>0.08624903091604602</v>
       </c>
       <c r="L173" t="n">
-        <v>0.07325244837077444</v>
+        <v>0.06912448112492325</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08990688581782745</v>
+        <v>0.08594604607510288</v>
       </c>
       <c r="N173" t="n">
-        <v>0.10984262466739</v>
+        <v>0.1057866190708586</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08995436785776179</v>
+        <v>0.08583935559871674</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.03522683630188389</v>
+        <v>0.033525161112771</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0910870834022106</v>
+        <v>0.08704763305415755</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03522683630188389</v>
+        <v>0.033525161112771</v>
       </c>
       <c r="K174" t="n">
-        <v>0.0910870834022106</v>
+        <v>0.08704763305415755</v>
       </c>
       <c r="L174" t="n">
-        <v>0.07759591052943096</v>
+        <v>0.06979920877838353</v>
       </c>
       <c r="M174" t="n">
-        <v>0.09073935698280733</v>
+        <v>0.08674184279802051</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1067486029075621</v>
+        <v>0.1068366096898458</v>
       </c>
       <c r="O174" t="n">
-        <v>0.09078727867125957</v>
+        <v>0.08663416444685301</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03553614652195612</v>
+        <v>0.0335654364640063</v>
       </c>
       <c r="G175" t="n">
-        <v>0.09192274471782722</v>
+        <v>0.0878462351922691</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03553614652195612</v>
+        <v>0.0335654364640063</v>
       </c>
       <c r="K175" t="n">
-        <v>0.09192274471782722</v>
+        <v>0.0878462351922691</v>
       </c>
       <c r="L175" t="n">
-        <v>0.07699813293553934</v>
+        <v>0.06845816494521101</v>
       </c>
       <c r="M175" t="n">
-        <v>0.09157182814778721</v>
+        <v>0.08753763952093813</v>
       </c>
       <c r="N175" t="n">
-        <v>0.116685907565718</v>
+        <v>0.1025236831850811</v>
       </c>
       <c r="O175" t="n">
-        <v>0.09162018948475736</v>
+        <v>0.08742897329498928</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03674739164942328</v>
+        <v>0.03428620671779556</v>
       </c>
       <c r="G176" t="n">
-        <v>0.09275840603344383</v>
+        <v>0.08864483733038064</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03674739164942328</v>
+        <v>0.03428620671779556</v>
       </c>
       <c r="K176" t="n">
-        <v>0.09275840603344383</v>
+        <v>0.08864483733038064</v>
       </c>
       <c r="L176" t="n">
-        <v>0.0711584560312695</v>
+        <v>0.07168142986623732</v>
       </c>
       <c r="M176" t="n">
-        <v>0.0924042993127671</v>
+        <v>0.08833343624385574</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1191481384211288</v>
+        <v>0.103100286569115</v>
       </c>
       <c r="O176" t="n">
-        <v>0.09245310029825517</v>
+        <v>0.08822378214312554</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03598469564961268</v>
+        <v>0.03445585282084701</v>
       </c>
       <c r="G177" t="n">
-        <v>0.09359406734906044</v>
+        <v>0.08944343946849216</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03598469564961268</v>
+        <v>0.03445585282084701</v>
       </c>
       <c r="K177" t="n">
-        <v>0.09359406734906044</v>
+        <v>0.08944343946849216</v>
       </c>
       <c r="L177" t="n">
-        <v>0.07602574648307603</v>
+        <v>0.06857381026094009</v>
       </c>
       <c r="M177" t="n">
-        <v>0.09323677047774699</v>
+        <v>0.08912923296677336</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1145291069202237</v>
+        <v>0.1027918220993623</v>
       </c>
       <c r="O177" t="n">
-        <v>0.09328601111175296</v>
+        <v>0.0890185909912618</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03511254474751739</v>
+        <v>0.03296178490271069</v>
       </c>
       <c r="G178" t="n">
-        <v>0.09442972866467704</v>
+        <v>0.09024204160660371</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03511254474751739</v>
+        <v>0.03296178490271069</v>
       </c>
       <c r="K178" t="n">
-        <v>0.09442972866467704</v>
+        <v>0.09024204160660371</v>
       </c>
       <c r="L178" t="n">
-        <v>0.07403806805988236</v>
+        <v>0.06988411386995183</v>
       </c>
       <c r="M178" t="n">
-        <v>0.09406924164272686</v>
+        <v>0.08992502968969099</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1130691173082922</v>
+        <v>0.1088779639250946</v>
       </c>
       <c r="O178" t="n">
-        <v>0.09411892192525076</v>
+        <v>0.08981339983939807</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03592111440841927</v>
+        <v>0.03276887917221732</v>
       </c>
       <c r="G179" t="n">
-        <v>0.09526538998029366</v>
+        <v>0.09104064374471524</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03592111440841927</v>
+        <v>0.03276887917221732</v>
       </c>
       <c r="K179" t="n">
-        <v>0.09526538998029366</v>
+        <v>0.09104064374471524</v>
       </c>
       <c r="L179" t="n">
-        <v>0.07410828882359244</v>
+        <v>0.06894629020977053</v>
       </c>
       <c r="M179" t="n">
-        <v>0.09490171280770675</v>
+        <v>0.0907208264126086</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1165355695753662</v>
+        <v>0.1055614435810258</v>
       </c>
       <c r="O179" t="n">
-        <v>0.09495183273874855</v>
+        <v>0.09060820868753434</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03473639025159696</v>
+        <v>0.03285889746328921</v>
       </c>
       <c r="G180" t="n">
-        <v>0.09610105129591028</v>
+        <v>0.09183924588282678</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03473639025159696</v>
+        <v>0.03285889746328921</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09610105129591028</v>
+        <v>0.09183924588282678</v>
       </c>
       <c r="L180" t="n">
-        <v>0.07641366846542119</v>
+        <v>0.06718743670174757</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09573418397268663</v>
+        <v>0.09151662313552622</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1124640444605307</v>
+        <v>0.1019181630465149</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09578474355224635</v>
+        <v>0.09140301753567061</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03491729829215004</v>
+        <v>0.03294695172647086</v>
       </c>
       <c r="G181" t="n">
-        <v>0.09693671261152688</v>
+        <v>0.09263784802093833</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03491729829215004</v>
+        <v>0.03294695172647086</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09693671261152688</v>
+        <v>0.09263784802093833</v>
       </c>
       <c r="L181" t="n">
-        <v>0.06949154712993644</v>
+        <v>0.06712474926721862</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09656665513766652</v>
+        <v>0.09231241985844385</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1050986815220326</v>
+        <v>0.1052768896815026</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09661765436574414</v>
+        <v>0.09219782638380686</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03709111517205771</v>
+        <v>0.03309264776545442</v>
       </c>
       <c r="G182" t="n">
-        <v>0.09777237392714348</v>
+        <v>0.09343645015904985</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03709111517205771</v>
+        <v>0.03309264776545442</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09777237392714348</v>
+        <v>0.09343645015904985</v>
       </c>
       <c r="L182" t="n">
-        <v>0.07591265556355337</v>
+        <v>0.06715304278555606</v>
       </c>
       <c r="M182" t="n">
-        <v>0.0973991263026464</v>
+        <v>0.09310821658136145</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1138809744038837</v>
+        <v>0.101576766278204</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09745056517924193</v>
+        <v>0.09299263523194312</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03632113015381506</v>
+        <v>0.03355436448062053</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09860803524276011</v>
+        <v>0.09423505229716139</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03632113015381506</v>
+        <v>0.03355436448062053</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09860803524276011</v>
+        <v>0.09423505229716139</v>
       </c>
       <c r="L183" t="n">
-        <v>0.0693133230087174</v>
+        <v>0.06692766848076559</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09823159746762627</v>
+        <v>0.09390401330427908</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1185416666943491</v>
+        <v>0.1053218994916655</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09828347599273973</v>
+        <v>0.0937874440800794</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03419979567420896</v>
+        <v>0.03377215249397413</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09944369655837672</v>
+        <v>0.09503365443527294</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03419979567420896</v>
+        <v>0.03377215249397413</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09944369655837672</v>
+        <v>0.09503365443527294</v>
       </c>
       <c r="L184" t="n">
-        <v>0.07704078203491802</v>
+        <v>0.06747557064669349</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09906406863260617</v>
+        <v>0.0946998100271967</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1165921066663007</v>
+        <v>0.1066781819452972</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09911638680623752</v>
+        <v>0.09458225292821566</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03655895688240268</v>
+        <v>0.03335543196194753</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1002793578739933</v>
+        <v>0.09583225657338447</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03655895688240268</v>
+        <v>0.03335543196194753</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1002793578739933</v>
+        <v>0.09583225657338447</v>
       </c>
       <c r="L185" t="n">
-        <v>0.07480159673176343</v>
+        <v>0.06958078692396316</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09989653979758606</v>
+        <v>0.09549560675011431</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1143752679665344</v>
+        <v>0.1053389756527828</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09994929761973531</v>
+        <v>0.09537706177635193</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03432129962630399</v>
+        <v>0.03285555919018353</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1011150191896099</v>
+        <v>0.09663085871149601</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03432129962630399</v>
+        <v>0.03285555919018353</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1011150191896099</v>
+        <v>0.09663085871149601</v>
       </c>
       <c r="L186" t="n">
-        <v>0.07560700046508115</v>
+        <v>0.06793518351126265</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1007290109625659</v>
+        <v>0.09629140347303194</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1078931949025894</v>
+        <v>0.09994770684564125</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1007822084332331</v>
+        <v>0.09617187062448819</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03464319018523609</v>
+        <v>0.03293032381186278</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1019506805052265</v>
+        <v>0.09742946084960753</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03464319018523609</v>
+        <v>0.03293032381186278</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1019506805052265</v>
+        <v>0.09742946084960753</v>
       </c>
       <c r="L187" t="n">
-        <v>0.07195082173707049</v>
+        <v>0.06837409537745381</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1015614821275458</v>
+        <v>0.09708720019594956</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1166849322273277</v>
+        <v>0.1062821787220307</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1016151192467309</v>
+        <v>0.09696667947262445</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03383905604922412</v>
+        <v>0.03351205015955483</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1027863418208432</v>
+        <v>0.09822806298771908</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03383905604922412</v>
+        <v>0.03351205015955483</v>
       </c>
       <c r="K188" t="n">
-        <v>0.1027863418208432</v>
+        <v>0.09822806298771908</v>
       </c>
       <c r="L188" t="n">
-        <v>0.07129516038590569</v>
+        <v>0.06863794154314976</v>
       </c>
       <c r="M188" t="n">
-        <v>0.1023939532925257</v>
+        <v>0.09788299691886718</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1103523601623532</v>
+        <v>0.1013976773110219</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1024480300602287</v>
+        <v>0.09776148832076073</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03500060873306686</v>
+        <v>0.03205734533551452</v>
       </c>
       <c r="G189" t="n">
-        <v>0.1036220031364598</v>
+        <v>0.09902666512583062</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03500060873306686</v>
+        <v>0.03205734533551452</v>
       </c>
       <c r="K189" t="n">
-        <v>0.1036220031364598</v>
+        <v>0.09902666512583062</v>
       </c>
       <c r="L189" t="n">
-        <v>0.07609372315962931</v>
+        <v>0.06838927308685486</v>
       </c>
       <c r="M189" t="n">
-        <v>0.1032264244575056</v>
+        <v>0.09867879364178481</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1053467623312828</v>
+        <v>0.1016156728477159</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1032809408737265</v>
+        <v>0.09855629716889699</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03430882243308481</v>
+        <v>0.03346699977476744</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1044576644520764</v>
+        <v>0.09982526726394216</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03430882243308481</v>
+        <v>0.03346699977476744</v>
       </c>
       <c r="K190" t="n">
-        <v>0.1044576644520764</v>
+        <v>0.09982526726394216</v>
       </c>
       <c r="L190" t="n">
-        <v>0.07100836112359929</v>
+        <v>0.0680967819818695</v>
       </c>
       <c r="M190" t="n">
-        <v>0.1040588956224855</v>
+        <v>0.09947459036470241</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1163360967828911</v>
+        <v>0.09978156992816517</v>
       </c>
       <c r="O190" t="n">
-        <v>0.1041138516872243</v>
+        <v>0.09935110601703326</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03411427384606409</v>
+        <v>0.03180875526148232</v>
       </c>
       <c r="G191" t="n">
-        <v>0.105293325767693</v>
+        <v>0.1006238694020537</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03411427384606409</v>
+        <v>0.03180875526148232</v>
       </c>
       <c r="K191" t="n">
-        <v>0.105293325767693</v>
+        <v>0.1006238694020537</v>
       </c>
       <c r="L191" t="n">
-        <v>0.07295987606477361</v>
+        <v>0.06810363204572142</v>
       </c>
       <c r="M191" t="n">
-        <v>0.1048913667874654</v>
+        <v>0.10027038708762</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1174005059828555</v>
+        <v>0.1050653366632407</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1049467625007221</v>
+        <v>0.1001459148651695</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03447964472033434</v>
+        <v>0.03195030056117859</v>
       </c>
       <c r="G192" t="n">
-        <v>0.1061289870833096</v>
+        <v>0.1014224715401652</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03447964472033434</v>
+        <v>0.03195030056117859</v>
       </c>
       <c r="K192" t="n">
-        <v>0.1061289870833096</v>
+        <v>0.1014224715401652</v>
       </c>
       <c r="L192" t="n">
-        <v>0.07405363336163948</v>
+        <v>0.06652795595793481</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1057238379524452</v>
+        <v>0.1010661838105377</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1068644305731225</v>
+        <v>0.1009328367788312</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1057796733142199</v>
+        <v>0.1009407237133058</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03559864347946343</v>
+        <v>0.03286338182621208</v>
       </c>
       <c r="G193" t="n">
-        <v>0.1069646483989262</v>
+        <v>0.1022210736782768</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03559864347946343</v>
+        <v>0.03286338182621208</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1069646483989262</v>
+        <v>0.1022210736782768</v>
       </c>
       <c r="L193" t="n">
-        <v>0.07586190537000789</v>
+        <v>0.06762115423959897</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1065563091174251</v>
+        <v>0.1018619805334553</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1058936206437905</v>
+        <v>0.09782667409520041</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1066125841277177</v>
+        <v>0.1017355325614421</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03629923460113332</v>
+        <v>0.03287025298737245</v>
       </c>
       <c r="G194" t="n">
-        <v>0.1078003097145428</v>
+        <v>0.1030196758163883</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03629923460113332</v>
+        <v>0.03287025298737245</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1078003097145428</v>
+        <v>0.1030196758163883</v>
       </c>
       <c r="L194" t="n">
-        <v>0.07522005676589177</v>
+        <v>0.06863993385661368</v>
       </c>
       <c r="M194" t="n">
-        <v>0.107388780282405</v>
+        <v>0.1026577772563729</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1156531665482171</v>
+        <v>0.1046555727735335</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1074454949412155</v>
+        <v>0.1025303414095783</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03339567463356197</v>
+        <v>0.03160201668189554</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1086359710301594</v>
+        <v>0.1038182779544998</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03339567463356197</v>
+        <v>0.03160201668189554</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1086359710301594</v>
+        <v>0.1038182779544998</v>
       </c>
       <c r="L195" t="n">
-        <v>0.07134027952542857</v>
+        <v>0.06735412883762218</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1082212514473849</v>
+        <v>0.1034535739792905</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1152642339502121</v>
+        <v>0.1000899239166821</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1082784057547133</v>
+        <v>0.1033251502577146</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03397260939723953</v>
+        <v>0.03231510135356842</v>
       </c>
       <c r="G196" t="n">
-        <v>0.109471632345776</v>
+        <v>0.1046168800926114</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03397260939723953</v>
+        <v>0.03231510135356842</v>
       </c>
       <c r="K196" t="n">
-        <v>0.109471632345776</v>
+        <v>0.1046168800926114</v>
       </c>
       <c r="L196" t="n">
-        <v>0.07197202604085812</v>
+        <v>0.06467592439797099</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1090537226123648</v>
+        <v>0.1042493707022081</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1093694517904327</v>
+        <v>0.103601538911037</v>
       </c>
       <c r="O196" t="n">
-        <v>0.109111316568211</v>
+        <v>0.1041199591058509</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.0354017875936528</v>
+        <v>0.0318853119220233</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1103072936613926</v>
+        <v>0.1054154822307229</v>
       </c>
       <c r="J197" t="n">
-        <v>0.0354017875936528</v>
+        <v>0.0318853119220233</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1103072936613926</v>
+        <v>0.1054154822307229</v>
       </c>
       <c r="L197" t="n">
-        <v>0.07637851547312227</v>
+        <v>0.06430949874983394</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1098861937773447</v>
+        <v>0.1050451674251257</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1096844454801943</v>
+        <v>0.1001191029909392</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1099442273817089</v>
+        <v>0.1049147679539871</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03509063137808892</v>
+        <v>0.03265575624223677</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1111429549770093</v>
+        <v>0.1062140843688344</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03509063137808892</v>
+        <v>0.03265575624223677</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1111429549770093</v>
+        <v>0.1062140843688344</v>
       </c>
       <c r="L198" t="n">
-        <v>0.07624709111975939</v>
+        <v>0.06474623435622254</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1107186649423245</v>
+        <v>0.1058409641480434</v>
       </c>
       <c r="N198" t="n">
-        <v>0.112868388989096</v>
+        <v>0.1022952496058294</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1107771381952066</v>
+        <v>0.1057095768021234</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03586504442825326</v>
+        <v>0.03236409477318812</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1119786162926259</v>
+        <v>0.107012686506946</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03586504442825326</v>
+        <v>0.03236409477318812</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1119786162926259</v>
+        <v>0.107012686506946</v>
       </c>
       <c r="L199" t="n">
-        <v>0.07066965871487127</v>
+        <v>0.06573626303687755</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1115511361073044</v>
+        <v>0.106636760870961</v>
       </c>
       <c r="N199" t="n">
-        <v>0.115443038646851</v>
+        <v>0.1008567203803177</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1116100490087044</v>
+        <v>0.1065043856502596</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03481138548555743</v>
+        <v>0.03139131154183906</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1128142776082425</v>
+        <v>0.1078112886450575</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03481138548555743</v>
+        <v>0.03139131154183906</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1128142776082425</v>
+        <v>0.1078112886450575</v>
       </c>
       <c r="L200" t="n">
-        <v>0.07323992093767198</v>
+        <v>0.06602798811903052</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1123836072722843</v>
+        <v>0.1074325575938786</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1085827349045122</v>
+        <v>0.09992927828515452</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1124429598222022</v>
+        <v>0.1072991944983959</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.0340723552832612</v>
+        <v>0.03212518300103917</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1136499389238591</v>
+        <v>0.1086098907831691</v>
       </c>
       <c r="J201" t="n">
-        <v>0.0340723552832612</v>
+        <v>0.03212518300103917</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1136499389238591</v>
+        <v>0.1086098907831691</v>
       </c>
       <c r="L201" t="n">
-        <v>0.07342177858769983</v>
+        <v>0.0647615641571111</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1132160784372642</v>
+        <v>0.1082283543167962</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1060608879534249</v>
+        <v>0.10294630749545</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1132758706357</v>
+        <v>0.1080940033465322</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.0350434626626312</v>
+        <v>0.03149366466958414</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1144856002394757</v>
+        <v>0.1094084929212806</v>
       </c>
       <c r="J202" t="n">
-        <v>0.0350434626626312</v>
+        <v>0.03149366466958414</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1144856002394757</v>
+        <v>0.1094084929212806</v>
       </c>
       <c r="L202" t="n">
-        <v>0.07288346790959538</v>
+        <v>0.0650427523243681</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1140485496022441</v>
+        <v>0.1090241510397139</v>
       </c>
       <c r="N202" t="n">
-        <v>0.103968911949876</v>
+        <v>0.09773791563372936</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1141087814491978</v>
+        <v>0.1088888121946684</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03340131529096881</v>
+        <v>0.03174825157386078</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1153212615550923</v>
+        <v>0.1102070950593921</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03340131529096881</v>
+        <v>0.03174825157386078</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1153212615550923</v>
+        <v>0.1102070950593921</v>
       </c>
       <c r="L203" t="n">
-        <v>0.068164371207796</v>
+        <v>0.0642889847952216</v>
       </c>
       <c r="M203" t="n">
-        <v>0.114881020767224</v>
+        <v>0.1098199477626315</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1148455882158615</v>
+        <v>0.1009153584035145</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1149416922626956</v>
+        <v>0.1096836210428047</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03318813519873462</v>
+        <v>0.03108786489675919</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1161569228707089</v>
+        <v>0.1110056971975037</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03318813519873462</v>
+        <v>0.03108786489675919</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1161569228707089</v>
+        <v>0.1110056971975037</v>
       </c>
       <c r="L204" t="n">
-        <v>0.07525190881116051</v>
+        <v>0.0661270792431293</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1157134919322038</v>
+        <v>0.1106157444855491</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1156728349490481</v>
+        <v>0.09805036404052875</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1157746030761934</v>
+        <v>0.110478429890941</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03427233698407006</v>
+        <v>0.03224369353670078</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1169925841863256</v>
+        <v>0.1118042993356152</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03427233698407006</v>
+        <v>0.03224369353670078</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1169925841863256</v>
+        <v>0.1118042993356152</v>
       </c>
       <c r="L205" t="n">
-        <v>0.0689540358570776</v>
+        <v>0.06465048955260072</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1165459630971837</v>
+        <v>0.1114115412084667</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1033696906964271</v>
+        <v>0.100220412884213</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1166075138896912</v>
+        <v>0.1112732387390772</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03558020069317196</v>
+        <v>0.03189774614235701</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1178282455019422</v>
+        <v>0.1126029014737267</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03558020069317196</v>
+        <v>0.03189774614235701</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1178282455019422</v>
+        <v>0.1126029014737267</v>
       </c>
       <c r="L206" t="n">
-        <v>0.06898408493556155</v>
+        <v>0.06364183792970529</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1173784342621636</v>
+        <v>0.1122073379313843</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1144745270676365</v>
+        <v>0.09637997382777713</v>
       </c>
       <c r="O206" t="n">
-        <v>0.117440424703189</v>
+        <v>0.1120680475872135</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03541286853247073</v>
+        <v>0.03222673335506743</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1186639068175588</v>
+        <v>0.1134015036118383</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03541286853247073</v>
+        <v>0.03222673335506743</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1186639068175588</v>
+        <v>0.1134015036118383</v>
       </c>
       <c r="L207" t="n">
-        <v>0.07279289825030577</v>
+        <v>0.06545985685795436</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1182109054271435</v>
+        <v>0.1130031346543019</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1050564421595431</v>
+        <v>0.09504242541012509</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1182733355166868</v>
+        <v>0.1128628564353498</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03537173368341956</v>
+        <v>0.03186574069684535</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1194995681331754</v>
+        <v>0.1142001057499498</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03537173368341956</v>
+        <v>0.03186574069684535</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1194995681331754</v>
+        <v>0.1142001057499498</v>
       </c>
       <c r="L208" t="n">
-        <v>0.06816348678379469</v>
+        <v>0.06605434077164038</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1190433765921234</v>
+        <v>0.1137989313772196</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1055099493460006</v>
+        <v>0.09523645385961849</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1191062463301846</v>
+        <v>0.113657665283486</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03372579571888282</v>
+        <v>0.03100345271345295</v>
       </c>
       <c r="G209" t="n">
-        <v>0.120335229448792</v>
+        <v>0.1149987078880614</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03372579571888282</v>
+        <v>0.03100345271345295</v>
       </c>
       <c r="K209" t="n">
-        <v>0.120335229448792</v>
+        <v>0.1149987078880614</v>
       </c>
       <c r="L209" t="n">
-        <v>0.06813985955512422</v>
+        <v>0.06614350025780574</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1198758477571032</v>
+        <v>0.1145947281001372</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1112014877065273</v>
+        <v>0.0973964161245453</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1199391571436824</v>
+        <v>0.1144524741316223</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03411868394377039</v>
+        <v>0.03200298213912157</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1211708907644086</v>
+        <v>0.1157973100261729</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03411868394377039</v>
+        <v>0.03200298213912157</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1211708907644086</v>
+        <v>0.1157973100261729</v>
       </c>
       <c r="L210" t="n">
-        <v>0.07007910474161991</v>
+        <v>0.06433014209784824</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1207083189220831</v>
+        <v>0.1153905248230548</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1088866618338883</v>
+        <v>0.09448885119057931</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1207720679571802</v>
+        <v>0.1152472829797586</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03325990605414238</v>
+        <v>0.0308815454924838</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1220065520800252</v>
+        <v>0.1165959121642844</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03325990605414238</v>
+        <v>0.0308815454924838</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1220065520800252</v>
+        <v>0.1165959121642844</v>
       </c>
       <c r="L211" t="n">
-        <v>0.07363539114385495</v>
+        <v>0.06615846049573681</v>
       </c>
       <c r="M211" t="n">
-        <v>0.121540790087063</v>
+        <v>0.1161863215459724</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1073860625828233</v>
+        <v>0.09985440015559233</v>
       </c>
       <c r="O211" t="n">
-        <v>0.121604978770678</v>
+        <v>0.1160420918278948</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03328586067698018</v>
+        <v>0.03124477524459592</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1228422133956418</v>
+        <v>0.117394514302396</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03328586067698018</v>
+        <v>0.03124477524459592</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1228422133956418</v>
+        <v>0.117394514302396</v>
       </c>
       <c r="L212" t="n">
-        <v>0.07219824874413408</v>
+        <v>0.06451383915071798</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1223732612520429</v>
+        <v>0.11698211826889</v>
       </c>
       <c r="N212" t="n">
-        <v>0.106701300072697</v>
+        <v>0.09483140302717274</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1224378895841758</v>
+        <v>0.1168369006760311</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03493520641204369</v>
+        <v>0.03098816709784895</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1236778747112584</v>
+        <v>0.1181931164405075</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03493520641204369</v>
+        <v>0.03098816709784895</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1236778747112584</v>
+        <v>0.1181931164405075</v>
       </c>
       <c r="L213" t="n">
-        <v>0.06603141521015812</v>
+        <v>0.06478154944576545</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1232057324170228</v>
+        <v>0.1177779149918077</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1130392266924466</v>
+        <v>0.09426991080622354</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1232708003976735</v>
+        <v>0.1176317095241674</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.03243952785207199</v>
+        <v>0.03135325371110458</v>
       </c>
       <c r="G214" t="n">
-        <v>0.124513536026875</v>
+        <v>0.1189917185786191</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03243952785207199</v>
+        <v>0.03135325371110458</v>
       </c>
       <c r="K214" t="n">
-        <v>0.124513536026875</v>
+        <v>0.1189917185786191</v>
       </c>
       <c r="L214" t="n">
-        <v>0.0675889678380926</v>
+        <v>0.06429025160008445</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1240382035820027</v>
+        <v>0.1185737117147253</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1109450523427706</v>
+        <v>0.09824222980174235</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1241037112111713</v>
+        <v>0.1184265183723036</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.03206709791351464</v>
+        <v>0.03097108892982177</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1253491973424917</v>
+        <v>0.1197903207167306</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03206709791351464</v>
+        <v>0.03097108892982177</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1253491973424917</v>
+        <v>0.1197903207167306</v>
       </c>
       <c r="L215" t="n">
-        <v>0.07011697433109859</v>
+        <v>0.0635715405021787</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1248706747469826</v>
+        <v>0.1193695084376429</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1103865190276196</v>
+        <v>0.09605117474841995</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1249366220246691</v>
+        <v>0.1192213272204399</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.03483662419226297</v>
+        <v>0.03072673122562213</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1261848586581082</v>
+        <v>0.1205889228548421</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03483662419226297</v>
+        <v>0.03072673122562213</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1261848586581082</v>
+        <v>0.1205889228548421</v>
       </c>
       <c r="L216" t="n">
-        <v>0.07012844206564334</v>
+        <v>0.06229658325547335</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1257031459119624</v>
+        <v>0.1201653051605605</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1098733001321578</v>
+        <v>0.09693984026750224</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1257695328381669</v>
+        <v>0.1200161360685762</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.03492921027603785</v>
+        <v>0.03151279496276012</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1270205199737249</v>
+        <v>0.1213875249929536</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03492921027603785</v>
+        <v>0.03151279496276012</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1270205199737249</v>
+        <v>0.1213875249929536</v>
       </c>
       <c r="L217" t="n">
-        <v>0.06983237501715106</v>
+        <v>0.06594102936662824</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1265356170769423</v>
+        <v>0.1209611018834781</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1068123668330528</v>
+        <v>0.09766344902309076</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1266024436516647</v>
+        <v>0.1208109449167124</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.03332122960398548</v>
+        <v>0.03146049618356782</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1278561812893415</v>
+        <v>0.1221861271310652</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03332122960398548</v>
+        <v>0.03146049618356782</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1278561812893415</v>
+        <v>0.1221861271310652</v>
       </c>
       <c r="L218" t="n">
-        <v>0.07197184236569737</v>
+        <v>0.06592906064545548</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1273680882419222</v>
+        <v>0.1217568986063958</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1047795377529393</v>
+        <v>0.09599036404134531</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1274353544651625</v>
+        <v>0.1216057537648487</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.0333840420262705</v>
+        <v>0.03060376123659522</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1286918426049581</v>
+        <v>0.1229847292691767</v>
       </c>
       <c r="J219" t="n">
-        <v>0.0333840420262705</v>
+        <v>0.03060376123659522</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1286918426049581</v>
+        <v>0.1229847292691767</v>
       </c>
       <c r="L219" t="n">
-        <v>0.06875501357356345</v>
+        <v>0.0617885433103654</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1282005594069021</v>
+        <v>0.1225526953293134</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1050904572105594</v>
+        <v>0.09678794831061704</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1282682652786603</v>
+        <v>0.122400562612985</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.03246040399141427</v>
+        <v>0.03042496568313012</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1295275039205747</v>
+        <v>0.1237833314072883</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03246040399141427</v>
+        <v>0.03042496568313012</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1295275039205747</v>
+        <v>0.1237833314072883</v>
       </c>
       <c r="L220" t="n">
-        <v>0.06964629120347351</v>
+        <v>0.06514353023468464</v>
       </c>
       <c r="M220" t="n">
-        <v>0.129033030571882</v>
+        <v>0.123348492052231</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1110009509229086</v>
+        <v>0.09979512272421442</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1291011760921581</v>
+        <v>0.1231953714611213</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.03309765618323639</v>
+        <v>0.03095856159522543</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1303631652361913</v>
+        <v>0.1245819335453998</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03309765618323639</v>
+        <v>0.03095856159522543</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1303631652361913</v>
+        <v>0.1245819335453998</v>
       </c>
       <c r="L221" t="n">
-        <v>0.07256318204415685</v>
+        <v>0.06492478107573282</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1298655017368619</v>
+        <v>0.1241442887751486</v>
       </c>
       <c r="N221" t="n">
-        <v>0.09896264502747393</v>
+        <v>0.09749987069017396</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1299340869056559</v>
+        <v>0.1239901803092575</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.03329392404704139</v>
+        <v>0.03039216678252347</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1311988265518079</v>
+        <v>0.1253805356835113</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03329392404704139</v>
+        <v>0.03039216678252347</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1311988265518079</v>
+        <v>0.1253805356835113</v>
       </c>
       <c r="L222" t="n">
-        <v>0.06947404487127035</v>
+        <v>0.0619814829050685</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1306979729018417</v>
+        <v>0.1249400854980662</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1058131610184952</v>
+        <v>0.09797998431667454</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1307669977191537</v>
+        <v>0.1247849891573938</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.03308230713677555</v>
+        <v>0.03054662999426795</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1320344878674246</v>
+        <v>0.1261791378216229</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03308230713677555</v>
+        <v>0.03054662999426795</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1320344878674246</v>
+        <v>0.1261791378216229</v>
       </c>
       <c r="L223" t="n">
-        <v>0.07268131084518242</v>
+        <v>0.06248448600013229</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1315304440668216</v>
+        <v>0.1257358822209839</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1055295308491541</v>
+        <v>0.09666404001487922</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1315999085326515</v>
+        <v>0.12557979800553</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.03216892838732908</v>
+        <v>0.02971704506298802</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1328701491830412</v>
+        <v>0.1269777399597344</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03216892838732908</v>
+        <v>0.02971704506298802</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1328701491830412</v>
+        <v>0.1269777399597344</v>
       </c>
       <c r="L224" t="n">
-        <v>0.07122104699221879</v>
+        <v>0.06159919440072323</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1323629152318015</v>
+        <v>0.1265316789439015</v>
       </c>
       <c r="N224" t="n">
-        <v>0.105074571581729</v>
+        <v>0.09744067896043968</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1324328193461493</v>
+        <v>0.1263746068536663</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.03362691006099763</v>
+        <v>0.0308419093751453</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1337058104986578</v>
+        <v>0.127776342097846</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03362691006099763</v>
+        <v>0.0308419093751453</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1337058104986578</v>
+        <v>0.127776342097846</v>
       </c>
       <c r="L225" t="n">
-        <v>0.06976896847249661</v>
+        <v>0.0645567226325782</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1331953863967814</v>
+        <v>0.1273274756668191</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1069813612144127</v>
+        <v>0.09333759889283355</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1332657301596471</v>
+        <v>0.1271694157018026</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.03372072683633283</v>
+        <v>0.02955358281882355</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1345414718142744</v>
+        <v>0.1285749442359575</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03372072683633283</v>
+        <v>0.02955358281882355</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1345414718142744</v>
+        <v>0.1285749442359575</v>
       </c>
       <c r="L226" t="n">
-        <v>0.06691476643350158</v>
+        <v>0.06377959578988424</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1340278575617613</v>
+        <v>0.1281232723897367</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1070132157783893</v>
+        <v>0.09177356017069005</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1340986409731449</v>
+        <v>0.1279642245499388</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.03309886084695439</v>
+        <v>0.03123155951654845</v>
       </c>
       <c r="G227" t="n">
-        <v>0.135377133129891</v>
+        <v>0.129373546374069</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03309886084695439</v>
+        <v>0.03123155951654845</v>
       </c>
       <c r="K227" t="n">
-        <v>0.135377133129891</v>
+        <v>0.129373546374069</v>
       </c>
       <c r="L227" t="n">
-        <v>0.06933872746685482</v>
+        <v>0.06273770343334667</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1348603287267412</v>
+        <v>0.1289190691126543</v>
       </c>
       <c r="N227" t="n">
-        <v>0.09669445328892073</v>
+        <v>0.09130024120306263</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1349315517866427</v>
+        <v>0.1287590333980751</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.03341288603066798</v>
+        <v>0.02980781179915366</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1362127944455076</v>
+        <v>0.1301721485121806</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03341288603066798</v>
+        <v>0.02980781179915366</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1362127944455076</v>
+        <v>0.1301721485121806</v>
       </c>
       <c r="L228" t="n">
-        <v>0.06623507864580513</v>
+        <v>0.0616431356832341</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1356927998917211</v>
+        <v>0.1297148658355719</v>
       </c>
       <c r="N228" t="n">
-        <v>0.09664981074106427</v>
+        <v>0.09386755040527067</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1357644626001405</v>
+        <v>0.1295538422462114</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.03436433371757934</v>
+        <v>0.02965451308248994</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1370484557611242</v>
+        <v>0.1309707506502921</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03436433371757934</v>
+        <v>0.02965451308248994</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1370484557611242</v>
+        <v>0.1309707506502921</v>
       </c>
       <c r="L229" t="n">
-        <v>0.06298200658446201</v>
+        <v>0.06223263723585193</v>
       </c>
       <c r="M229" t="n">
-        <v>0.136525271056701</v>
+        <v>0.1305106625584896</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1055653304393526</v>
+        <v>0.09735822154057749</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1365973734136383</v>
+        <v>0.1303486510943477</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.03360226194229395</v>
+        <v>0.03054053716604611</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1378841170767408</v>
+        <v>0.1317693527884037</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03360226194229395</v>
+        <v>0.03054053716604611</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1378841170767408</v>
+        <v>0.1317693527884037</v>
       </c>
       <c r="L230" t="n">
-        <v>0.06777621845048626</v>
+        <v>0.06238341221789437</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1373577422216808</v>
+        <v>0.1313064592814072</v>
       </c>
       <c r="N230" t="n">
-        <v>0.09689066515918521</v>
+        <v>0.09367248215285784</v>
       </c>
       <c r="O230" t="n">
-        <v>0.137430284227136</v>
+        <v>0.1311434599424839</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.03368583171509955</v>
+        <v>0.02968851226621624</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1387197783923574</v>
+        <v>0.1325679549265152</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03368583171509955</v>
+        <v>0.02968851226621624</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1387197783923574</v>
+        <v>0.1325679549265152</v>
       </c>
       <c r="L231" t="n">
-        <v>0.06761516667788847</v>
+        <v>0.06038611263663393</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1381902133866607</v>
+        <v>0.1321022560043248</v>
       </c>
       <c r="N231" t="n">
-        <v>0.09304936038504119</v>
+        <v>0.09418874555148193</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1382631950406339</v>
+        <v>0.1319382687906202</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.03311993645638023</v>
+        <v>0.03043230940547231</v>
       </c>
       <c r="G232" t="n">
-        <v>0.139555439707974</v>
+        <v>0.1333665570646267</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03311993645638023</v>
+        <v>0.03043230940547231</v>
       </c>
       <c r="K232" t="n">
-        <v>0.139555439707974</v>
+        <v>0.1333665570646267</v>
       </c>
       <c r="L232" t="n">
-        <v>0.06880312734092828</v>
+        <v>0.06239923845650289</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1390226845516406</v>
+        <v>0.1328980527272424</v>
       </c>
       <c r="N232" t="n">
-        <v>0.09338719435785575</v>
+        <v>0.09373004973785587</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1390961058541317</v>
+        <v>0.1327330776387564</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.03163526150073262</v>
+        <v>0.03013651382816494</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1403911010235906</v>
+        <v>0.1341651592027382</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03163526150073262</v>
+        <v>0.03013651382816494</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1403911010235906</v>
+        <v>0.1341651592027382</v>
       </c>
       <c r="L233" t="n">
-        <v>0.06194779628392399</v>
+        <v>0.06370121520340583</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1398551557166205</v>
+        <v>0.1336938494501601</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1002291533401042</v>
+        <v>0.09715671176343182</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1399290166676294</v>
+        <v>0.1335278864868927</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.03380633859566616</v>
+        <v>0.03010845197792499</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1412267623392073</v>
+        <v>0.1349637613408498</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03380633859566616</v>
+        <v>0.03010845197792499</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1412267623392073</v>
+        <v>0.1349637613408498</v>
       </c>
       <c r="L234" t="n">
-        <v>0.06446340827191877</v>
+        <v>0.06379584749507561</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1406876268816004</v>
+        <v>0.1344896461730777</v>
       </c>
       <c r="N234" t="n">
-        <v>0.09415823501548015</v>
+        <v>0.09581958353177678</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1407619274811272</v>
+        <v>0.134322695335029</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.03371238326229306</v>
+        <v>0.02994110141968263</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1420624236548239</v>
+        <v>0.1357623634789613</v>
       </c>
       <c r="J235" t="n">
-        <v>0.03371238326229306</v>
+        <v>0.02994110141968263</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1420624236548239</v>
+        <v>0.1357623634789613</v>
       </c>
       <c r="L235" t="n">
-        <v>0.06165890504558541</v>
+        <v>0.06297841255494077</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1415200980465803</v>
+        <v>0.1352854428959953</v>
       </c>
       <c r="N235" t="n">
-        <v>0.09740885431624952</v>
+        <v>0.09051836142073733</v>
       </c>
       <c r="O235" t="n">
-        <v>0.141594838294625</v>
+        <v>0.1351175041831652</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.03259634219219697</v>
+        <v>0.02966603390049151</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1428980849704405</v>
+        <v>0.1365609656170729</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03259634219219697</v>
+        <v>0.02966603390049151</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1428980849704405</v>
+        <v>0.1365609656170729</v>
       </c>
       <c r="L236" t="n">
-        <v>0.06843091930379097</v>
+        <v>0.06231395376506502</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1423525692115601</v>
+        <v>0.1360812396189129</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1005701315856769</v>
+        <v>0.09272114300095163</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1424277491081228</v>
+        <v>0.1359123130313015</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.03327863337141988</v>
+        <v>0.02937127840595814</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1437337462860571</v>
+        <v>0.1373595677551844</v>
       </c>
       <c r="J237" t="n">
-        <v>0.03327863337141988</v>
+        <v>0.02937127840595814</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1437337462860571</v>
+        <v>0.1373595677551844</v>
       </c>
       <c r="L237" t="n">
-        <v>0.06366448948167844</v>
+        <v>0.06191020214902754</v>
       </c>
       <c r="M237" t="n">
-        <v>0.14318504037654</v>
+        <v>0.1368770363418305</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1027049801110211</v>
+        <v>0.09353158959257341</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1432606599216206</v>
+        <v>0.1367071218794378</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.03060166891957618</v>
+        <v>0.02974045841555521</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1445694076016737</v>
+        <v>0.1381581698932959</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03060166891957618</v>
+        <v>0.02974045841555521</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1445694076016737</v>
+        <v>0.1381581698932959</v>
       </c>
       <c r="L238" t="n">
-        <v>0.06693708297148598</v>
+        <v>0.06225014764833944</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1440175115415199</v>
+        <v>0.1376728330647481</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1030519062930904</v>
+        <v>0.09323262944206756</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1440935707351184</v>
+        <v>0.1375019307275741</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.03119984071412657</v>
+        <v>0.02976570220469446</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1454050689172903</v>
+        <v>0.1389567720314075</v>
       </c>
       <c r="J239" t="n">
-        <v>0.03119984071412657</v>
+        <v>0.02976570220469446</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1454050689172903</v>
+        <v>0.1389567720314075</v>
       </c>
       <c r="L239" t="n">
-        <v>0.06222379248474033</v>
+        <v>0.06329312780575885</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1448499827064998</v>
+        <v>0.1384686297876658</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1040799803710964</v>
+        <v>0.09132777919314794</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1449264815486162</v>
+        <v>0.1382967395757103</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.03175534392872202</v>
+        <v>0.03042581484743465</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1462407302329069</v>
+        <v>0.139755374169519</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03175534392872202</v>
+        <v>0.03042581484743465</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1462407302329069</v>
+        <v>0.139755374169519</v>
       </c>
       <c r="L240" t="n">
-        <v>0.06251255537752975</v>
+        <v>0.06181694470465604</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1456824538714797</v>
+        <v>0.1392644265105834</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1052241123541862</v>
+        <v>0.09068742432775295</v>
       </c>
       <c r="O240" t="n">
-        <v>0.145759392362114</v>
+        <v>0.1390915484238466</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.03045836594554815</v>
+        <v>0.0302667040847231</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1470763915485235</v>
+        <v>0.1405539763076306</v>
       </c>
       <c r="J241" t="n">
-        <v>0.03045836594554815</v>
+        <v>0.0302667040847231</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1470763915485235</v>
+        <v>0.1405539763076306</v>
       </c>
       <c r="L241" t="n">
-        <v>0.06675520802944415</v>
+        <v>0.05976180763028172</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1465149250364595</v>
+        <v>0.140060223233501</v>
       </c>
       <c r="N241" t="n">
-        <v>0.09670978801125818</v>
+        <v>0.091916644237512</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1465923031756118</v>
+        <v>0.1398863572719828</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.03056359039809678</v>
+        <v>0.03008075669703147</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1479120528641402</v>
+        <v>0.1413525784457421</v>
       </c>
       <c r="J242" t="n">
-        <v>0.03056359039809678</v>
+        <v>0.03008075669703147</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1479120528641402</v>
+        <v>0.1413525784457421</v>
       </c>
       <c r="L242" t="n">
-        <v>0.06121541910384026</v>
+        <v>0.05848884874554208</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1473473962014394</v>
+        <v>0.1408560199564186</v>
       </c>
       <c r="N242" t="n">
-        <v>0.09710726407684306</v>
+        <v>0.09008273233705699</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1474252139891096</v>
+        <v>0.1406811661201191</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.03170153155806325</v>
+        <v>0.02932168090288644</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1487477141797568</v>
+        <v>0.1421511805838536</v>
       </c>
       <c r="J243" t="n">
-        <v>0.03170153155806325</v>
+        <v>0.02932168090288644</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1487477141797568</v>
+        <v>0.1421511805838536</v>
       </c>
       <c r="L243" t="n">
-        <v>0.06021988340145859</v>
+        <v>0.05900658011382978</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1481798673664193</v>
+        <v>0.1416518166793362</v>
       </c>
       <c r="N243" t="n">
-        <v>0.09394754502190977</v>
+        <v>0.0923739170884989</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1482581248026074</v>
+        <v>0.1414759749682554</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.03174506918351377</v>
+        <v>0.0289892640383326</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1495833754953734</v>
+        <v>0.1429497827219652</v>
       </c>
       <c r="J244" t="n">
-        <v>0.03174506918351377</v>
+        <v>0.0289892640383326</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1495833754953734</v>
+        <v>0.1429497827219652</v>
       </c>
       <c r="L244" t="n">
-        <v>0.06424379360484864</v>
+        <v>0.06055715086435393</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1490123385313992</v>
+        <v>0.1424476134022539</v>
       </c>
       <c r="N244" t="n">
-        <v>0.104684284292828</v>
+        <v>0.09165521648239183</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1490910356161052</v>
+        <v>0.1422707838163916</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.03135818433168165</v>
+        <v>0.02948364094741467</v>
       </c>
       <c r="G245" t="n">
-        <v>0.15041903681099</v>
+        <v>0.1437483848600767</v>
       </c>
       <c r="J245" t="n">
-        <v>0.03135818433168165</v>
+        <v>0.02948364094741467</v>
       </c>
       <c r="K245" t="n">
-        <v>0.15041903681099</v>
+        <v>0.1437483848600767</v>
       </c>
       <c r="L245" t="n">
-        <v>0.06535916394898506</v>
+        <v>0.06019358309168107</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1498448096963791</v>
+        <v>0.1432434101251715</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1057817729147221</v>
+        <v>0.09185909732435571</v>
       </c>
       <c r="O245" t="n">
-        <v>0.149923946429603</v>
+        <v>0.1430655926645279</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.03118201514893694</v>
+        <v>0.02922435973063248</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1512546981266066</v>
+        <v>0.1445469869981882</v>
       </c>
       <c r="J246" t="n">
-        <v>0.03118201514893694</v>
+        <v>0.02922435973063248</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1512546981266066</v>
+        <v>0.1445469869981882</v>
       </c>
       <c r="L246" t="n">
-        <v>0.06701363415582279</v>
+        <v>0.06042085344171774</v>
       </c>
       <c r="M246" t="n">
-        <v>0.150677280861359</v>
+        <v>0.1440392068480891</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1041138016445497</v>
+        <v>0.09293440239178086</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1507568572431008</v>
+        <v>0.1438604015126642</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.03179418732497935</v>
+        <v>0.02961449441587885</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1520903594422232</v>
+        <v>0.1453455891362998</v>
       </c>
       <c r="J247" t="n">
-        <v>0.03179418732497935</v>
+        <v>0.02961449441587885</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1520903594422232</v>
+        <v>0.1453455891362998</v>
       </c>
       <c r="L247" t="n">
-        <v>0.06535100718320985</v>
+        <v>0.06111696720228127</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1515097520263388</v>
+        <v>0.1448350035710067</v>
       </c>
       <c r="N247" t="n">
-        <v>0.09280491057397661</v>
+        <v>0.09288838013929884</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1515897680565985</v>
+        <v>0.1446552103608004</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.03188729335553066</v>
+        <v>0.02898121344213851</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1529260207578398</v>
+        <v>0.1461441912744113</v>
       </c>
       <c r="J248" t="n">
-        <v>0.03188729335553066</v>
+        <v>0.02898121344213851</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1529260207578398</v>
+        <v>0.1461441912744113</v>
       </c>
       <c r="L248" t="n">
-        <v>0.0681211092304769</v>
+        <v>0.06213362079273094</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1523422231913187</v>
+        <v>0.1456308002939243</v>
       </c>
       <c r="N248" t="n">
-        <v>0.09576688849590964</v>
+        <v>0.09043174550805028</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1524226788700964</v>
+        <v>0.1454500192089367</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.0321804269432398</v>
+        <v>0.02888359299660864</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1537616820734564</v>
+        <v>0.1469427934125228</v>
       </c>
       <c r="J249" t="n">
-        <v>0.0321804269432398</v>
+        <v>0.02888359299660864</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1537616820734564</v>
+        <v>0.1469427934125228</v>
       </c>
       <c r="L249" t="n">
-        <v>0.06593187344537849</v>
+        <v>0.0583500937958214</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1531746943562986</v>
+        <v>0.146426597016842</v>
       </c>
       <c r="N249" t="n">
-        <v>0.09725177233262611</v>
+        <v>0.09315880293775169</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1532555896835942</v>
+        <v>0.146244828057073</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.03102079509916249</v>
+        <v>0.02859267217997187</v>
       </c>
       <c r="G250" t="n">
-        <v>0.154597343389073</v>
+        <v>0.1477413955506344</v>
       </c>
       <c r="J250" t="n">
-        <v>0.03102079509916249</v>
+        <v>0.02859267217997187</v>
       </c>
       <c r="K250" t="n">
-        <v>0.154597343389073</v>
+        <v>0.1477413955506344</v>
       </c>
       <c r="L250" t="n">
-        <v>0.06151398007333167</v>
+        <v>0.0598405647614455</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1540071655212785</v>
+        <v>0.1472223937397596</v>
       </c>
       <c r="N250" t="n">
-        <v>0.09789780506046564</v>
+        <v>0.08840697325178115</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1540885004970919</v>
+        <v>0.1470396369052092</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.03091034877930431</v>
+        <v>0.02878746407796468</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1554330047046897</v>
+        <v>0.1485399976887459</v>
       </c>
       <c r="J251" t="n">
-        <v>0.03091034877930431</v>
+        <v>0.02878746407796468</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1554330047046897</v>
+        <v>0.1485399976887459</v>
       </c>
       <c r="L251" t="n">
-        <v>0.06284592217690577</v>
+        <v>0.06157221857190853</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1548396366862584</v>
+        <v>0.1480181904626772</v>
       </c>
       <c r="N251" t="n">
-        <v>0.09721231187347984</v>
+        <v>0.09140315336129823</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1549214113105897</v>
+        <v>0.1478344457533455</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.03063172387549216</v>
+        <v>0.0289723772778456</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1562686660203063</v>
+        <v>0.1493385998268575</v>
       </c>
       <c r="J252" t="n">
-        <v>0.03063172387549216</v>
+        <v>0.0289723772778456</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1562686660203063</v>
+        <v>0.1493385998268575</v>
       </c>
       <c r="L252" t="n">
-        <v>0.06273039880510914</v>
+        <v>0.06219850547418643</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1556721078512383</v>
+        <v>0.1488139871855948</v>
       </c>
       <c r="N252" t="n">
-        <v>0.09356674769977896</v>
+        <v>0.09012006560914437</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1557543221240875</v>
+        <v>0.1486292546014817</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.03209877305400029</v>
+        <v>0.02935998964144176</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1571043273359229</v>
+        <v>0.150137201964969</v>
       </c>
       <c r="J253" t="n">
-        <v>0.03209877305400029</v>
+        <v>0.02935998964144176</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1571043273359229</v>
+        <v>0.150137201964969</v>
       </c>
       <c r="L253" t="n">
-        <v>0.05973477337359057</v>
+        <v>0.06183709329587475</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1565045790162181</v>
+        <v>0.1496097839085124</v>
       </c>
       <c r="N253" t="n">
-        <v>0.0970596194979369</v>
+        <v>0.09367086152654258</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1565872329375853</v>
+        <v>0.149424063449618</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.03005743878930747</v>
+        <v>0.02930775792950192</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1579399886515395</v>
+        <v>0.1509358041030805</v>
       </c>
       <c r="J254" t="n">
-        <v>0.03005743878930747</v>
+        <v>0.02930775792950192</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1579399886515395</v>
+        <v>0.1509358041030805</v>
       </c>
       <c r="L254" t="n">
-        <v>0.06013824238128884</v>
+        <v>0.05754421948599628</v>
       </c>
       <c r="M254" t="n">
-        <v>0.157337050181198</v>
+        <v>0.1504055806314301</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1009760385364743</v>
+        <v>0.09060470692396405</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1574201437510831</v>
+        <v>0.1502188722977543</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.03191236639208185</v>
+        <v>0.02824315584207797</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1587756499671561</v>
+        <v>0.1517344062411921</v>
       </c>
       <c r="J255" t="n">
-        <v>0.03191236639208185</v>
+        <v>0.02824315584207797</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1587756499671561</v>
+        <v>0.1517344062411921</v>
       </c>
       <c r="L255" t="n">
-        <v>0.06488544140692212</v>
+        <v>0.05971366565087632</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1581695213461779</v>
+        <v>0.1512013773543477</v>
       </c>
       <c r="N255" t="n">
-        <v>0.103350870092715</v>
+        <v>0.09102095929221748</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1582530545645809</v>
+        <v>0.1510136811458906</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.03018193421911537</v>
+        <v>0.02903907355416778</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1596113112827727</v>
+        <v>0.1525330083793036</v>
       </c>
       <c r="J256" t="n">
-        <v>0.03018193421911537</v>
+        <v>0.02903907355416778</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1596113112827727</v>
+        <v>0.1525330083793036</v>
       </c>
       <c r="L256" t="n">
-        <v>0.06541616747935081</v>
+        <v>0.05869452042798348</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1590019925111578</v>
+        <v>0.1519971740772653</v>
       </c>
       <c r="N256" t="n">
-        <v>0.09366899356571606</v>
+        <v>0.09052639366886017</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1590859653780787</v>
+        <v>0.1518084899940268</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.03046413029708747</v>
+        <v>0.02919202989057949</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1604469725983893</v>
+        <v>0.1533316105174151</v>
       </c>
       <c r="J257" t="n">
-        <v>0.03046413029708747</v>
+        <v>0.02919202989057949</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1604469725983893</v>
+        <v>0.1533316105174151</v>
       </c>
       <c r="L257" t="n">
-        <v>0.06477008493951489</v>
+        <v>0.05781702216451862</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1598344636761377</v>
+        <v>0.1527929708001829</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1056586264815605</v>
+        <v>0.09049190474100077</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1599188761915765</v>
+        <v>0.1526032988421631</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.03068826145582826</v>
+        <v>0.02870066962779318</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1612826339140059</v>
+        <v>0.1541302126555267</v>
       </c>
       <c r="J258" t="n">
-        <v>0.03068826145582826</v>
+        <v>0.02870066962779318</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1612826339140059</v>
+        <v>0.1541302126555267</v>
       </c>
       <c r="L258" t="n">
-        <v>0.063846864800605</v>
+        <v>0.06049750666094159</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1606669348411176</v>
+        <v>0.1535887675231005</v>
       </c>
       <c r="N258" t="n">
-        <v>0.09411799174860652</v>
+        <v>0.08769545119964711</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1607517870050743</v>
+        <v>0.1533981076902994</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.03015144869727664</v>
+        <v>0.02916359613781319</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1621182952296225</v>
+        <v>0.1549288147936382</v>
       </c>
       <c r="J259" t="n">
-        <v>0.03015144869727664</v>
+        <v>0.02916359613781319</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1621182952296225</v>
+        <v>0.1549288147936382</v>
       </c>
       <c r="L259" t="n">
-        <v>0.06234411923019512</v>
+        <v>0.05972235472191292</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1614994060060975</v>
+        <v>0.1543845642460182</v>
       </c>
       <c r="N259" t="n">
-        <v>0.0946468944624646</v>
+        <v>0.08931910152478956</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1615846978185721</v>
+        <v>0.1541929165384356</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.02953346773849047</v>
+        <v>0.02862623571133134</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1629539565452391</v>
+        <v>0.1557274169317498</v>
       </c>
       <c r="J260" t="n">
-        <v>0.02953346773849047</v>
+        <v>0.02862623571133134</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1629539565452391</v>
+        <v>0.1557274169317498</v>
       </c>
       <c r="L260" t="n">
-        <v>0.06463867385149583</v>
+        <v>0.0595555735384958</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1623318771710773</v>
+        <v>0.1551803609689358</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1027381184667384</v>
+        <v>0.08875099807022213</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1624176086320699</v>
+        <v>0.1549877253865719</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.02911662274041571</v>
+        <v>0.02762695438169288</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1637896178608557</v>
+        <v>0.1565260190698613</v>
       </c>
       <c r="J261" t="n">
-        <v>0.02911662274041571</v>
+        <v>0.02762695438169288</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1637896178608557</v>
+        <v>0.1565260190698613</v>
       </c>
       <c r="L261" t="n">
-        <v>0.06125806342836751</v>
+        <v>0.06040245509780906</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1631643483360572</v>
+        <v>0.1559761576918534</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1013662228118107</v>
+        <v>0.08873294604858167</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1632505194455677</v>
+        <v>0.1557825342347081</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.03109549008545509</v>
+        <v>0.02924148651783269</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1646252791764724</v>
+        <v>0.1573246212079729</v>
       </c>
       <c r="J262" t="n">
-        <v>0.03109549008545509</v>
+        <v>0.02924148651783269</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1646252791764724</v>
+        <v>0.1573246212079729</v>
       </c>
       <c r="L262" t="n">
-        <v>0.06115699888463166</v>
+        <v>0.05930889372481268</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1639968195010371</v>
+        <v>0.156771954414771</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1041425981871726</v>
+        <v>0.08573089887571494</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1640834302590655</v>
+        <v>0.1565773430828444</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.02840362072467596</v>
+        <v>0.02889451132349291</v>
       </c>
       <c r="G263" t="n">
-        <v>0.165460940492089</v>
+        <v>0.1581232233460844</v>
       </c>
       <c r="J263" t="n">
-        <v>0.02840362072467596</v>
+        <v>0.02889451132349291</v>
       </c>
       <c r="K263" t="n">
-        <v>0.165460940492089</v>
+        <v>0.1581232233460844</v>
       </c>
       <c r="L263" t="n">
-        <v>0.06684908457617617</v>
+        <v>0.0579630342867741</v>
       </c>
       <c r="M263" t="n">
-        <v>0.164829290666017</v>
+        <v>0.1575677511376886</v>
       </c>
       <c r="N263" t="n">
-        <v>0.09808589713294602</v>
+        <v>0.08753777416562736</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1649163410725633</v>
+        <v>0.1573721519309807</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.0280262705189144</v>
+        <v>0.02777337437615462</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1662966018077056</v>
+        <v>0.1589218254841959</v>
       </c>
       <c r="J264" t="n">
-        <v>0.0280262705189144</v>
+        <v>0.02777337437615462</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1662966018077056</v>
+        <v>0.1589218254841959</v>
       </c>
       <c r="L264" t="n">
-        <v>0.06417056010020541</v>
+        <v>0.05805839941225524</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1656617618309969</v>
+        <v>0.1583635478606062</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1017523937483256</v>
+        <v>0.08836683259286382</v>
       </c>
       <c r="O264" t="n">
-        <v>0.165749251886061</v>
+        <v>0.158166960779117</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1058.xlsx
+++ b/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1058.xlsx
@@ -4882,7 +4882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A65" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="S81" sqref="S81"/>
@@ -8805,7 +8805,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.06746816462443581</v>
+        <v>0.1006139320975862</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9252,10 +9252,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.0174681646244358</v>
+        <v>0.05061393209758616</v>
       </c>
       <c r="B65" t="n">
-        <v>0.001746803361320112</v>
+        <v>0.005061355249309544</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9270,29 +9270,29 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>0.0003499999999999961</v>
+        <v>0</v>
       </c>
       <c r="G65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>0.0003499999999999961</v>
+        <v>-8.000000000000368e-05</v>
       </c>
       <c r="K65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>0.001439999999999997</v>
+        <v>0.001395000000000007</v>
       </c>
       <c r="M65" s="170" t="n">
         <v>0</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0.03109751010448591</v>
+        <v>-0.0001750000000000085</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0.0003769366893716379</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9312,29 +9312,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.009432808897195333</v>
+        <v>0.007848086982238427</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0006288492100752402</v>
+        <v>0.00045516217423545</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.009432808897195333</v>
+        <v>0.009956853835928405</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0006288492100752402</v>
+        <v>0.0006637852773016423</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.03601259994773187</v>
+        <v>0.02124743396916179</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001188525737730437</v>
+        <v>0.0005246240645285683</v>
       </c>
       <c r="N66" s="171" t="n">
         <v>0.05455703527102795</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0009919386562411531</v>
+        <v>0.001124878888520895</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9352,10 +9352,10 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.0174681646244358</v>
+        <v>0.0151812285652731</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001746803361320112</v>
+        <v>0.0009103243484708999</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
@@ -9365,16 +9365,16 @@
         <v>0.001746803361320112</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.03732636902181957</v>
+        <v>0.03601259994773187</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001591593445835239</v>
+        <v>0.001333789994564158</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.05687764223704739</v>
+        <v>0.05567361761982637</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001589617696272532</v>
+        <v>0.001590953779009012</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9394,29 +9394,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.01846156806612538</v>
+        <v>0.02157893907239446</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002395806414334612</v>
+        <v>0.00136548652270635</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01846156806612538</v>
+        <v>0.01799260296973559</v>
       </c>
       <c r="K68" s="171" t="n">
         <v>0.002395806414334612</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.03891752600382939</v>
+        <v>0.03970767867321323</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002387390168752858</v>
+        <v>0.002389580082172462</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.05818894185240325</v>
+        <v>0.05835348424451581</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002384426544408798</v>
+        <v>0.002386430668513518</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9441,29 +9441,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01936531170402503</v>
+        <v>0.02530696604879308</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003194408552446149</v>
+        <v>0.001687118416436514</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01936531170402503</v>
+        <v>0.0187936145623013</v>
       </c>
       <c r="K69" s="171" t="n">
         <v>0.003194408552446149</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.04071816400468403</v>
+        <v>0.04177115515298804</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003183186891670477</v>
+        <v>0.003186106776229949</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.06364266427714033</v>
+        <v>0.06507319252537508</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003179235392545064</v>
+        <v>0.003181907558018024</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9478,62 +9478,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0006288492100752402</v>
+        <v>0.001687118416436514</v>
       </c>
       <c r="B70" t="n">
-        <v>0.009432808897195333</v>
+        <v>0.02530696604879308</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.02015452948305961</v>
+        <v>0.03138562773942012</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003993010690557687</v>
+        <v>0.00227581087117725</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02015452948305961</v>
+        <v>0.02033323438698562</v>
       </c>
       <c r="K70" s="171" t="n">
         <v>0.003993010690557687</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.04391578960385747</v>
+        <v>0.04496938988932886</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003978983614588097</v>
+        <v>0.003982633470287437</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.06824762193155326</v>
+        <v>0.06744595833287959</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.00397404424068133</v>
+        <v>0.003977384447522531</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.02133195274942662</v>
+        <v>0.03590351268165734</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004791612828669223</v>
+        <v>0.0027309730454127</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02133195274942662</v>
+        <v>0.02137607513982186</v>
       </c>
       <c r="K71" s="171" t="n">
         <v>0.004791612828669223</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04595471603565224</v>
+        <v>0.04485692489423806</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004774780337505716</v>
+        <v>0.004779160164344924</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.07370316558428003</v>
+        <v>0.07068948542043102</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004768853088817596</v>
+        <v>0.004772861337027036</v>
       </c>
     </row>
     <row r="72">
@@ -9548,29 +9548,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.02229858975519455</v>
+        <v>0.04009441586339473</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.00559021496678076</v>
+        <v>0.00318613521964815</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02229858975519455</v>
+        <v>0.0225991523161036</v>
       </c>
       <c r="K72" s="171" t="n">
         <v>0.00559021496678076</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04746790732855227</v>
+        <v>0.04722949488735803</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005570577060423335</v>
+        <v>0.005575686858402411</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.0704935160355914</v>
+        <v>0.07330930782919282</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005563661936953863</v>
+        <v>0.005568338226531543</v>
       </c>
     </row>
     <row r="73">
@@ -9594,29 +9594,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.02255376160269952</v>
+        <v>0.04380504926466551</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006388817104892298</v>
+        <v>0.0036412973938836</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02255376160269952</v>
+        <v>0.02321078830930784</v>
       </c>
       <c r="K73" s="171" t="n">
         <v>0.006388817104892298</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04837289841400785</v>
+        <v>0.04944900010309022</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006366373783340954</v>
+        <v>0.006372213552459899</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.07495269349450334</v>
+        <v>0.0769322880888183</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006358470785090129</v>
+        <v>0.006363815116036048</v>
       </c>
     </row>
     <row r="74">
@@ -9631,29 +9631,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.02378668078554806</v>
+        <v>0.04688212486550304</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007187419243003835</v>
+        <v>0.00409645956811905</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02378668078554806</v>
+        <v>0.02394263377522096</v>
       </c>
       <c r="K74" s="171" t="n">
         <v>0.007187419243003835</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.05077259883514998</v>
+        <v>0.05021467081229791</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007162170506258575</v>
+        <v>0.007168740246517386</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.07846457790568712</v>
+        <v>0.07808926751173728</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007153279633226394</v>
+        <v>0.007159292005540554</v>
       </c>
     </row>
     <row r="75">
@@ -9675,29 +9675,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.02482976913453862</v>
+        <v>0.04917235464594054</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007986021381115373</v>
+        <v>0.0045516217423545</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02482976913453862</v>
+        <v>0.02468566138454151</v>
       </c>
       <c r="K75" s="171" t="n">
         <v>0.007986021381115373</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.05046414025773874</v>
+        <v>0.05051411447849613</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007957967229176193</v>
+        <v>0.007965266940574874</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.08001532065816575</v>
+        <v>0.07815113735994572</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007948088481362661</v>
+        <v>0.007954768895045062</v>
       </c>
     </row>
     <row r="76">
@@ -9717,29 +9717,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.02477233334816478</v>
+        <v>0.05061393209758616</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.00878462351922691</v>
+        <v>0.005061355249309544</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02477233334816478</v>
+        <v>0.02502079872868235</v>
       </c>
       <c r="K76" s="171" t="n">
         <v>0.00878462351922691</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.05398200441518688</v>
+        <v>0.05130954948929126</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008753763952093813</v>
+        <v>0.008761793634632361</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.08069147432087637</v>
+        <v>0.07952080401201123</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008742897329498928</v>
+        <v>0.008750245784549568</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9754,28 +9754,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.02586864040950501</v>
+        <v>0.05122247676604967</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009583225657338447</v>
+        <v>0.0054619460908254</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02586864040950501</v>
+        <v>0.02517219803909534</v>
       </c>
       <c r="K77" t="n">
         <v>0.009583225657338447</v>
       </c>
       <c r="L77" t="n">
-        <v>0.05353168817730972</v>
+        <v>0.05323094398623435</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009549560675011433</v>
+        <v>0.009558320328689848</v>
       </c>
       <c r="N77" t="n">
-        <v>0.08244603343536899</v>
+        <v>0.0791769375773973</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009537706177635193</v>
+        <v>0.009545722674054073</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9794,28 +9794,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.0260810888732647</v>
+        <v>0.05190267352700431</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01038182779544998</v>
+        <v>0.00591710826506085</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0260810888732647</v>
+        <v>0.02583534079284749</v>
       </c>
       <c r="K78" t="n">
         <v>0.01038182779544998</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05621939113070884</v>
+        <v>0.0557823072942463</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01034535739792905</v>
+        <v>0.01035484702274734</v>
       </c>
       <c r="N78" t="n">
-        <v>0.08299735283375437</v>
+        <v>0.08363176131908606</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01033251502577146</v>
+        <v>0.01034119956355858</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9836,28 +9836,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.02635171811752753</v>
+        <v>0.05257099489715768</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01118042993356152</v>
+        <v>0.0063722704392963</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02635171811752753</v>
+        <v>0.02614239576403314</v>
       </c>
       <c r="K79" t="n">
         <v>0.01118042993356152</v>
       </c>
       <c r="L79" t="n">
-        <v>0.05838151546864939</v>
+        <v>0.05479835807830663</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01114115412084667</v>
+        <v>0.01115137371680482</v>
       </c>
       <c r="N79" t="n">
-        <v>0.08758443134227134</v>
+        <v>0.08812609495519674</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01112732387390773</v>
+        <v>0.01113667645306309</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9867,28 +9867,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02643596810141841</v>
+        <v>0.05322753472188137</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01197903207167306</v>
+        <v>0.00682743261353175</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02643596810141841</v>
+        <v>0.02733964488336409</v>
       </c>
       <c r="K80" t="n">
         <v>0.01197903207167306</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05693698947748546</v>
+        <v>0.05804934101017334</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01193695084376429</v>
+        <v>0.01194790041086231</v>
       </c>
       <c r="N80" t="n">
-        <v>0.08575351557484745</v>
+        <v>0.08704203963021639</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01192213272204399</v>
+        <v>0.01193215334256759</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9904,28 +9904,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02769281649408421</v>
+        <v>0.05387238684654701</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0127776342097846</v>
+        <v>0.007282594787767199</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02769281649408421</v>
+        <v>0.02771785078431173</v>
       </c>
       <c r="K81" t="n">
         <v>0.0127776342097846</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05631695836936362</v>
+        <v>0.05672272448184926</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01273274756668191</v>
+        <v>0.0127444271049198</v>
       </c>
       <c r="N81" t="n">
-        <v>0.09114475562567736</v>
+        <v>0.08720437333901981</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01271694157018026</v>
+        <v>0.0127276302320721</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9938,28 +9938,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02796282366689774</v>
+        <v>0.05450564511652622</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01357623634789613</v>
+        <v>0.00773775696200265</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02796282366689774</v>
+        <v>0.02838952552679894</v>
       </c>
       <c r="K82" t="n">
         <v>0.01357623634789613</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05670798822814277</v>
+        <v>0.05870802526053798</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01352854428959953</v>
+        <v>0.01354095379897728</v>
       </c>
       <c r="N82" t="n">
-        <v>0.08904657493285989</v>
+        <v>0.09073598602991828</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01351175041831652</v>
+        <v>0.0135231071215766</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9969,28 +9969,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02916686410211926</v>
+        <v>0.05512740337719062</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01437483848600767</v>
+        <v>0.008192919136238101</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02916686410211926</v>
+        <v>0.02826676930875782</v>
       </c>
       <c r="K83" t="n">
         <v>0.01437483848600767</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05994987960439441</v>
+        <v>0.05738217651609068</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01432434101251715</v>
+        <v>0.01433748049303477</v>
       </c>
       <c r="N83" t="n">
-        <v>0.08848857485293671</v>
+        <v>0.09130852101430975</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01430655926645279</v>
+        <v>0.01431858401108111</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10005,28 +10005,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02792870297873504</v>
+        <v>0.05573775547391183</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01517344062411921</v>
+        <v>0.00864808131047355</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02792870297873504</v>
+        <v>0.02856910122582831</v>
       </c>
       <c r="K84" t="n">
         <v>0.01517344062411921</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05856997488134782</v>
+        <v>0.05870809860329312</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01512013773543477</v>
+        <v>0.01513400718709226</v>
       </c>
       <c r="N84" t="n">
-        <v>0.09043765871124193</v>
+        <v>0.09041513539880414</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01510136811458906</v>
+        <v>0.01511406090058561</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10045,28 +10045,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02886451168600687</v>
+        <v>0.05633679525206146</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01597204276223075</v>
+        <v>0.009103243484709001</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02886451168600687</v>
+        <v>0.02925562345796634</v>
       </c>
       <c r="K85" t="n">
         <v>0.01597204276223075</v>
       </c>
       <c r="L85" t="n">
-        <v>0.0587544097755123</v>
+        <v>0.05825922888970808</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01591593445835239</v>
+        <v>0.01593053388114975</v>
       </c>
       <c r="N85" t="n">
-        <v>0.09137176064118413</v>
+        <v>0.08954880217594396</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01589617696272532</v>
+        <v>0.01590953779009012</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10087,28 +10087,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.0289352631099221</v>
+        <v>0.05692461655701116</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01677064490034228</v>
+        <v>0.00955840565894445</v>
       </c>
       <c r="J86" t="n">
-        <v>0.0289352631099221</v>
+        <v>0.02939515798658068</v>
       </c>
       <c r="K86" t="n">
         <v>0.01677064490034228</v>
       </c>
       <c r="L86" t="n">
-        <v>0.06185449233900148</v>
+        <v>0.06189713680484324</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01671173118127001</v>
+        <v>0.01672706057520723</v>
       </c>
       <c r="N86" t="n">
-        <v>0.08938741749646456</v>
+        <v>0.09245462889548361</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01669098581086159</v>
+        <v>0.01670501467959463</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10118,28 +10118,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02984657355285351</v>
+        <v>0.05750131323413252</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01756924703845382</v>
+        <v>0.0100135678331799</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02984657355285351</v>
+        <v>0.03005513326567433</v>
       </c>
       <c r="K87" t="n">
         <v>0.01756924703845382</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05973065966685634</v>
+        <v>0.06131144288968751</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01750752790418763</v>
+        <v>0.01752358726926472</v>
       </c>
       <c r="N87" t="n">
-        <v>0.09556024212254871</v>
+        <v>0.09066232353410264</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01748579465899786</v>
+        <v>0.01750049156909914</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10153,28 +10153,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02936872634425651</v>
+        <v>0.05806697912879716</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01836784917656535</v>
+        <v>0.01046873000741535</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02936872634425651</v>
+        <v>0.02889021748091143</v>
       </c>
       <c r="K88" t="n">
         <v>0.01836784917656535</v>
       </c>
       <c r="L88" t="n">
-        <v>0.06265524300557218</v>
+        <v>0.06107805538362712</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01830332462710525</v>
+        <v>0.01832011396332221</v>
       </c>
       <c r="N88" t="n">
-        <v>0.09325279790333924</v>
+        <v>0.09169859147585563</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01828060350713412</v>
+        <v>0.01829596845860364</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10187,4780 +10187,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.03035174312018359</v>
+        <v>0.05862170808637672</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01916645131467689</v>
+        <v>0.0109238921816508</v>
       </c>
       <c r="J89" t="n">
-        <v>0.03035174312018359</v>
+        <v>0.03015714837158912</v>
       </c>
       <c r="K89" t="n">
         <v>0.01916645131467689</v>
       </c>
       <c r="L89" t="n">
-        <v>0.06262749519079611</v>
+        <v>0.05904875493293632</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01909912135002287</v>
+        <v>0.0191166406573797</v>
       </c>
       <c r="N89" t="n">
-        <v>0.08991430246395143</v>
+        <v>0.09684075126723818</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01907541235527039</v>
+        <v>0.01909144534810815</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.030119062963977</v>
+        <v>0.05916559395224281</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01996505345278843</v>
+        <v>0.01137905435588625</v>
       </c>
       <c r="J90" t="n">
-        <v>0.030119062963977</v>
+        <v>0.02982930971816423</v>
       </c>
       <c r="K90" t="n">
         <v>0.01996505345278843</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06277594757985799</v>
+        <v>0.06160708892441652</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01989491807294048</v>
+        <v>0.01991316735143718</v>
       </c>
       <c r="N90" t="n">
-        <v>0.09597040465060142</v>
+        <v>0.09198967916690176</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01987022120340665</v>
+        <v>0.01988692223761265</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.0294047679095617</v>
+        <v>0.05969873057176707</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02076365559089997</v>
+        <v>0.0118342165301217</v>
       </c>
       <c r="J91" t="n">
-        <v>0.0294047679095617</v>
+        <v>0.03055797252144599</v>
       </c>
       <c r="K91" t="n">
         <v>0.02076365559089997</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06157079435208329</v>
+        <v>0.06398006596586606</v>
       </c>
       <c r="M91" t="n">
-        <v>0.0206907147958581</v>
+        <v>0.02070969404549467</v>
       </c>
       <c r="N91" t="n">
-        <v>0.09487520693345169</v>
+        <v>0.09651754434894966</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02066503005154292</v>
+        <v>0.02068239912711716</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03088310543472578</v>
+        <v>0.0602212117903211</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02156225772901151</v>
+        <v>0.01228937870435715</v>
       </c>
       <c r="J92" t="n">
-        <v>0.03088310543472578</v>
+        <v>0.03092284788436621</v>
       </c>
       <c r="K92" t="n">
         <v>0.02156225772901151</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06438957199351877</v>
+        <v>0.0617164909001916</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02148651151877572</v>
+        <v>0.02150622073955216</v>
       </c>
       <c r="N92" t="n">
-        <v>0.09322622840560107</v>
+        <v>0.09548934304621542</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02145983889967918</v>
+        <v>0.02147787601662167</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03031923648782947</v>
+        <v>0.06073313145327652</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02236085986712304</v>
+        <v>0.0127445408785926</v>
       </c>
       <c r="J93" t="n">
-        <v>0.03031923648782947</v>
+        <v>0.0301950471041568</v>
       </c>
       <c r="K93" t="n">
         <v>0.02236085986712304</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06161958509118665</v>
+        <v>0.06253131506240911</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02228230824169334</v>
+        <v>0.02230274743360965</v>
       </c>
       <c r="N93" t="n">
-        <v>0.09819353852490303</v>
+        <v>0.0920119289479136</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02225464774781545</v>
+        <v>0.02227335290612617</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03014626586577156</v>
+        <v>0.06123458340600496</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02315946200523458</v>
+        <v>0.01319970305282805</v>
       </c>
       <c r="J94" t="n">
-        <v>0.03014626586577156</v>
+        <v>0.03083962915144567</v>
       </c>
       <c r="K94" t="n">
         <v>0.02315946200523458</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06422578716381014</v>
+        <v>0.06334818151138316</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02307810496461096</v>
+        <v>0.02309927412766713</v>
       </c>
       <c r="N94" t="n">
-        <v>0.09852608211119307</v>
+        <v>0.09465382093646313</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02304945659595171</v>
+        <v>0.02306882979563067</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03032679762392886</v>
+        <v>0.06172566149387802</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02395806414334612</v>
+        <v>0.0136548652270635</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03032679762392886</v>
+        <v>0.02981480820259293</v>
       </c>
       <c r="K95" t="n">
         <v>0.02395806414334612</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06215100891697428</v>
+        <v>0.0648584105525217</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02387390168752858</v>
+        <v>0.02389580082172462</v>
       </c>
       <c r="N95" t="n">
-        <v>0.098851296428974</v>
+        <v>0.09746017487858011</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02384426544408798</v>
+        <v>0.02386430668513518</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03138419434074982</v>
+        <v>0.06220645956226735</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02475666628145766</v>
+        <v>0.01411002740129895</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03138419434074982</v>
+        <v>0.03133796864473019</v>
       </c>
       <c r="K96" t="n">
         <v>0.02475666628145766</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06215341436619456</v>
+        <v>0.06153777369366203</v>
       </c>
       <c r="M96" t="n">
-        <v>0.0246696984104462</v>
+        <v>0.02469232751578211</v>
       </c>
       <c r="N96" t="n">
-        <v>0.09748646978090214</v>
+        <v>0.09891506239497705</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02463907429222425</v>
+        <v>0.02465978357463969</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03028145119668793</v>
+        <v>0.06267707145654454</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02555526841956919</v>
+        <v>0.0145651895755344</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03028145119668793</v>
+        <v>0.03035711887277101</v>
       </c>
       <c r="K97" t="n">
         <v>0.02555526841956919</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06342708826307791</v>
+        <v>0.06354784801495802</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02546549513336382</v>
+        <v>0.0254888542098396</v>
       </c>
       <c r="N97" t="n">
-        <v>0.09883392196665108</v>
+        <v>0.09815272757134896</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02543388314036052</v>
+        <v>0.02545526046414419</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03145574058574067</v>
+        <v>0.06313759102208125</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02635387055768073</v>
+        <v>0.01502035174976985</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03145574058574067</v>
+        <v>0.03189939208937824</v>
       </c>
       <c r="K98" t="n">
         <v>0.02635387055768073</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06602020849574297</v>
+        <v>0.0639554479431507</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02626129185628144</v>
+        <v>0.02628538090389708</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1001212323406947</v>
+        <v>0.09558218131995677</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02622869198849678</v>
+        <v>0.0262507373536487</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03051729432803252</v>
+        <v>0.06358811210424906</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02715247269579226</v>
+        <v>0.0154755139240053</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03051729432803252</v>
+        <v>0.03123555006657243</v>
       </c>
       <c r="K99" t="n">
         <v>0.02715247269579226</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06545010218166983</v>
+        <v>0.06495834232763492</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02705708857919906</v>
+        <v>0.02708190759795457</v>
       </c>
       <c r="N99" t="n">
-        <v>0.0960025769542871</v>
+        <v>0.09521857827954644</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02702350083663305</v>
+        <v>0.0270462142431532</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03165506549092351</v>
+        <v>0.06402872854841959</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02795107483390381</v>
+        <v>0.01593067609824075</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03165506549092351</v>
+        <v>0.03175060745577904</v>
       </c>
       <c r="K100" t="n">
         <v>0.02795107483390381</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06613997748466249</v>
+        <v>0.06633994832306431</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02785288530211668</v>
+        <v>0.02787843429201206</v>
       </c>
       <c r="N100" t="n">
-        <v>0.09961869729555906</v>
+        <v>0.1002111529718374</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02781830968476931</v>
+        <v>0.02784169113265771</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03198616182083582</v>
+        <v>0.06445953419996449</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02874967697201534</v>
+        <v>0.0163858382724762</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03198616182083582</v>
+        <v>0.03185560728911281</v>
       </c>
       <c r="K101" t="n">
         <v>0.02874967697201534</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06603097177411663</v>
+        <v>0.06427479650932658</v>
       </c>
       <c r="M101" t="n">
-        <v>0.0286486820250343</v>
+        <v>0.02867496098606954</v>
       </c>
       <c r="N101" t="n">
-        <v>0.09883828767660308</v>
+        <v>0.1011251293610293</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02861311853290558</v>
+        <v>0.02863716802216222</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03175286241894401</v>
+        <v>0.06488062290425539</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02954827911012688</v>
+        <v>0.01684100044671165</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03175286241894401</v>
+        <v>0.03202251204011594</v>
       </c>
       <c r="K102" t="n">
         <v>0.02954827911012688</v>
       </c>
       <c r="L102" t="n">
-        <v>0.0664508124933896</v>
+        <v>0.06383290487087981</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02944447874795192</v>
+        <v>0.02947148768012703</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1021240202906205</v>
+        <v>0.09766224272298524</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02940792738104184</v>
+        <v>0.02943264491166673</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03146690468171351</v>
+        <v>0.06529208850666386</v>
       </c>
       <c r="G103" t="n">
-        <v>0.03034688124823841</v>
+        <v>0.0172961626209471</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03146690468171351</v>
+        <v>0.0308205079809966</v>
       </c>
       <c r="K103" t="n">
         <v>0.03034688124823841</v>
       </c>
       <c r="L103" t="n">
-        <v>0.06472362482707233</v>
+        <v>0.06506823254461133</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03024027547086953</v>
+        <v>0.03026801437418452</v>
       </c>
       <c r="N103" t="n">
-        <v>0.09835731149350613</v>
+        <v>0.09736535126941576</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03020273622917811</v>
+        <v>0.03022812180117123</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.03200649583955095</v>
+        <v>0.06569402485256158</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03114548338634995</v>
+        <v>0.01775132479518255</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03200649583955095</v>
+        <v>0.03155926510690948</v>
       </c>
       <c r="K104" t="n">
         <v>0.03114548338634995</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06584591769327405</v>
+        <v>0.06721649474075331</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03103607219378715</v>
+        <v>0.03106454106824201</v>
       </c>
       <c r="N104" t="n">
-        <v>0.09926430204873982</v>
+        <v>0.09816767126474574</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03099754507731438</v>
+        <v>0.03102359869067573</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03188798912090333</v>
+        <v>0.06608652578732011</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03194408552446149</v>
+        <v>0.018206486969418</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03188798912090333</v>
+        <v>0.03148761219880476</v>
       </c>
       <c r="K105" t="n">
         <v>0.03194408552446149</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06828378323441162</v>
+        <v>0.06808157774381718</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03183186891670477</v>
+        <v>0.03186106776229949</v>
       </c>
       <c r="N105" t="n">
-        <v>0.09779229905734987</v>
+        <v>0.09651158398105009</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03179235392545064</v>
+        <v>0.03181907558018025</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.03165481650361453</v>
+        <v>0.06646968515631112</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03274268766257302</v>
+        <v>0.01866164914365345</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03165481650361453</v>
+        <v>0.03219974499695773</v>
       </c>
       <c r="K106" t="n">
         <v>0.03274268766257302</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06532149092664652</v>
+        <v>0.06813577794761974</v>
       </c>
       <c r="M106" t="n">
-        <v>0.0326276656396224</v>
+        <v>0.03265759445635699</v>
       </c>
       <c r="N106" t="n">
-        <v>0.09801148912600427</v>
+        <v>0.1019097906572959</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03258716277358691</v>
+        <v>0.03261455246968475</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.03173915785576645</v>
+        <v>0.0668435968049062</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03354128980068456</v>
+        <v>0.0191168113178889</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03173915785576645</v>
+        <v>0.03269289479247815</v>
       </c>
       <c r="K107" t="n">
         <v>0.03354128980068456</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06391939561564325</v>
+        <v>0.06425302142213468</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03342346236254001</v>
+        <v>0.03345412115041447</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1007911584141069</v>
+        <v>0.09762220455676796</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03338197162172318</v>
+        <v>0.03341002935918926</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.03201611971141213</v>
+        <v>0.06720835457847699</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0343398919387961</v>
+        <v>0.01957197349212435</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03201611971141213</v>
+        <v>0.03233958154479591</v>
       </c>
       <c r="K108" t="n">
         <v>0.0343398919387961</v>
       </c>
       <c r="L108" t="n">
-        <v>0.0672108924689658</v>
+        <v>0.06623219822181417</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03421925908545763</v>
+        <v>0.03425064784447195</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1002968101120417</v>
+        <v>0.09883023972547889</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03417678046985945</v>
+        <v>0.03420550624869376</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.03145099978766136</v>
+        <v>0.06756405232239508</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03513849407690764</v>
+        <v>0.0200271356663598</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03145099978766136</v>
+        <v>0.03133564864907769</v>
       </c>
       <c r="K109" t="n">
         <v>0.03513849407690764</v>
       </c>
       <c r="L109" t="n">
-        <v>0.0648971922716946</v>
+        <v>0.06674417753380404</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03501505580837525</v>
+        <v>0.03504717453852944</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1010637237563592</v>
+        <v>0.09851168295815493</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03497158931799571</v>
+        <v>0.03500098313819827</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.03273199874546368</v>
+        <v>0.06791078388203213</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03593709621501918</v>
+        <v>0.02048229784059525</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03273199874546368</v>
+        <v>0.03145155892534046</v>
       </c>
       <c r="K110" t="n">
         <v>0.03593709621501918</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06532786769371271</v>
+        <v>0.06719289497704689</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03581085253129287</v>
+        <v>0.03584370123258693</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1003327529730619</v>
+        <v>0.1024751922859446</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03576639816613197</v>
+        <v>0.03579646002770277</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.03242216523143741</v>
+        <v>0.06824864310275973</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03673569835313071</v>
+        <v>0.0209374600148307</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03242216523143741</v>
+        <v>0.03205159534552696</v>
       </c>
       <c r="K111" t="n">
         <v>0.03673569835313071</v>
       </c>
       <c r="L111" t="n">
-        <v>0.06511421190393671</v>
+        <v>0.0666648536289588</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03660664925421049</v>
+        <v>0.03664022792664442</v>
       </c>
       <c r="N111" t="n">
-        <v>0.09987096469191625</v>
+        <v>0.1041752423082777</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03656120701426824</v>
+        <v>0.03659193691720728</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.03300519124038145</v>
+        <v>0.06857772382994952</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03753430049124225</v>
+        <v>0.02139262218906615</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03300519124038145</v>
+        <v>0.03186317115064492</v>
       </c>
       <c r="K112" t="n">
         <v>0.03753430049124225</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06712556473196613</v>
+        <v>0.0682169031196718</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03740244597712811</v>
+        <v>0.0374367546207019</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1029401275197385</v>
+        <v>0.1031160027898063</v>
       </c>
       <c r="O112" t="n">
-        <v>0.0373560158624045</v>
+        <v>0.03738741380671179</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.03228419858767297</v>
+        <v>0.06889811990897311</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03833290262935379</v>
+        <v>0.0218477843633016</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03228419858767297</v>
+        <v>0.03289773989256867</v>
       </c>
       <c r="K113" t="n">
         <v>0.03833290262935379</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06857355445601382</v>
+        <v>0.06576452863938345</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03819824270004573</v>
+        <v>0.03823328131475939</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1040263531757958</v>
+        <v>0.1051611665306757</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03815082471054077</v>
+        <v>0.03818289069621629</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.03217685344275156</v>
+        <v>0.06920992518520212</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03913150476746532</v>
+        <v>0.02230294653753705</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03217685344275156</v>
+        <v>0.0331854583186095</v>
       </c>
       <c r="K114" t="n">
         <v>0.03913150476746532</v>
       </c>
       <c r="L114" t="n">
-        <v>0.06482670226240483</v>
+        <v>0.06710436225211502</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03899403942296335</v>
+        <v>0.03902980800881688</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1023007868623615</v>
+        <v>0.09937664482378583</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03894563355867704</v>
+        <v>0.0389783675857208</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.032023201873773</v>
+        <v>0.06951323350400819</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03993010690557686</v>
+        <v>0.0227581087117725</v>
       </c>
       <c r="J115" t="n">
-        <v>0.032023201873773</v>
+        <v>0.03315770117554784</v>
       </c>
       <c r="K115" t="n">
         <v>0.03993010690557686</v>
       </c>
       <c r="L115" t="n">
-        <v>0.06743892796481182</v>
+        <v>0.06573442737903309</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03978983614588096</v>
+        <v>0.03982633470287437</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1040467247927345</v>
+        <v>0.09851106538231541</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03974044240681331</v>
+        <v>0.03977384447522531</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03283076178412826</v>
+        <v>0.06980813871076291</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0407287090436884</v>
+        <v>0.02321327088600795</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03283076178412826</v>
+        <v>0.03348535176534317</v>
       </c>
       <c r="K116" t="n">
         <v>0.0407287090436884</v>
       </c>
       <c r="L116" t="n">
-        <v>0.06726784680378875</v>
+        <v>0.0683076142040224</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04058563286879859</v>
+        <v>0.04062286139693185</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1002086090354549</v>
+        <v>0.1031353111287673</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04053525125494957</v>
+        <v>0.04056932136472981</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.0323514270865124</v>
+        <v>0.07009473465083792</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04152731118179993</v>
+        <v>0.0236684330602434</v>
       </c>
       <c r="J117" t="n">
-        <v>0.0323514270865124</v>
+        <v>0.03254230512974426</v>
       </c>
       <c r="K117" t="n">
         <v>0.04152731118179993</v>
       </c>
       <c r="L117" t="n">
-        <v>0.06837078878139211</v>
+        <v>0.06795947856126405</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04138142959171621</v>
+        <v>0.04141938809098934</v>
       </c>
       <c r="N117" t="n">
-        <v>0.10071790337931</v>
+        <v>0.1009453338144233</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04133006010308584</v>
+        <v>0.04136479825423432</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.03347264050269713</v>
+        <v>0.07037311516960483</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04232591331991148</v>
+        <v>0.02412359523447885</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03347264050269713</v>
+        <v>0.03319821867913583</v>
       </c>
       <c r="K118" t="n">
         <v>0.04232591331991148</v>
       </c>
       <c r="L118" t="n">
-        <v>0.06885848046010085</v>
+        <v>0.06604332720891781</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04217722631463382</v>
+        <v>0.04221591478504683</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1003889113424208</v>
+        <v>0.1035446628098361</v>
       </c>
       <c r="O118" t="n">
-        <v>0.0421248689512221</v>
+        <v>0.04216027514373882</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.0324009879844238</v>
+        <v>0.07064337411243526</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04312451545802301</v>
+        <v>0.0245787574087143</v>
       </c>
       <c r="J119" t="n">
-        <v>0.0324009879844238</v>
+        <v>0.03367354960812241</v>
       </c>
       <c r="K119" t="n">
         <v>0.04312451545802301</v>
       </c>
       <c r="L119" t="n">
-        <v>0.06670688957789744</v>
+        <v>0.06609231004977739</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04297302303755144</v>
+        <v>0.04301244147910432</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1020744231153459</v>
+        <v>0.1059214820746924</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04291967779935837</v>
+        <v>0.04295575203324333</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.03350708833909166</v>
+        <v>0.07090560532470085</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04392311759613455</v>
+        <v>0.02503391958294975</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03350708833909166</v>
+        <v>0.03358196066339698</v>
       </c>
       <c r="K120" t="n">
         <v>0.04392311759613455</v>
       </c>
       <c r="L120" t="n">
-        <v>0.06597449468063266</v>
+        <v>0.06616586345605091</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04376881976046906</v>
+        <v>0.0438089681731618</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1003575500483782</v>
+        <v>0.09958512530383479</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04371448664749464</v>
+        <v>0.04375122892274783</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03284164866167213</v>
+        <v>0.0711599026517732</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04472171973424608</v>
+        <v>0.0254890817571852</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03284164866167213</v>
+        <v>0.03305802882741521</v>
       </c>
       <c r="K121" t="n">
         <v>0.04472171973424608</v>
       </c>
       <c r="L121" t="n">
-        <v>0.06822489060062745</v>
+        <v>0.06819105683177826</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04456461648338668</v>
+        <v>0.04460549486721929</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1066752736828553</v>
+        <v>0.1032225175161597</v>
       </c>
       <c r="O121" t="n">
-        <v>0.0445092954956309</v>
+        <v>0.04454670581225234</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03278329425483359</v>
+        <v>0.07140635993902396</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04552032187235762</v>
+        <v>0.02594424393142065</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03278329425483359</v>
+        <v>0.03230000962272243</v>
       </c>
       <c r="K122" t="n">
         <v>0.04552032187235762</v>
       </c>
       <c r="L122" t="n">
-        <v>0.06937579502514507</v>
+        <v>0.06695130547709005</v>
       </c>
       <c r="M122" t="n">
-        <v>0.0453604132063043</v>
+        <v>0.04540202156127678</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1004813858249624</v>
+        <v>0.1052861366695903</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04530410434376717</v>
+        <v>0.04534218270175685</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.0330674856496137</v>
+        <v>0.07164507103182467</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04631892401046916</v>
+        <v>0.0263994061056561</v>
       </c>
       <c r="J123" t="n">
-        <v>0.0330674856496137</v>
+        <v>0.03422650025649458</v>
       </c>
       <c r="K123" t="n">
         <v>0.04631892401046916</v>
       </c>
       <c r="L123" t="n">
-        <v>0.07016928495230326</v>
+        <v>0.06681790048466812</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04615620992922193</v>
+        <v>0.04619854825533427</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1068159686054734</v>
+        <v>0.106564060027221</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04609891319190343</v>
+        <v>0.04613765959126135</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03323550094383375</v>
+        <v>0.07187612977554707</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0471175261485807</v>
+        <v>0.02685456827989155</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03323550094383375</v>
+        <v>0.0340283775176609</v>
       </c>
       <c r="K124" t="n">
         <v>0.0471175261485807</v>
       </c>
       <c r="L124" t="n">
-        <v>0.06935044851174085</v>
+        <v>0.06699439379687347</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04695200665213954</v>
+        <v>0.04699507494939176</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1023485640648875</v>
+        <v>0.1043315791675082</v>
       </c>
       <c r="O124" t="n">
-        <v>0.0468937220400397</v>
+        <v>0.04693313648076586</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.03377206812618737</v>
+        <v>0.0720996300155627</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04791612828669223</v>
+        <v>0.027309730454127</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03377206812618737</v>
+        <v>0.03347112830799989</v>
       </c>
       <c r="K125" t="n">
         <v>0.04791612828669223</v>
       </c>
       <c r="L125" t="n">
-        <v>0.06967535485557766</v>
+        <v>0.06680258563411037</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04774780337505716</v>
+        <v>0.04779160164344924</v>
       </c>
       <c r="N125" t="n">
-        <v>0.104721808470769</v>
+        <v>0.1014033399824615</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04768853088817596</v>
+        <v>0.04772861337027037</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03253698544489488</v>
+        <v>0.07231566559724317</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04871473042480377</v>
+        <v>0.02776489262836245</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03253698544489488</v>
+        <v>0.03344724883549707</v>
       </c>
       <c r="K126" t="n">
         <v>0.04871473042480377</v>
       </c>
       <c r="L126" t="n">
-        <v>0.06954115938560076</v>
+        <v>0.06877500225440919</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04854360009797478</v>
+        <v>0.04858812833750673</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1021302801306853</v>
+        <v>0.1047555511456743</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04848333973631223</v>
+        <v>0.04852409025977487</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.03300615488358181</v>
+        <v>0.07252433036596014</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04951333256291531</v>
+        <v>0.0282200548025979</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03300615488358181</v>
+        <v>0.0334161198498257</v>
       </c>
       <c r="K127" t="n">
         <v>0.04951333256291531</v>
       </c>
       <c r="L127" t="n">
-        <v>0.07105016624747229</v>
+        <v>0.06945948128362947</v>
       </c>
       <c r="M127" t="n">
-        <v>0.0493393968208924</v>
+        <v>0.04938465503156422</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1053485887909745</v>
+        <v>0.10303723293227</v>
       </c>
       <c r="O127" t="n">
-        <v>0.0492781485844485</v>
+        <v>0.04931956714927938</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.03288114052098917</v>
+        <v>0.07272571816708523</v>
       </c>
       <c r="G128" t="n">
-        <v>0.05031193470102685</v>
+        <v>0.02867521697683335</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03288114052098917</v>
+        <v>0.03284861002759057</v>
       </c>
       <c r="K128" t="n">
         <v>0.05031193470102685</v>
       </c>
       <c r="L128" t="n">
-        <v>0.07032543480474371</v>
+        <v>0.06947105472810672</v>
       </c>
       <c r="M128" t="n">
-        <v>0.05013519354381002</v>
+        <v>0.05018118172562171</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1054875909215333</v>
+        <v>0.1029839949611753</v>
       </c>
       <c r="O128" t="n">
-        <v>0.05007295743258476</v>
+        <v>0.05011504403878388</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.03335202036623212</v>
+        <v>0.07291992284599007</v>
       </c>
       <c r="G129" t="n">
-        <v>0.05111053683913838</v>
+        <v>0.0291303791510688</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03335202036623212</v>
+        <v>0.0329234988748008</v>
       </c>
       <c r="K129" t="n">
         <v>0.05111053683913838</v>
       </c>
       <c r="L129" t="n">
-        <v>0.06905470280389692</v>
+        <v>0.06738945247575612</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05093099026672764</v>
+        <v>0.05097770841967919</v>
       </c>
       <c r="N129" t="n">
-        <v>0.106974779515712</v>
+        <v>0.1055971897674831</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05086776628072103</v>
+        <v>0.05091052092828838</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.03341759543990132</v>
+        <v>0.07310703824804622</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05190913897724992</v>
+        <v>0.02958554132530425</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03341759543990132</v>
+        <v>0.03302404870348501</v>
       </c>
       <c r="K130" t="n">
         <v>0.05190913897724992</v>
       </c>
       <c r="L130" t="n">
-        <v>0.06914332660596983</v>
+        <v>0.06953426184995312</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05172678698964526</v>
+        <v>0.05177423511373667</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1083083792395267</v>
+        <v>0.1092474122171749</v>
       </c>
       <c r="O130" t="n">
-        <v>0.0516625751288573</v>
+        <v>0.05170599781779289</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.03304007878541862</v>
+        <v>0.07328715821862536</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05270774111536145</v>
+        <v>0.0300407034995397</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03304007878541862</v>
+        <v>0.03312401627031052</v>
       </c>
       <c r="K131" t="n">
         <v>0.05270774111536145</v>
       </c>
       <c r="L131" t="n">
-        <v>0.06902190549863629</v>
+        <v>0.07137145553831586</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05252258371256287</v>
+        <v>0.05257076180779417</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1056980164977294</v>
+        <v>0.1094278033157097</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05245738397699357</v>
+        <v>0.0525014747072974</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.03376846136929212</v>
+        <v>0.07346037660309908</v>
       </c>
       <c r="G132" t="n">
-        <v>0.053506343253473</v>
+        <v>0.03049586567377515</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03376846136929212</v>
+        <v>0.03370125843197219</v>
       </c>
       <c r="K132" t="n">
         <v>0.053506343253473</v>
       </c>
       <c r="L132" t="n">
-        <v>0.07136216280430074</v>
+        <v>0.07129169728871559</v>
       </c>
       <c r="M132" t="n">
-        <v>0.0533183804354805</v>
+        <v>0.05336728850185165</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1079752906492311</v>
+        <v>0.1063700059841518</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05325219282512982</v>
+        <v>0.0532969515968019</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.03422110288849645</v>
+        <v>0.07362678724683903</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05430494539158453</v>
+        <v>0.0309510278480106</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03422110288849645</v>
+        <v>0.03464897158367605</v>
       </c>
       <c r="K133" t="n">
         <v>0.05430494539158453</v>
       </c>
       <c r="L133" t="n">
-        <v>0.07071484621013394</v>
+        <v>0.06988564851237078</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05411417715839811</v>
+        <v>0.05416381519590913</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1053377171197924</v>
+        <v>0.1028855097925491</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05404700167326609</v>
+        <v>0.05409242848630641</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.03454620963866581</v>
+        <v>0.07378648399521678</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05510354752969607</v>
+        <v>0.03140619002224605</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03454620963866581</v>
+        <v>0.03325248066013221</v>
       </c>
       <c r="K134" t="n">
         <v>0.05510354752969607</v>
       </c>
       <c r="L134" t="n">
-        <v>0.06928230600362975</v>
+        <v>0.0709490509326528</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05490997388131574</v>
+        <v>0.05496034188996663</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1064904869355449</v>
+        <v>0.1067124448027126</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05484181052140236</v>
+        <v>0.05488790537581092</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.03436524452062006</v>
+        <v>0.07393956069360402</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05590214966780761</v>
+        <v>0.0318613521964815</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03436524452062006</v>
+        <v>0.03415682493882974</v>
       </c>
       <c r="K135" t="n">
         <v>0.05590214966780761</v>
       </c>
       <c r="L135" t="n">
-        <v>0.07097383914487509</v>
+        <v>0.07126759430576074</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05570577060423336</v>
+        <v>0.05575686858402412</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1070974571398529</v>
+        <v>0.1074834879469841</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05563661936953862</v>
+        <v>0.05568338226531542</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.03327360276012552</v>
+        <v>0.07408611118737231</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05670075180591914</v>
+        <v>0.03231651437071695</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03327360276012552</v>
+        <v>0.03498291517833325</v>
       </c>
       <c r="K136" t="n">
         <v>0.05670075180591914</v>
       </c>
       <c r="L136" t="n">
-        <v>0.06849479817288009</v>
+        <v>0.07079466235295717</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05650156732715097</v>
+        <v>0.05655339527808161</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1092996792280255</v>
+        <v>0.1077869948890056</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05643142821767489</v>
+        <v>0.05647885915481993</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.03361831798128076</v>
+        <v>0.07422622932189331</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05749935394403068</v>
+        <v>0.0327716765449524</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03361831798128076</v>
+        <v>0.03455541669330589</v>
       </c>
       <c r="K137" t="n">
         <v>0.05749935394403068</v>
       </c>
       <c r="L137" t="n">
-        <v>0.07073590181661038</v>
+        <v>0.06852319337496054</v>
       </c>
       <c r="M137" t="n">
-        <v>0.0572973640500686</v>
+        <v>0.05734992197213909</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1049247648934684</v>
+        <v>0.1060271675279567</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05722623706581115</v>
+        <v>0.05727433604432444</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.03499935391564168</v>
+        <v>0.07436000894253864</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05829795608214221</v>
+        <v>0.03322683871918785</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03499935391564168</v>
+        <v>0.03359997923795566</v>
       </c>
       <c r="K138" t="n">
         <v>0.05829795608214221</v>
       </c>
       <c r="L138" t="n">
-        <v>0.07062889005579806</v>
+        <v>0.06923424187668981</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05809316077298621</v>
+        <v>0.05814644866619658</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1102338642260697</v>
+        <v>0.1036237380269832</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05802104591394742</v>
+        <v>0.05806981293382894</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.03471944922208846</v>
+        <v>0.07448754389467985</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05909655822025375</v>
+        <v>0.0336820008934233</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03471944922208846</v>
+        <v>0.03472657504913974</v>
       </c>
       <c r="K139" t="n">
         <v>0.05909655822025375</v>
       </c>
       <c r="L139" t="n">
-        <v>0.07119607912243769</v>
+        <v>0.07051185144840608</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05888895749590383</v>
+        <v>0.05894297536025406</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1037036652648836</v>
+        <v>0.1071120852525709</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05881585476208369</v>
+        <v>0.05886528982333345</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.03424420955275362</v>
+        <v>0.07460892802368863</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0598951603583653</v>
+        <v>0.03413716306765874</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03424420955275362</v>
+        <v>0.03506801698677686</v>
       </c>
       <c r="K140" t="n">
         <v>0.0598951603583653</v>
       </c>
       <c r="L140" t="n">
-        <v>0.0723014852399434</v>
+        <v>0.0715700797851001</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05968475421882145</v>
+        <v>0.05973950205431155</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1067282995409736</v>
+        <v>0.1075629302499687</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05961066361021996</v>
+        <v>0.05966076671283795</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.03388734054298047</v>
+        <v>0.07472425517493661</v>
       </c>
       <c r="G141" t="n">
-        <v>0.06069376249647682</v>
+        <v>0.0345923252418942</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03388734054298047</v>
+        <v>0.03428610783961215</v>
       </c>
       <c r="K141" t="n">
         <v>0.06069376249647682</v>
       </c>
       <c r="L141" t="n">
-        <v>0.0698169464626229</v>
+        <v>0.07060192687422703</v>
       </c>
       <c r="M141" t="n">
-        <v>0.06048055094173907</v>
+        <v>0.06053602874836903</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1085891774730888</v>
+        <v>0.110927190953315</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06040547245835622</v>
+        <v>0.06045624360234245</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.0353390029801295</v>
+        <v>0.07483361919379539</v>
       </c>
       <c r="G142" t="n">
-        <v>0.06149236463458837</v>
+        <v>0.03504748741612965</v>
       </c>
       <c r="J142" t="n">
-        <v>0.0353390029801295</v>
+        <v>0.03465535829724428</v>
       </c>
       <c r="K142" t="n">
         <v>0.06149236463458837</v>
       </c>
       <c r="L142" t="n">
-        <v>0.06980502637048203</v>
+        <v>0.06991797256581586</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06127634766465669</v>
+        <v>0.06133255544242652</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1091140705420559</v>
+        <v>0.1063379768683058</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06120028130649249</v>
+        <v>0.06125172049184697</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.0352100415962925</v>
+        <v>0.07493711392563655</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06229096677269991</v>
+        <v>0.0355026495903651</v>
       </c>
       <c r="J143" t="n">
-        <v>0.0352100415962925</v>
+        <v>0.03493632924887161</v>
       </c>
       <c r="K143" t="n">
         <v>0.06229096677269991</v>
       </c>
       <c r="L143" t="n">
-        <v>0.07093983365509376</v>
+        <v>0.07160399772603401</v>
       </c>
       <c r="M143" t="n">
-        <v>0.0620721443875743</v>
+        <v>0.06212908213648402</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1050091862514784</v>
+        <v>0.1065581997812571</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06199509015462876</v>
+        <v>0.06204719738135147</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.03527139706196838</v>
+        <v>0.07503483321583179</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06308956891081144</v>
+        <v>0.03595781176460055</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03527139706196838</v>
+        <v>0.03418591842790018</v>
       </c>
       <c r="K144" t="n">
         <v>0.06308956891081144</v>
       </c>
       <c r="L144" t="n">
-        <v>0.07215760591123513</v>
+        <v>0.0724241093094021</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06286794111049193</v>
+        <v>0.0629256088305415</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1063943383933591</v>
+        <v>0.1092426328676463</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06278989900276502</v>
+        <v>0.06284267427085598</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.03481989015568153</v>
+        <v>0.07512687090975265</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06388817104892298</v>
+        <v>0.036412973938836</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03481989015568153</v>
+        <v>0.03387104599892599</v>
       </c>
       <c r="K145" t="n">
         <v>0.06388817104892298</v>
       </c>
       <c r="L145" t="n">
-        <v>0.07199619978501334</v>
+        <v>0.07135568248560983</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06366373783340955</v>
+        <v>0.06372213552459899</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1049126598719911</v>
+        <v>0.1046575085909685</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06358470785090128</v>
+        <v>0.06363815116036049</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.03447837818470113</v>
+        <v>0.0752133208527708</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06468677318703452</v>
+        <v>0.03686813611307145</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03447837818470113</v>
+        <v>0.03406983998537434</v>
       </c>
       <c r="K146" t="n">
         <v>0.06468677318703452</v>
       </c>
       <c r="L146" t="n">
-        <v>0.07310219288746314</v>
+        <v>0.07259670393466747</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06445953455632716</v>
+        <v>0.06451866221865647</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1105171399755847</v>
+        <v>0.1076298971411813</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06437951669903756</v>
+        <v>0.06443362804986499</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.07529427689025785</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06548537532514605</v>
+        <v>0.0373232982873069</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.03554594248489334</v>
       </c>
       <c r="K147" t="n">
         <v>0.06548537532514605</v>
       </c>
       <c r="L147" t="n">
-        <v>0.07056595480496783</v>
+        <v>0.06952799249992136</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06525533127924479</v>
+        <v>0.06531518891271397</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1110793562843798</v>
+        <v>0.1112000865955464</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06517432554717383</v>
+        <v>0.06522910493936949</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.03497064193167738</v>
+        <v>0.07536983286758542</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06628397746325759</v>
+        <v>0.03777846046154235</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03497064193167738</v>
+        <v>0.03479742131171984</v>
       </c>
       <c r="K148" t="n">
         <v>0.06628397746325759</v>
       </c>
       <c r="L148" t="n">
-        <v>0.07331208373623893</v>
+        <v>0.07247418182847873</v>
       </c>
       <c r="M148" t="n">
-        <v>0.0660511280021624</v>
+        <v>0.06611171560677145</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1056594784984962</v>
+        <v>0.1076908984659106</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06596913439531009</v>
+        <v>0.06602458182887401</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.034666060219809</v>
+        <v>0.07544008263012511</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06708257960136912</v>
+        <v>0.0382336226357778</v>
       </c>
       <c r="J149" t="n">
-        <v>0.034666060219809</v>
+        <v>0.03495455331765421</v>
       </c>
       <c r="K149" t="n">
         <v>0.06708257960136912</v>
       </c>
       <c r="L149" t="n">
-        <v>0.0718803054841704</v>
+        <v>0.0720745658162068</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06684692472508003</v>
+        <v>0.06690824230082894</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1070035190573297</v>
+        <v>0.1076498854069384</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06676394324344635</v>
+        <v>0.06682005871837851</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.03404534128889175</v>
+        <v>0.07550512002324859</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06788118173948067</v>
+        <v>0.03868878481001325</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03404534128889175</v>
+        <v>0.03569007117739068</v>
       </c>
       <c r="K150" t="n">
         <v>0.06788118173948067</v>
       </c>
       <c r="L150" t="n">
-        <v>0.07202519989546374</v>
+        <v>0.07042587124077096</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06764272144799764</v>
+        <v>0.06770476899488642</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1106107907403298</v>
+        <v>0.1077021908541925</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06755875209158262</v>
+        <v>0.06761553560788303</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.0343033848565492</v>
+        <v>0.07556503889232744</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0686797838775922</v>
+        <v>0.0391439469842487</v>
       </c>
       <c r="J151" t="n">
-        <v>0.0343033848565492</v>
+        <v>0.03425906202989849</v>
       </c>
       <c r="K151" t="n">
         <v>0.0686797838775922</v>
       </c>
       <c r="L151" t="n">
-        <v>0.07132318454248274</v>
+        <v>0.07202519989546374</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06843851817091526</v>
+        <v>0.06850129568894391</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1116478345895542</v>
+        <v>0.1055011847407226</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06835356093971889</v>
+        <v>0.06841101249738753</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.03482077751824363</v>
+        <v>0.07561993308273328</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06947838601570373</v>
+        <v>0.03959910915848415</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03482077751824363</v>
+        <v>0.03470568980453326</v>
       </c>
       <c r="K152" t="n">
         <v>0.06947838601570373</v>
       </c>
       <c r="L152" t="n">
-        <v>0.07200867169050701</v>
+        <v>0.07176195431510626</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06923431489383289</v>
+        <v>0.0692978223830014</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1052577710582335</v>
+        <v>0.1084883712985398</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06914836978785516</v>
+        <v>0.06920648938689203</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.03559744022401931</v>
+        <v>0.07566989643983775</v>
       </c>
       <c r="G153" t="n">
-        <v>0.07027698815381528</v>
+        <v>0.0400542713327196</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03559744022401931</v>
+        <v>0.0352898020186132</v>
       </c>
       <c r="K153" t="n">
         <v>0.07027698815381528</v>
       </c>
       <c r="L153" t="n">
-        <v>0.07100917047289304</v>
+        <v>0.07351622041500983</v>
       </c>
       <c r="M153" t="n">
-        <v>0.0700301116167505</v>
+        <v>0.07009434907705889</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1106751667313472</v>
+        <v>0.1051146335081323</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06994317863599142</v>
+        <v>0.07000196627639654</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.03434660448570089</v>
+        <v>0.07571502280901245</v>
       </c>
       <c r="G154" t="n">
-        <v>0.07107559029192681</v>
+        <v>0.04050943350695504</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03434660448570089</v>
+        <v>0.03401263142982104</v>
       </c>
       <c r="K154" t="n">
         <v>0.07107559029192681</v>
       </c>
       <c r="L154" t="n">
-        <v>0.07239841262249397</v>
+        <v>0.07217550093100641</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07082590833966812</v>
+        <v>0.07089087577111637</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1109929211273827</v>
+        <v>0.107062114735814</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07073798748412768</v>
+        <v>0.07079744316590104</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.03459177533299297</v>
+        <v>0.07575540603562901</v>
       </c>
       <c r="G155" t="n">
-        <v>0.07187419243003836</v>
+        <v>0.0409645956811905</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03459177533299297</v>
+        <v>0.03547318806770552</v>
       </c>
       <c r="K155" t="n">
         <v>0.07187419243003836</v>
       </c>
       <c r="L155" t="n">
-        <v>0.0735455532464698</v>
+        <v>0.07303496919409258</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07162170506258574</v>
+        <v>0.07168740246517387</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1063074928804622</v>
+        <v>0.1080392756727173</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07153279633226395</v>
+        <v>0.07159292005540555</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.03495577742722522</v>
+        <v>0.07579113996505907</v>
       </c>
       <c r="G156" t="n">
-        <v>0.07267279456814989</v>
+        <v>0.04141975785542595</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03495577742722522</v>
+        <v>0.03479632296462892</v>
       </c>
       <c r="K156" t="n">
         <v>0.07267279456814989</v>
       </c>
       <c r="L156" t="n">
-        <v>0.07263978373338448</v>
+        <v>0.07208638388169653</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07241750178550337</v>
+        <v>0.07248392915923135</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1117413512332815</v>
+        <v>0.1068747363793995</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07232760518040021</v>
+        <v>0.07238839694491006</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.03471831329218036</v>
+        <v>0.07582231844267422</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07347139670626142</v>
+        <v>0.0418749200296614</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03471831329218036</v>
+        <v>0.03481556381438186</v>
       </c>
       <c r="K157" t="n">
         <v>0.07347139670626142</v>
       </c>
       <c r="L157" t="n">
-        <v>0.0721684809329638</v>
+        <v>0.07082713403818139</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07321329850842098</v>
+        <v>0.07328045585328884</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1080564210692909</v>
+        <v>0.1091140705420559</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07312241402853648</v>
+        <v>0.07318387383441456</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.03545261114142337</v>
+        <v>0.07584903531384607</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07426999884437296</v>
+        <v>0.04233008220389685</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03545261114142337</v>
+        <v>0.03524411937841616</v>
       </c>
       <c r="K158" t="n">
         <v>0.07426999884437296</v>
       </c>
       <c r="L158" t="n">
-        <v>0.06980005539319412</v>
+        <v>0.07042434328808583</v>
       </c>
       <c r="M158" t="n">
-        <v>0.0740090952313386</v>
+        <v>0.07407698254734632</v>
       </c>
       <c r="N158" t="n">
-        <v>0.105429533380847</v>
+        <v>0.1109015425349809</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07391722287667274</v>
+        <v>0.07397935072391906</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.03550463556169031</v>
+        <v>0.07587138442394629</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0750686009824845</v>
+        <v>0.0427852443781323</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03550463556169031</v>
+        <v>0.03430751972272711</v>
       </c>
       <c r="K159" t="n">
         <v>0.0750686009824845</v>
       </c>
       <c r="L159" t="n">
-        <v>0.07001926904110531</v>
+        <v>0.07370787712820676</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07480489195425621</v>
+        <v>0.0748735092414038</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1056737982799662</v>
+        <v>0.1057382573208007</v>
       </c>
       <c r="O159" t="n">
-        <v>0.074712031724809</v>
+        <v>0.07477482761342358</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.03462206868033965</v>
+        <v>0.07588945961834649</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07586720312059604</v>
+        <v>0.04324040655236775</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03462206868033965</v>
+        <v>0.03442498348031846</v>
       </c>
       <c r="K160" t="n">
         <v>0.07586720312059604</v>
       </c>
       <c r="L160" t="n">
-        <v>0.06959777747754303</v>
+        <v>0.07157674780381421</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07560068867717383</v>
+        <v>0.07567003593546129</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1100572667149165</v>
+        <v>0.1072644417228864</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07550684057294528</v>
+        <v>0.07557030450292808</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.03452280453787571</v>
+        <v>0.07590335474241824</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07666580525870757</v>
+        <v>0.0436955687266032</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03452280453787571</v>
+        <v>0.03443794779063893</v>
       </c>
       <c r="K161" t="n">
         <v>0.07666580525870757</v>
       </c>
       <c r="L161" t="n">
-        <v>0.07056441297471044</v>
+        <v>0.07328798495319547</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07639648540009146</v>
+        <v>0.07646656262951879</v>
       </c>
       <c r="N161" t="n">
-        <v>0.10822286930151</v>
+        <v>0.1112524335700203</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07630164942108154</v>
+        <v>0.07636578139243258</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.03367949700781919</v>
+        <v>0.07591316364153319</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0774644073968191</v>
+        <v>0.04415073090083865</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03367949700781919</v>
+        <v>0.03429694643382696</v>
       </c>
       <c r="K162" t="n">
         <v>0.0774644073968191</v>
       </c>
       <c r="L162" t="n">
-        <v>0.06963758119103974</v>
+        <v>0.0696760144657072</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07719228212300908</v>
+        <v>0.07726308932357628</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1107811577642411</v>
+        <v>0.1098778897642881</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07709645826921781</v>
+        <v>0.0771612582819371</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.03457952065759533</v>
+        <v>0.07591898016106301</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07826300953493065</v>
+        <v>0.0446058930750741</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03457952065759533</v>
+        <v>0.0351119737598468</v>
       </c>
       <c r="K163" t="n">
         <v>0.07826300953493065</v>
       </c>
       <c r="L163" t="n">
-        <v>0.07298172020791346</v>
+        <v>0.07285425924763989</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07798807884592669</v>
+        <v>0.07805961601763377</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1114323740452802</v>
+        <v>0.1075896701271588</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07789126711735407</v>
+        <v>0.0779567351714416</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.03460861307620756</v>
+        <v>0.07592089814637926</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07906161167304218</v>
+        <v>0.04506105524930955</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03460861307620756</v>
+        <v>0.03505441057562894</v>
       </c>
       <c r="K164" t="n">
         <v>0.07906161167304218</v>
       </c>
       <c r="L164" t="n">
-        <v>0.0732571277854786</v>
+        <v>0.07071485854180845</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07878387556884432</v>
+        <v>0.07885614271169125</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1083709626396225</v>
+        <v>0.1096061259776527</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07868607596549033</v>
+        <v>0.07875221206094611</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.03434078455246739</v>
+        <v>0.07542089814637924</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07986021381115373</v>
+        <v>0.04506105524930955</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03434078455246739</v>
+        <v>0.03507450184070735</v>
       </c>
       <c r="K165" t="n">
         <v>0.07986021381115373</v>
       </c>
       <c r="L165" t="n">
-        <v>0.07017872790124194</v>
+        <v>0.07127121698584471</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07957967229176192</v>
+        <v>0.07965266940574874</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1069278635818899</v>
+        <v>0.1048456379961256</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07948088481362661</v>
+        <v>0.07954768895045061</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.03516540684752018</v>
+        <v>0.07479456727029606</v>
       </c>
       <c r="G166" t="n">
-        <v>0.08065881594926527</v>
+        <v>0.0450951788606109</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03516540684752018</v>
+        <v>0.03474525783281955</v>
       </c>
       <c r="K166" t="n">
         <v>0.08065881594926527</v>
       </c>
       <c r="L166" t="n">
-        <v>0.07231221918935055</v>
+        <v>0.07085726904633047</v>
       </c>
       <c r="M166" t="n">
-        <v>0.08037546901467955</v>
+        <v>0.08044919609980622</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1049343578038173</v>
+        <v>0.1090392934758782</v>
       </c>
       <c r="O166" t="n">
-        <v>0.08027569366176288</v>
+        <v>0.08034316583995511</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.03429643303907905</v>
+        <v>0.07416650187732679</v>
       </c>
       <c r="G167" t="n">
-        <v>0.08145741808737679</v>
+        <v>0.04512841631127915</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03429643303907905</v>
+        <v>0.0350172947662214</v>
       </c>
       <c r="K167" t="n">
         <v>0.08145741808737679</v>
       </c>
       <c r="L167" t="n">
-        <v>0.07120222350435643</v>
+        <v>0.06951845977124105</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08117126573759718</v>
+        <v>0.0812457227938637</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1037601538745788</v>
+        <v>0.1077537266605463</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08107050250989914</v>
+        <v>0.08113864272945963</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.03447236599582355</v>
+        <v>0.07353670196747153</v>
       </c>
       <c r="G168" t="n">
-        <v>0.08225602022548834</v>
+        <v>0.04516076760131432</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03447236599582355</v>
+        <v>0.03408630351565653</v>
       </c>
       <c r="K168" t="n">
         <v>0.08225602022548834</v>
       </c>
       <c r="L168" t="n">
-        <v>0.06962323389458824</v>
+        <v>0.06880450200155</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08196706246051479</v>
+        <v>0.0820422494879212</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1065122824014957</v>
+        <v>0.1098101939319789</v>
       </c>
       <c r="O168" t="n">
-        <v>0.0818653113580354</v>
+        <v>0.08193411961896413</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.03431681132912338</v>
+        <v>0.0729051675407302</v>
       </c>
       <c r="G169" t="n">
-        <v>0.08305462236359987</v>
+        <v>0.04519223273071639</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03431681132912338</v>
+        <v>0.03496200791421884</v>
       </c>
       <c r="K169" t="n">
         <v>0.08305462236359987</v>
       </c>
       <c r="L169" t="n">
-        <v>0.06935652765846598</v>
+        <v>0.07236251828621346</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08276285918343242</v>
+        <v>0.08283877618197868</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1098804898377298</v>
+        <v>0.1103102163193638</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08266012020617168</v>
+        <v>0.08272959650846863</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.0340739621916349</v>
+        <v>0.07227189859710287</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08385322450171141</v>
+        <v>0.04522281169948537</v>
       </c>
       <c r="J170" t="n">
-        <v>0.0340739621916349</v>
+        <v>0.03487197455700689</v>
       </c>
       <c r="K170" t="n">
         <v>0.08385322450171141</v>
       </c>
       <c r="L170" t="n">
-        <v>0.07108492283096987</v>
+        <v>0.07160054725371537</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08355865590635003</v>
+        <v>0.08363530287603617</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1046414454117586</v>
+        <v>0.1088607505332388</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08345492905430794</v>
+        <v>0.08352507339797315</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.03472323520181929</v>
+        <v>0.07163689513658951</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08465182663982296</v>
+        <v>0.04525250450762128</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03472323520181929</v>
+        <v>0.03362141139785706</v>
       </c>
       <c r="K171" t="n">
         <v>0.08465182663982296</v>
       </c>
       <c r="L171" t="n">
-        <v>0.06909149477301324</v>
+        <v>0.06889425123027706</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08435445262926765</v>
+        <v>0.08443182957009367</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1059751939335074</v>
+        <v>0.106275895400165</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08424973790244421</v>
+        <v>0.08432055028747765</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03404709042306869</v>
+        <v>0.0710001571591901</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08545042877793448</v>
+        <v>0.04528131115512408</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03404709042306869</v>
+        <v>0.03467843156799345</v>
       </c>
       <c r="K172" t="n">
         <v>0.08545042877793448</v>
       </c>
       <c r="L172" t="n">
-        <v>0.06855551466803109</v>
+        <v>0.0717663738503832</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08515024935218528</v>
+        <v>0.08522835626415115</v>
       </c>
       <c r="N172" t="n">
-        <v>0.106684618805179</v>
+        <v>0.1061430822532726</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08504454675058047</v>
+        <v>0.08511602717698215</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.03411460110626366</v>
+        <v>0.07036168466490468</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08624903091604602</v>
+        <v>0.04530923164199381</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03411460110626366</v>
+        <v>0.03380617363395565</v>
       </c>
       <c r="K173" t="n">
         <v>0.08624903091604602</v>
       </c>
       <c r="L173" t="n">
-        <v>0.06912448112492325</v>
+        <v>0.07103619154320984</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08594604607510288</v>
+        <v>0.08602488295820863</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1057866190708586</v>
+        <v>0.1089510182339621</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08583935559871674</v>
+        <v>0.08591150406648666</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.033525161112771</v>
+        <v>0.06972147765373318</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08704763305415755</v>
+        <v>0.04533626596823043</v>
       </c>
       <c r="J174" t="n">
-        <v>0.033525161112771</v>
+        <v>0.03370409369166752</v>
       </c>
       <c r="K174" t="n">
         <v>0.08704763305415755</v>
       </c>
       <c r="L174" t="n">
-        <v>0.06979920877838353</v>
+        <v>0.07129290126216092</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08674184279802051</v>
+        <v>0.08682140965226612</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1068366096898458</v>
+        <v>0.1051978210878458</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08663416444685301</v>
+        <v>0.08670698095599116</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.0335654364640063</v>
+        <v>0.0690795361256757</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0878462351922691</v>
+        <v>0.04536241413383398</v>
       </c>
       <c r="J175" t="n">
-        <v>0.0335654364640063</v>
+        <v>0.03455081114220372</v>
       </c>
       <c r="K175" t="n">
         <v>0.0878462351922691</v>
       </c>
       <c r="L175" t="n">
-        <v>0.06845816494521101</v>
+        <v>0.06977174752857224</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08753763952093813</v>
+        <v>0.0876179363463236</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1025236831850811</v>
+        <v>0.109764878647671</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08742897329498928</v>
+        <v>0.08750245784549567</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03428620671779556</v>
+        <v>0.06843586008073217</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08864483733038064</v>
+        <v>0.04538767613880443</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03428620671779556</v>
+        <v>0.03327653713702453</v>
       </c>
       <c r="K176" t="n">
         <v>0.08864483733038064</v>
       </c>
       <c r="L176" t="n">
-        <v>0.07168142986623732</v>
+        <v>0.07014679914666005</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08833343624385574</v>
+        <v>0.0884144630403811</v>
       </c>
       <c r="N176" t="n">
-        <v>0.103100286569115</v>
+        <v>0.1046779048241727</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08822378214312554</v>
+        <v>0.08829793473500018</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03445585282084701</v>
+        <v>0.0677904495189026</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08944343946849216</v>
+        <v>0.04541205198314179</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03445585282084701</v>
+        <v>0.03447265128355578</v>
       </c>
       <c r="K177" t="n">
         <v>0.08944343946849216</v>
       </c>
       <c r="L177" t="n">
-        <v>0.06857381026094009</v>
+        <v>0.06968016054757492</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08912923296677336</v>
+        <v>0.08921098973443858</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1027918220993623</v>
+        <v>0.1026170595775302</v>
       </c>
       <c r="O177" t="n">
-        <v>0.0890185909912618</v>
+        <v>0.08909341162450468</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03296178490271069</v>
+        <v>0.06714330444018703</v>
       </c>
       <c r="G178" t="n">
-        <v>0.09024204160660371</v>
+        <v>0.04543554166684607</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03296178490271069</v>
+        <v>0.03395130550812819</v>
       </c>
       <c r="K178" t="n">
         <v>0.09024204160660371</v>
       </c>
       <c r="L178" t="n">
-        <v>0.06988411386995183</v>
+        <v>0.06760968364762882</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08992502968969099</v>
+        <v>0.09000751642849607</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1088779639250946</v>
+        <v>0.1023170611813544</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08981339983939807</v>
+        <v>0.08988888851400918</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03276887917221732</v>
+        <v>0.06649442484458537</v>
       </c>
       <c r="G179" t="n">
-        <v>0.09104064374471524</v>
+        <v>0.04545814518991725</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03276887917221732</v>
+        <v>0.03398395395319277</v>
       </c>
       <c r="K179" t="n">
         <v>0.09104064374471524</v>
       </c>
       <c r="L179" t="n">
-        <v>0.06894629020977053</v>
+        <v>0.06951030537686376</v>
       </c>
       <c r="M179" t="n">
-        <v>0.0907208264126086</v>
+        <v>0.09080404312255355</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1055614435810258</v>
+        <v>0.1058298787408532</v>
       </c>
       <c r="O179" t="n">
-        <v>0.09060820868753434</v>
+        <v>0.0906843654035137</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03285889746328921</v>
+        <v>0.06584381073209773</v>
       </c>
       <c r="G180" t="n">
-        <v>0.09183924588282678</v>
+        <v>0.04547986255235534</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03285889746328921</v>
+        <v>0.03316727366166383</v>
       </c>
       <c r="K180" t="n">
         <v>0.09183924588282678</v>
       </c>
       <c r="L180" t="n">
-        <v>0.06718743670174757</v>
+        <v>0.06788770308858444</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09151662313552622</v>
+        <v>0.09160056981661105</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1019181630465149</v>
+        <v>0.1055890912859008</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09140301753567061</v>
+        <v>0.0914798422930182</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03294695172647086</v>
+        <v>0.06519146210272403</v>
       </c>
       <c r="G181" t="n">
-        <v>0.09263784802093833</v>
+        <v>0.04550069375416035</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03294695172647086</v>
+        <v>0.0343105577762592</v>
       </c>
       <c r="K181" t="n">
         <v>0.09263784802093833</v>
       </c>
       <c r="L181" t="n">
-        <v>0.06712474926721862</v>
+        <v>0.07086709308137648</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09231241985844385</v>
+        <v>0.09239709651066853</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1052768896815026</v>
+        <v>0.1013693072590626</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09219782638380686</v>
+        <v>0.0922753191825227</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03309264776545442</v>
+        <v>0.06453737895646432</v>
       </c>
       <c r="G182" t="n">
-        <v>0.09343645015904985</v>
+        <v>0.04552063879533226</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03309264776545442</v>
+        <v>0.03341033527073267</v>
       </c>
       <c r="K182" t="n">
         <v>0.09343645015904985</v>
       </c>
       <c r="L182" t="n">
-        <v>0.06715304278555606</v>
+        <v>0.0681028419245174</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09310821658136145</v>
+        <v>0.09319362320472602</v>
       </c>
       <c r="N182" t="n">
-        <v>0.101576766278204</v>
+        <v>0.1067008711788419</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09299263523194312</v>
+        <v>0.09307079607202721</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03355436448062053</v>
+        <v>0.06388156129331854</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09423505229716139</v>
+        <v>0.04553969767587109</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03355436448062053</v>
+        <v>0.03257739915648161</v>
       </c>
       <c r="K183" t="n">
         <v>0.09423505229716139</v>
       </c>
       <c r="L183" t="n">
-        <v>0.06692766848076559</v>
+        <v>0.06981559492375308</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09390401330427908</v>
+        <v>0.09399014989878351</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1053218994916655</v>
+        <v>0.103979043473605</v>
       </c>
       <c r="O183" t="n">
-        <v>0.0937874440800794</v>
+        <v>0.09386627296153172</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03377215249397413</v>
+        <v>0.06322400911328677</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09503365443527294</v>
+        <v>0.04555787039577683</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03377215249397413</v>
+        <v>0.03303814754375384</v>
       </c>
       <c r="K184" t="n">
         <v>0.09503365443527294</v>
       </c>
       <c r="L184" t="n">
-        <v>0.06747557064669349</v>
+        <v>0.06984612174945981</v>
       </c>
       <c r="M184" t="n">
-        <v>0.0946998100271967</v>
+        <v>0.094786676592841</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1066781819452972</v>
+        <v>0.1059577861401638</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09458225292821566</v>
+        <v>0.09466174985103622</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03335543196194753</v>
+        <v>0.06256472241636896</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09583225657338447</v>
+        <v>0.04557515695504948</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03335543196194753</v>
+        <v>0.03390557781289638</v>
       </c>
       <c r="K185" t="n">
         <v>0.09583225657338447</v>
       </c>
       <c r="L185" t="n">
-        <v>0.06958078692396316</v>
+        <v>0.06834646139765521</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09549560675011431</v>
+        <v>0.09558320328689848</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1053389756527828</v>
+        <v>0.1066874048839852</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09537706177635193</v>
+        <v>0.09545722674054073</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03285555919018353</v>
+        <v>0.0619037012025651</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09663085871149601</v>
+        <v>0.04559155735368903</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03285555919018353</v>
+        <v>0.03323861103504118</v>
       </c>
       <c r="K186" t="n">
         <v>0.09663085871149601</v>
       </c>
       <c r="L186" t="n">
-        <v>0.06793518351126265</v>
+        <v>0.06721360460372366</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09629140347303194</v>
+        <v>0.09637972998095597</v>
       </c>
       <c r="N186" t="n">
-        <v>0.09994770684564125</v>
+        <v>0.1051998532053237</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09617187062448819</v>
+        <v>0.09625270363004523</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03293032381186278</v>
+        <v>0.06124094547187522</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09742946084960753</v>
+        <v>0.04560707159169551</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03293032381186278</v>
+        <v>0.03253968506567623</v>
       </c>
       <c r="K187" t="n">
         <v>0.09742946084960753</v>
       </c>
       <c r="L187" t="n">
-        <v>0.06837409537745381</v>
+        <v>0.0678069878946507</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09708720019594956</v>
+        <v>0.09717625667501345</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1062821787220307</v>
+        <v>0.1006479965960401</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09696667947262445</v>
+        <v>0.09704818051954973</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03351205015955483</v>
+        <v>0.0605764552242993</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09822806298771908</v>
+        <v>0.04562169966906889</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03351205015955483</v>
+        <v>0.03339488079976882</v>
       </c>
       <c r="K188" t="n">
         <v>0.09822806298771908</v>
       </c>
       <c r="L188" t="n">
-        <v>0.06863794154314976</v>
+        <v>0.06866081349376035</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09788299691886718</v>
+        <v>0.09797278336907093</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1013976773110219</v>
+        <v>0.1021741639384807</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09776148832076073</v>
+        <v>0.09784365740905425</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03205734533551452</v>
+        <v>0.05991023045983734</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09902666512583062</v>
+        <v>0.04563544158580918</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03205734533551452</v>
+        <v>0.03286302502400046</v>
       </c>
       <c r="K189" t="n">
         <v>0.09902666512583062</v>
       </c>
       <c r="L189" t="n">
-        <v>0.06838927308685486</v>
+        <v>0.06646578737650605</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09867879364178481</v>
+        <v>0.09876931006312843</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1016156728477159</v>
+        <v>0.1010258880686906</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09855629716889699</v>
+        <v>0.09863913429855875</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03346699977476744</v>
+        <v>0.05924227117848935</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09982526726394216</v>
+        <v>0.04564829734191638</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03346699977476744</v>
+        <v>0.03212341027342959</v>
       </c>
       <c r="K190" t="n">
         <v>0.09982526726394216</v>
       </c>
       <c r="L190" t="n">
-        <v>0.0680967819818695</v>
+        <v>0.06711798435246874</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09947459036470241</v>
+        <v>0.09956583675718593</v>
       </c>
       <c r="N190" t="n">
-        <v>0.09978156992816517</v>
+        <v>0.1051128295563391</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09935110601703326</v>
+        <v>0.09943461118806325</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03180875526148232</v>
+        <v>0.05857257738025537</v>
       </c>
       <c r="G191" t="n">
-        <v>0.1006238694020537</v>
+        <v>0.0456602669373905</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03180875526148232</v>
+        <v>0.0323738894863428</v>
       </c>
       <c r="K191" t="n">
         <v>0.1006238694020537</v>
       </c>
       <c r="L191" t="n">
-        <v>0.06810363204572142</v>
+        <v>0.06771843367943634</v>
       </c>
       <c r="M191" t="n">
-        <v>0.10027038708762</v>
+        <v>0.1003623634512434</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1050653366632407</v>
+        <v>0.1002342184663815</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1001459148651695</v>
+        <v>0.1002300880775678</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03195030056117859</v>
+        <v>0.05790114906513533</v>
       </c>
       <c r="G192" t="n">
-        <v>0.1014224715401652</v>
+        <v>0.04567135037223152</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03195030056117859</v>
+        <v>0.03224895279157691</v>
       </c>
       <c r="K192" t="n">
         <v>0.1014224715401652</v>
       </c>
       <c r="L192" t="n">
-        <v>0.06652795595793481</v>
+        <v>0.06643938895519907</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1010661838105377</v>
+        <v>0.1011588901453009</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1009328367788312</v>
+        <v>0.1038187707311597</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1009407237133058</v>
+        <v>0.1010255649670723</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03286338182621208</v>
+        <v>0.05722798623312925</v>
       </c>
       <c r="G193" t="n">
-        <v>0.1022210736782768</v>
+        <v>0.04568154764643945</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03286338182621208</v>
+        <v>0.0323235815993924</v>
       </c>
       <c r="K193" t="n">
         <v>0.1022210736782768</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06762115423959897</v>
+        <v>0.06692783166084559</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1018619805334553</v>
+        <v>0.1019554168393584</v>
       </c>
       <c r="N193" t="n">
-        <v>0.09782667409520041</v>
+        <v>0.1041485084401962</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1017355325614421</v>
+        <v>0.1018210418565768</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03287025298737245</v>
+        <v>0.05655308888423713</v>
       </c>
       <c r="G194" t="n">
-        <v>0.1030196758163883</v>
+        <v>0.04569085876001429</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03287025298737245</v>
+        <v>0.03301981809642333</v>
       </c>
       <c r="K194" t="n">
         <v>0.1030196758163883</v>
       </c>
       <c r="L194" t="n">
-        <v>0.06863993385661368</v>
+        <v>0.0669741722109638</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1026577772563729</v>
+        <v>0.1027519435334159</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1046555727735335</v>
+        <v>0.1010044437461968</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1025303414095783</v>
+        <v>0.1026165187460813</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03160201668189554</v>
+        <v>0.05587645701845902</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1038182779544998</v>
+        <v>0.04569928371295606</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03160201668189554</v>
+        <v>0.03227049563177785</v>
       </c>
       <c r="K195" t="n">
         <v>0.1038182779544998</v>
       </c>
       <c r="L195" t="n">
-        <v>0.06735412883762218</v>
+        <v>0.06588485026833843</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1034535739792905</v>
+        <v>0.1035484702274733</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1000899239166821</v>
+        <v>0.1038031016997331</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1033251502577146</v>
+        <v>0.1034119956355858</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03231510135356842</v>
+        <v>0.05519809063579482</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1046168800926114</v>
+        <v>0.04570682250526472</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03231510135356842</v>
+        <v>0.03176269210190086</v>
       </c>
       <c r="K196" t="n">
         <v>0.1046168800926114</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06467592439797099</v>
+        <v>0.06494611953585408</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1042493707022081</v>
+        <v>0.1043449969215308</v>
       </c>
       <c r="N196" t="n">
-        <v>0.103601538911037</v>
+        <v>0.09905425450757172</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1041199591058509</v>
+        <v>0.1042074725250903</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.0318853119220233</v>
+        <v>0.05451798973624461</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1054154822307229</v>
+        <v>0.0457134751369403</v>
       </c>
       <c r="J197" t="n">
-        <v>0.0318853119220233</v>
+        <v>0.03223835408636404</v>
       </c>
       <c r="K197" t="n">
         <v>0.1054154822307229</v>
       </c>
       <c r="L197" t="n">
-        <v>0.06430949874983394</v>
+        <v>0.06711467753346334</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1050451674251257</v>
+        <v>0.1051415236155883</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1001191029909392</v>
+        <v>0.1004047893426597</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1049147679539871</v>
+        <v>0.1050029494145948</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03265575624223677</v>
+        <v>0.0538361543198084</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1062140843688344</v>
+        <v>0.04571924160798278</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03265575624223677</v>
+        <v>0.03123779165155946</v>
       </c>
       <c r="K198" t="n">
         <v>0.1062140843688344</v>
       </c>
       <c r="L198" t="n">
-        <v>0.06474623435622254</v>
+        <v>0.06533318393044668</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1058409641480434</v>
+        <v>0.1059380503096458</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1022952496058294</v>
+        <v>0.1016119216747031</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1057095768021234</v>
+        <v>0.1057984263040993</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03236409477318812</v>
+        <v>0.05315258438648612</v>
       </c>
       <c r="G199" t="n">
-        <v>0.107012686506946</v>
+        <v>0.04572412191839219</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03236409477318812</v>
+        <v>0.03203655022094962</v>
       </c>
       <c r="K199" t="n">
         <v>0.107012686506946</v>
       </c>
       <c r="L199" t="n">
-        <v>0.06573626303687755</v>
+        <v>0.0660347780258089</v>
       </c>
       <c r="M199" t="n">
-        <v>0.106636760870961</v>
+        <v>0.1067345770037033</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1008567203803177</v>
+        <v>0.1003175226950065</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1065043856502596</v>
+        <v>0.1065939031936038</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03139131154183906</v>
+        <v>0.05246727993627781</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1078112886450575</v>
+        <v>0.04572811606816849</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03139131154183906</v>
+        <v>0.03281245575830437</v>
       </c>
       <c r="K200" t="n">
         <v>0.1078112886450575</v>
       </c>
       <c r="L200" t="n">
-        <v>0.06602798811903052</v>
+        <v>0.06643401822959397</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1074325575938786</v>
+        <v>0.1075311036977608</v>
       </c>
       <c r="N200" t="n">
-        <v>0.09992927828515452</v>
+        <v>0.1007017965434183</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1072991944983959</v>
+        <v>0.1073893800831083</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03212518300103917</v>
+        <v>0.05178024096918349</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1086098907831691</v>
+        <v>0.04573122405731171</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03212518300103917</v>
+        <v>0.03195282353241817</v>
       </c>
       <c r="K201" t="n">
         <v>0.1086098907831691</v>
       </c>
       <c r="L201" t="n">
-        <v>0.0647615641571111</v>
+        <v>0.06413251068128448</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1082283543167962</v>
+        <v>0.1083276303918183</v>
       </c>
       <c r="N201" t="n">
-        <v>0.10294630749545</v>
+        <v>0.09944652435408152</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1080940033465322</v>
+        <v>0.1081848569726128</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03149366466958414</v>
+        <v>0.05109146748520314</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1094084929212806</v>
+        <v>0.04573344588582185</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03149366466958414</v>
+        <v>0.03234971973009815</v>
       </c>
       <c r="K202" t="n">
         <v>0.1094084929212806</v>
       </c>
       <c r="L202" t="n">
-        <v>0.0650427523243681</v>
+        <v>0.06475859909105144</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1090241510397139</v>
+        <v>0.1091241570858758</v>
       </c>
       <c r="N202" t="n">
-        <v>0.09773791563372936</v>
+        <v>0.1019878843342759</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1088888121946684</v>
+        <v>0.1089803338621173</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03174825157386078</v>
+        <v>0.05040095948433673</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1102070950593921</v>
+        <v>0.04573478155369888</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03174825157386078</v>
+        <v>0.03117801503272061</v>
       </c>
       <c r="K203" t="n">
         <v>0.1102070950593921</v>
       </c>
       <c r="L203" t="n">
-        <v>0.0642889847952216</v>
+        <v>0.06443384729381094</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1098199477626315</v>
+        <v>0.1099206837799333</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1009153584035145</v>
+        <v>0.1006913893727341</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1096836210428047</v>
+        <v>0.1097758107516218</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03108786489675919</v>
+        <v>0.04970871696658428</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1110056971975037</v>
+        <v>0.04573523106094284</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03108786489675919</v>
+        <v>0.03112880270681201</v>
       </c>
       <c r="K204" t="n">
         <v>0.1110056971975037</v>
       </c>
       <c r="L204" t="n">
-        <v>0.0661270792431293</v>
+        <v>0.0643106020243826</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1106157444855491</v>
+        <v>0.1107172104739907</v>
       </c>
       <c r="N204" t="n">
-        <v>0.09805036404052875</v>
+        <v>0.1026241414491714</v>
       </c>
       <c r="O204" t="n">
-        <v>0.110478429890941</v>
+        <v>0.1105712876411263</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03224369353670078</v>
+        <v>0.04901473993194584</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1118042993356152</v>
+        <v>0.0457347944075537</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03224369353670078</v>
+        <v>0.03172008567857348</v>
       </c>
       <c r="K205" t="n">
         <v>0.1118042993356152</v>
       </c>
       <c r="L205" t="n">
-        <v>0.06465048955260072</v>
+        <v>0.06475295461943609</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1114115412084667</v>
+        <v>0.1115137371680482</v>
       </c>
       <c r="N205" t="n">
-        <v>0.100220412884213</v>
+        <v>0.101142709212415</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1112732387390772</v>
+        <v>0.1113667645306308</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03189774614235701</v>
+        <v>0.04831902838042135</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1126029014737267</v>
+        <v>0.04573347159353148</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03189774614235701</v>
+        <v>0.0308368339782249</v>
       </c>
       <c r="K206" t="n">
         <v>0.1126029014737267</v>
       </c>
       <c r="L206" t="n">
-        <v>0.06364183792970529</v>
+        <v>0.06326041664812806</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1122073379313843</v>
+        <v>0.1123102638621057</v>
       </c>
       <c r="N206" t="n">
-        <v>0.09637997382777713</v>
+        <v>0.1019116198123751</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1120680475872135</v>
+        <v>0.1121622414201354</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03222673335506743</v>
+        <v>0.04762158231201082</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1134015036118383</v>
+        <v>0.04573126261887615</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03222673335506743</v>
+        <v>0.03205124206843704</v>
       </c>
       <c r="K207" t="n">
         <v>0.1134015036118383</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06545985685795436</v>
+        <v>0.06444502060899604</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1130031346543019</v>
+        <v>0.1131067905561632</v>
       </c>
       <c r="N207" t="n">
-        <v>0.09504242541012509</v>
+        <v>0.09960828968816682</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1128628564353498</v>
+        <v>0.1129577183096399</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03186574069684535</v>
+        <v>0.04692240172671427</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1142001057499498</v>
+        <v>0.04572816748358775</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03186574069684535</v>
+        <v>0.03061058596394439</v>
       </c>
       <c r="K208" t="n">
         <v>0.1142001057499498</v>
       </c>
       <c r="L208" t="n">
-        <v>0.06605434077164038</v>
+        <v>0.06492626482343739</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1137989313772196</v>
+        <v>0.1139033172502207</v>
       </c>
       <c r="N208" t="n">
-        <v>0.09523645385961849</v>
+        <v>0.09555883224457967</v>
       </c>
       <c r="O208" t="n">
-        <v>0.113657665283486</v>
+        <v>0.1137531951991444</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03100345271345295</v>
+        <v>0.04622148662453168</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1149987078880614</v>
+        <v>0.04572418618766627</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03100345271345295</v>
+        <v>0.03227213387735314</v>
       </c>
       <c r="K209" t="n">
         <v>0.1149987078880614</v>
       </c>
       <c r="L209" t="n">
-        <v>0.06614350025780574</v>
+        <v>0.06610546174566695</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1145947281001372</v>
+        <v>0.1146998439442782</v>
       </c>
       <c r="N209" t="n">
-        <v>0.0973964161245453</v>
+        <v>0.1005192044270863</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1144524741316223</v>
+        <v>0.1145486720886489</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03200298213912157</v>
+        <v>0.04551883700546307</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1157973100261729</v>
+        <v>0.04571931873111167</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03200298213912157</v>
+        <v>0.03095789576303648</v>
       </c>
       <c r="K210" t="n">
         <v>0.1157973100261729</v>
       </c>
       <c r="L210" t="n">
-        <v>0.06433014209784824</v>
+        <v>0.06631374511309954</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1153905248230548</v>
+        <v>0.1154963706383357</v>
       </c>
       <c r="N210" t="n">
-        <v>0.09448885119057931</v>
+        <v>0.09852175743236263</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1152472829797586</v>
+        <v>0.1153441489781534</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.0308815454924838</v>
+        <v>0.04481445286950839</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1165959121642844</v>
+        <v>0.045713565113924</v>
       </c>
       <c r="J211" t="n">
-        <v>0.0308815454924838</v>
+        <v>0.03127256391956752</v>
       </c>
       <c r="K211" t="n">
         <v>0.1165959121642844</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06615846049573681</v>
+        <v>0.06425959629656772</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1161863215459724</v>
+        <v>0.1162928973323932</v>
       </c>
       <c r="N211" t="n">
-        <v>0.09985440015559233</v>
+        <v>0.0986883743145498</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1160420918278948</v>
+        <v>0.1161396258676579</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03124477524459592</v>
+        <v>0.04410833421666772</v>
       </c>
       <c r="G212" t="n">
-        <v>0.117394514302396</v>
+        <v>0.04570692533610324</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03124477524459592</v>
+        <v>0.03207972701561826</v>
       </c>
       <c r="K212" t="n">
         <v>0.117394514302396</v>
       </c>
       <c r="L212" t="n">
-        <v>0.06451383915071798</v>
+        <v>0.06497168376573562</v>
       </c>
       <c r="M212" t="n">
-        <v>0.11698211826889</v>
+        <v>0.1170894240264507</v>
       </c>
       <c r="N212" t="n">
-        <v>0.09483140302717274</v>
+        <v>0.09389950609937342</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1168369006760311</v>
+        <v>0.1169351027571624</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03098816709784895</v>
+        <v>0.04340048104694101</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1181931164405075</v>
+        <v>0.04569939939764939</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03098816709784895</v>
+        <v>0.0317284165158787</v>
       </c>
       <c r="K213" t="n">
         <v>0.1181931164405075</v>
       </c>
       <c r="L213" t="n">
-        <v>0.06478154944576545</v>
+        <v>0.06623230506849639</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1177779149918077</v>
+        <v>0.1178859507205081</v>
       </c>
       <c r="N213" t="n">
-        <v>0.09426991080622354</v>
+        <v>0.09497756150167375</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1176317095241674</v>
+        <v>0.1177305796466669</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.03135325371110458</v>
+        <v>0.04269089336032825</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1189917185786191</v>
+        <v>0.04569098729856245</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03135325371110458</v>
+        <v>0.03149144369043</v>
       </c>
       <c r="K214" t="n">
         <v>0.1189917185786191</v>
       </c>
       <c r="L214" t="n">
-        <v>0.06429025160008445</v>
+        <v>0.06458233998353913</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1185737117147253</v>
+        <v>0.1186824774145656</v>
       </c>
       <c r="N214" t="n">
-        <v>0.09824222980174235</v>
+        <v>0.1000143766305007</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1184265183723036</v>
+        <v>0.1185260565361714</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.03097108892982177</v>
+        <v>0.04197957115682949</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1197903207167306</v>
+        <v>0.04568168903884242</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03097108892982177</v>
+        <v>0.03025626076132359</v>
       </c>
       <c r="K215" t="n">
         <v>0.1197903207167306</v>
       </c>
       <c r="L215" t="n">
-        <v>0.0635715405021787</v>
+        <v>0.06489180629003921</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1193695084376429</v>
+        <v>0.1194790041086231</v>
       </c>
       <c r="N215" t="n">
-        <v>0.09605117474841995</v>
+        <v>0.09988109092687047</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1192213272204399</v>
+        <v>0.1193215334256759</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.03072673122562213</v>
+        <v>0.04126651443644466</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1205889228548421</v>
+        <v>0.0456715046184893</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03072673122562213</v>
+        <v>0.03024228676076088</v>
       </c>
       <c r="K216" t="n">
         <v>0.1205889228548421</v>
       </c>
       <c r="L216" t="n">
-        <v>0.06229658325547335</v>
+        <v>0.06374446323404495</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1201653051605605</v>
+        <v>0.1202755308026806</v>
       </c>
       <c r="N216" t="n">
-        <v>0.09693984026750224</v>
+        <v>0.0933001440336253</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1200161360685762</v>
+        <v>0.1201170103151804</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.03151279496276012</v>
+        <v>0.04055172319917383</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1213875249929536</v>
+        <v>0.0456604340375031</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03151279496276012</v>
+        <v>0.0316183716119927</v>
       </c>
       <c r="K217" t="n">
         <v>0.1213875249929536</v>
       </c>
       <c r="L217" t="n">
-        <v>0.06594102936662824</v>
+        <v>0.06299840451039354</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1209611018834781</v>
+        <v>0.1210720574967381</v>
       </c>
       <c r="N217" t="n">
-        <v>0.09766344902309076</v>
+        <v>0.09446019860457644</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1208109449167124</v>
+        <v>0.1209124872046849</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.03146049618356782</v>
+        <v>0.03983519744501694</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1221861271310652</v>
+        <v>0.0456484772958838</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03146049618356782</v>
+        <v>0.03054454149575792</v>
       </c>
       <c r="K218" t="n">
         <v>0.1221861271310652</v>
       </c>
       <c r="L218" t="n">
-        <v>0.06592906064545548</v>
+        <v>0.06513445675958118</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1217568986063958</v>
+        <v>0.1218685841907956</v>
       </c>
       <c r="N218" t="n">
-        <v>0.09599036404134531</v>
+        <v>0.097397379008896</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1216057537648487</v>
+        <v>0.1217079640941894</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.03060376123659522</v>
+        <v>0.03911693717397403</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1229847292691767</v>
+        <v>0.04563563439363141</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03060376123659522</v>
+        <v>0.03085456575514497</v>
       </c>
       <c r="K219" t="n">
         <v>0.1229847292691767</v>
       </c>
       <c r="L219" t="n">
-        <v>0.0617885433103654</v>
+        <v>0.0621864082961886</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1225526953293134</v>
+        <v>0.122665110884853</v>
       </c>
       <c r="N219" t="n">
-        <v>0.09678794831061704</v>
+        <v>0.09415906501106169</v>
       </c>
       <c r="O219" t="n">
-        <v>0.122400562612985</v>
+        <v>0.1225034409836939</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.03042496568313012</v>
+        <v>0.0383969423860451</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1237833314072883</v>
+        <v>0.04562190533074593</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03042496568313012</v>
+        <v>0.03121011776086637</v>
       </c>
       <c r="K220" t="n">
         <v>0.1237833314072883</v>
       </c>
       <c r="L220" t="n">
-        <v>0.06514353023468464</v>
+        <v>0.06331525831023119</v>
       </c>
       <c r="M220" t="n">
-        <v>0.123348492052231</v>
+        <v>0.1234616375789105</v>
       </c>
       <c r="N220" t="n">
-        <v>0.09979512272421442</v>
+        <v>0.09619417873327968</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1231953714611213</v>
+        <v>0.1232989178731984</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.03095856159522543</v>
+        <v>0.03767521308123013</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1245819335453998</v>
+        <v>0.04560729010722737</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03095856159522543</v>
+        <v>0.03037102648318142</v>
       </c>
       <c r="K221" t="n">
         <v>0.1245819335453998</v>
       </c>
       <c r="L221" t="n">
-        <v>0.06492478107573282</v>
+        <v>0.0652012342330946</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1241442887751486</v>
+        <v>0.124258164272968</v>
       </c>
       <c r="N221" t="n">
-        <v>0.09749987069017396</v>
+        <v>0.09946133193876927</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1239901803092575</v>
+        <v>0.1240943947627029</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.03039216678252347</v>
+        <v>0.03695174925952911</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1253805356835113</v>
+        <v>0.04559178872307572</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03039216678252347</v>
+        <v>0.03150554100334138</v>
       </c>
       <c r="K222" t="n">
         <v>0.1253805356835113</v>
       </c>
       <c r="L222" t="n">
-        <v>0.0619814829050685</v>
+        <v>0.06155989822968813</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1249400854980662</v>
+        <v>0.1250546909670255</v>
       </c>
       <c r="N222" t="n">
-        <v>0.09797998431667454</v>
+        <v>0.09583170665851887</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1247849891573938</v>
+        <v>0.1248898716522074</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.03054662999426795</v>
+        <v>0.03622655092094208</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1261791378216229</v>
+        <v>0.04557540117829097</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03054662999426795</v>
+        <v>0.03080203028706256</v>
       </c>
       <c r="K223" t="n">
         <v>0.1261791378216229</v>
       </c>
       <c r="L223" t="n">
-        <v>0.06248448600013229</v>
+        <v>0.0647591167272881</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1257358822209839</v>
+        <v>0.125851217661083</v>
       </c>
       <c r="N223" t="n">
-        <v>0.09666404001487922</v>
+        <v>0.09246342457913831</v>
       </c>
       <c r="O223" t="n">
-        <v>0.12557979800553</v>
+        <v>0.125685348541712</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02971704506298802</v>
+        <v>0.03549961806546902</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1269777399597344</v>
+        <v>0.04555812747287315</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02971704506298802</v>
+        <v>0.03018519864481341</v>
       </c>
       <c r="K224" t="n">
         <v>0.1269777399597344</v>
       </c>
       <c r="L224" t="n">
-        <v>0.06159919440072323</v>
+        <v>0.06464851421318143</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1265316789439015</v>
+        <v>0.1266477443551405</v>
       </c>
       <c r="N224" t="n">
-        <v>0.09744067896043968</v>
+        <v>0.09816171314069333</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1263746068536663</v>
+        <v>0.1264808254312165</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.0308419093751453</v>
+        <v>0.03477095069310991</v>
       </c>
       <c r="G225" t="n">
-        <v>0.127776342097846</v>
+        <v>0.04553996760682222</v>
       </c>
       <c r="J225" t="n">
-        <v>0.0308419093751453</v>
+        <v>0.03011111548718916</v>
       </c>
       <c r="K225" t="n">
         <v>0.127776342097846</v>
       </c>
       <c r="L225" t="n">
-        <v>0.0645567226325782</v>
+        <v>0.06148274638341955</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1273274756668191</v>
+        <v>0.127444271049198</v>
       </c>
       <c r="N225" t="n">
-        <v>0.09333759889283355</v>
+        <v>0.09861068050199367</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1271694157018026</v>
+        <v>0.127276302320721</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02955358281882355</v>
+        <v>0.03404054880386478</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1285749442359575</v>
+        <v>0.04552092158013821</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02955358281882355</v>
+        <v>0.03036289091290413</v>
       </c>
       <c r="K226" t="n">
         <v>0.1285749442359575</v>
       </c>
       <c r="L226" t="n">
-        <v>0.06377959578988424</v>
+        <v>0.0636884957589679</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1281232723897367</v>
+        <v>0.1282407977432554</v>
       </c>
       <c r="N226" t="n">
-        <v>0.09177356017069005</v>
+        <v>0.09726975304267382</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1279642245499388</v>
+        <v>0.1280717792102255</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.03123155951654845</v>
+        <v>0.03330841239773362</v>
       </c>
       <c r="G227" t="n">
-        <v>0.129373546374069</v>
+        <v>0.04550098939282111</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03123155951654845</v>
+        <v>0.03054356706789124</v>
       </c>
       <c r="K227" t="n">
         <v>0.129373546374069</v>
       </c>
       <c r="L227" t="n">
-        <v>0.06273770343334667</v>
+        <v>0.06294347661698468</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1289190691126543</v>
+        <v>0.1290373244373129</v>
       </c>
       <c r="N227" t="n">
-        <v>0.09130024120306263</v>
+        <v>0.0969971594213408</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1287590333980751</v>
+        <v>0.12886725609973</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02980781179915366</v>
+        <v>0.03257454147471642</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1301721485121806</v>
+        <v>0.04548017104487092</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02980781179915366</v>
+        <v>0.03073222860618825</v>
       </c>
       <c r="K228" t="n">
         <v>0.1301721485121806</v>
       </c>
       <c r="L228" t="n">
-        <v>0.0616431356832341</v>
+        <v>0.06381799051441253</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1297148658355719</v>
+        <v>0.1298338511313704</v>
       </c>
       <c r="N228" t="n">
-        <v>0.09386755040527067</v>
+        <v>0.09392157616759639</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1295538422462114</v>
+        <v>0.1296627329892345</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02965451308248994</v>
+        <v>0.03183893603481319</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1309707506502921</v>
+        <v>0.04545846653628764</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02965451308248994</v>
+        <v>0.03074951223489637</v>
       </c>
       <c r="K229" t="n">
         <v>0.1309707506502921</v>
       </c>
       <c r="L229" t="n">
-        <v>0.06223263723585193</v>
+        <v>0.06144703361838655</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1305106625584896</v>
+        <v>0.1306303778254279</v>
       </c>
       <c r="N229" t="n">
-        <v>0.09735822154057749</v>
+        <v>0.09723881620267261</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1303486510943477</v>
+        <v>0.130458209878739</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.03054053716604611</v>
+        <v>0.03110159607802393</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1317693527884037</v>
+        <v>0.04543587586707126</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03054053716604611</v>
+        <v>0.03083793884600068</v>
       </c>
       <c r="K230" t="n">
         <v>0.1317693527884037</v>
       </c>
       <c r="L230" t="n">
-        <v>0.06238341221789437</v>
+        <v>0.0611837095440079</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1313064592814072</v>
+        <v>0.1314269045194854</v>
       </c>
       <c r="N230" t="n">
-        <v>0.09367248215285784</v>
+        <v>0.09548443330669831</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1311434599424839</v>
+        <v>0.1312536867682435</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02968851226621624</v>
+        <v>0.03036252160434863</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1325679549265152</v>
+        <v>0.04541239903722181</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02968851226621624</v>
+        <v>0.02990980452411854</v>
       </c>
       <c r="K231" t="n">
         <v>0.1325679549265152</v>
       </c>
       <c r="L231" t="n">
-        <v>0.06038611263663393</v>
+        <v>0.06169833201720915</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1321022560043248</v>
+        <v>0.1322234312135429</v>
       </c>
       <c r="N231" t="n">
-        <v>0.09418874555148193</v>
+        <v>0.09713739745555694</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1319382687906202</v>
+        <v>0.132049163657748</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.03043230940547231</v>
+        <v>0.02962171261378732</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1333665570646267</v>
+        <v>0.04538803604673926</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03043230940547231</v>
+        <v>0.03062495123002443</v>
       </c>
       <c r="K232" t="n">
         <v>0.1333665570646267</v>
       </c>
       <c r="L232" t="n">
-        <v>0.06239923845650289</v>
+        <v>0.06322206511918185</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1328980527272424</v>
+        <v>0.1330199579076004</v>
       </c>
       <c r="N232" t="n">
-        <v>0.09373004973785587</v>
+        <v>0.09188774729274457</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1327330776387564</v>
+        <v>0.1328446405472525</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.03013651382816494</v>
+        <v>0.02887916910633995</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1341651592027382</v>
+        <v>0.04536278689562363</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03013651382816494</v>
+        <v>0.03038089528497656</v>
       </c>
       <c r="K233" t="n">
         <v>0.1341651592027382</v>
       </c>
       <c r="L233" t="n">
-        <v>0.06370121520340583</v>
+        <v>0.06343184215111139</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1336938494501601</v>
+        <v>0.1338164846016579</v>
       </c>
       <c r="N233" t="n">
-        <v>0.09715671176343182</v>
+        <v>0.09468058536695634</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1335278864868927</v>
+        <v>0.133640117436757</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.03010845197792499</v>
+        <v>0.02813489108200656</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1349637613408498</v>
+        <v>0.04533665158387491</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03010845197792499</v>
+        <v>0.03091001743697969</v>
       </c>
       <c r="K234" t="n">
         <v>0.1349637613408498</v>
       </c>
       <c r="L234" t="n">
-        <v>0.06379584749507561</v>
+        <v>0.06122575927600007</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1344896461730777</v>
+        <v>0.1346130112957154</v>
       </c>
       <c r="N234" t="n">
-        <v>0.09581958353177678</v>
+        <v>0.09498952402843147</v>
       </c>
       <c r="O234" t="n">
-        <v>0.134322695335029</v>
+        <v>0.1344355943262615</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02994110141968263</v>
+        <v>0.02738887854078714</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1357623634789613</v>
+        <v>0.04530963011149308</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02994110141968263</v>
+        <v>0.02902432137866906</v>
       </c>
       <c r="K235" t="n">
         <v>0.1357623634789613</v>
       </c>
       <c r="L235" t="n">
-        <v>0.06297841255494077</v>
+        <v>0.06179421717024394</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1352854428959953</v>
+        <v>0.1354095379897728</v>
       </c>
       <c r="N235" t="n">
-        <v>0.09051836142073733</v>
+        <v>0.09335603979587559</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1351175041831652</v>
+        <v>0.1352310712157661</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02966603390049151</v>
+        <v>0.02664113148268168</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1365609656170729</v>
+        <v>0.04528172247847819</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02966603390049151</v>
+        <v>0.03032241270428881</v>
       </c>
       <c r="K236" t="n">
         <v>0.1365609656170729</v>
       </c>
       <c r="L236" t="n">
-        <v>0.06231395376506502</v>
+        <v>0.06096912109624814</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1360812396189129</v>
+        <v>0.1362060646838303</v>
       </c>
       <c r="N236" t="n">
-        <v>0.09272114300095163</v>
+        <v>0.09436314784563776</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1359123130313015</v>
+        <v>0.1360265481052705</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02937127840595814</v>
+        <v>0.0258916499076902</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1373595677551844</v>
+        <v>0.0452529286848302</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02937127840595814</v>
+        <v>0.02975922485616081</v>
       </c>
       <c r="K237" t="n">
         <v>0.1373595677551844</v>
       </c>
       <c r="L237" t="n">
-        <v>0.06191020214902754</v>
+        <v>0.06124698856561153</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1368770363418305</v>
+        <v>0.1370025913778878</v>
       </c>
       <c r="N237" t="n">
-        <v>0.09353158959257341</v>
+        <v>0.09082990940687546</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1367071218794378</v>
+        <v>0.1368220249947751</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02974045841555521</v>
+        <v>0.02514043381581268</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1381581698932959</v>
+        <v>0.04522324873054911</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02974045841555521</v>
+        <v>0.02944877014339239</v>
       </c>
       <c r="K238" t="n">
         <v>0.1381581698932959</v>
       </c>
       <c r="L238" t="n">
-        <v>0.06225014764833944</v>
+        <v>0.06340329015850346</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1376728330647481</v>
+        <v>0.1377991180719453</v>
       </c>
       <c r="N238" t="n">
-        <v>0.09323262944206756</v>
+        <v>0.09147547291688762</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1375019307275741</v>
+        <v>0.1376175018842795</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02976570220469446</v>
+        <v>0.02438748320704914</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1389567720314075</v>
+        <v>0.04519268261563494</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02976570220469446</v>
+        <v>0.02890268427280912</v>
       </c>
       <c r="K239" t="n">
         <v>0.1389567720314075</v>
       </c>
       <c r="L239" t="n">
-        <v>0.06329312780575885</v>
+        <v>0.06166642508327388</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1384686297876658</v>
+        <v>0.1385956447660028</v>
       </c>
       <c r="N239" t="n">
-        <v>0.09132777919314794</v>
+        <v>0.09110897197144457</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1382967395757103</v>
+        <v>0.1384129787737841</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.03042581484743465</v>
+        <v>0.02363279808139956</v>
       </c>
       <c r="G240" t="n">
-        <v>0.139755374169519</v>
+        <v>0.04516123034008768</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03042581484743465</v>
+        <v>0.0294237684873592</v>
       </c>
       <c r="K240" t="n">
         <v>0.139755374169519</v>
       </c>
       <c r="L240" t="n">
-        <v>0.06181694470465604</v>
+        <v>0.06359981115424435</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1392644265105834</v>
+        <v>0.1393921714600603</v>
       </c>
       <c r="N240" t="n">
-        <v>0.09068742432775295</v>
+        <v>0.09036140070013732</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1390915484238466</v>
+        <v>0.1392084556632885</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.0302667040847231</v>
+        <v>0.02287637843886395</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1405539763076306</v>
+        <v>0.04512889190390733</v>
       </c>
       <c r="J241" t="n">
-        <v>0.0302667040847231</v>
+        <v>0.03028693140296963</v>
       </c>
       <c r="K241" t="n">
         <v>0.1405539763076306</v>
       </c>
       <c r="L241" t="n">
-        <v>0.05976180763028172</v>
+        <v>0.06117874387120803</v>
       </c>
       <c r="M241" t="n">
-        <v>0.140060223233501</v>
+        <v>0.1401886981541178</v>
       </c>
       <c r="N241" t="n">
-        <v>0.091916644237512</v>
+        <v>0.09298600703453641</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1398863572719828</v>
+        <v>0.1400039325527931</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.03008075669703147</v>
+        <v>0.02211822427944229</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1413525784457421</v>
+        <v>0.04509566730709389</v>
       </c>
       <c r="J242" t="n">
-        <v>0.03008075669703147</v>
+        <v>0.02939084061077374</v>
       </c>
       <c r="K242" t="n">
         <v>0.1413525784457421</v>
       </c>
       <c r="L242" t="n">
-        <v>0.05848884874554208</v>
+        <v>0.06201350953866977</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1408560199564186</v>
+        <v>0.1409852248481752</v>
       </c>
       <c r="N242" t="n">
-        <v>0.09008273233705699</v>
+        <v>0.09525362978115992</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1406811661201191</v>
+        <v>0.1407994094422976</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02932168090288644</v>
+        <v>0.02135833560313462</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1421511805838536</v>
+        <v>0.04506155654964736</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02932168090288644</v>
+        <v>0.02952796851221125</v>
       </c>
       <c r="K243" t="n">
         <v>0.1421511805838536</v>
       </c>
       <c r="L243" t="n">
-        <v>0.05900658011382978</v>
+        <v>0.06113017029925533</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1416518166793362</v>
+        <v>0.1417817515422327</v>
       </c>
       <c r="N243" t="n">
-        <v>0.0923739170884989</v>
+        <v>0.09446974585323814</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1414759749682554</v>
+        <v>0.1415948863318021</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.0289892640383326</v>
+        <v>0.0205967124099409</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1429497827219652</v>
+        <v>0.04502655963156774</v>
       </c>
       <c r="J244" t="n">
-        <v>0.0289892640383326</v>
+        <v>0.02923857458244114</v>
       </c>
       <c r="K244" t="n">
         <v>0.1429497827219652</v>
       </c>
       <c r="L244" t="n">
-        <v>0.06055715086435393</v>
+        <v>0.05915171202471575</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1424476134022539</v>
+        <v>0.1425782782362902</v>
       </c>
       <c r="N244" t="n">
-        <v>0.09165521648239183</v>
+        <v>0.09222926510402729</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1422707838163916</v>
+        <v>0.1423903632213066</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.02948364094741467</v>
+        <v>0.01983335469986117</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1437483848600767</v>
+        <v>0.04499067655285503</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02948364094741467</v>
+        <v>0.02996208817516623</v>
       </c>
       <c r="K245" t="n">
         <v>0.1437483848600767</v>
       </c>
       <c r="L245" t="n">
-        <v>0.06019358309168107</v>
+        <v>0.05975331772953288</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1432434101251715</v>
+        <v>0.1433748049303477</v>
       </c>
       <c r="N245" t="n">
-        <v>0.09185909732435571</v>
+        <v>0.09157252485134237</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1430655926645279</v>
+        <v>0.1431858401108111</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.02922435973063248</v>
+        <v>0.0190682624728954</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1445469869981882</v>
+        <v>0.04495390731350924</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02922435973063248</v>
+        <v>0.02887665815929441</v>
       </c>
       <c r="K246" t="n">
         <v>0.1445469869981882</v>
       </c>
       <c r="L246" t="n">
-        <v>0.06042085344171774</v>
+        <v>0.06143515017459303</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1440392068480891</v>
+        <v>0.1441713316244052</v>
       </c>
       <c r="N246" t="n">
-        <v>0.09293440239178086</v>
+        <v>0.09454759428983978</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1438604015126642</v>
+        <v>0.1439813170003156</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.02961449441587885</v>
+        <v>0.01830143572904359</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1453455891362998</v>
+        <v>0.04491625191353035</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02961449441587885</v>
+        <v>0.02879288568083586</v>
       </c>
       <c r="K247" t="n">
         <v>0.1453455891362998</v>
       </c>
       <c r="L247" t="n">
-        <v>0.06111696720228127</v>
+        <v>0.05837447787988018</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1448350035710067</v>
+        <v>0.1449678583184627</v>
       </c>
       <c r="N247" t="n">
-        <v>0.09288838013929884</v>
+        <v>0.0927301392252407</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1446552103608004</v>
+        <v>0.1447767938898201</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.02898121344213851</v>
+        <v>0.01753287446830575</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1461441912744113</v>
+        <v>0.04487771035291838</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02898121344213851</v>
+        <v>0.03011808130398275</v>
       </c>
       <c r="K248" t="n">
         <v>0.1461441912744113</v>
       </c>
       <c r="L248" t="n">
-        <v>0.06213362079273094</v>
+        <v>0.06092953869944812</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1456308002939243</v>
+        <v>0.1457643850125202</v>
       </c>
       <c r="N248" t="n">
-        <v>0.09043174550805028</v>
+        <v>0.09279491813512625</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1454500192089367</v>
+        <v>0.1455722707793246</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.02888359299660864</v>
+        <v>0.01676257869068189</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1469427934125228</v>
+        <v>0.04483828263167331</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02888359299660864</v>
+        <v>0.02958030438436719</v>
       </c>
       <c r="K249" t="n">
         <v>0.1469427934125228</v>
       </c>
       <c r="L249" t="n">
-        <v>0.0583500937958214</v>
+        <v>0.06162471431604408</v>
       </c>
       <c r="M249" t="n">
-        <v>0.146426597016842</v>
+        <v>0.1465609117065777</v>
       </c>
       <c r="N249" t="n">
-        <v>0.09315880293775169</v>
+        <v>0.09385592443783575</v>
       </c>
       <c r="O249" t="n">
-        <v>0.146244828057073</v>
+        <v>0.1463677476688291</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.02859267217997187</v>
+        <v>0.01599054839617198</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1477413955506344</v>
+        <v>0.04479796874979516</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02859267217997187</v>
+        <v>0.02922390926902294</v>
       </c>
       <c r="K250" t="n">
         <v>0.1477413955506344</v>
       </c>
       <c r="L250" t="n">
-        <v>0.0598405647614455</v>
+        <v>0.0608728219540155</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1472223937397596</v>
+        <v>0.1473574384006352</v>
       </c>
       <c r="N250" t="n">
-        <v>0.08840697325178115</v>
+        <v>0.09086990671320627</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1470396369052092</v>
+        <v>0.1471632245583336</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.02878746407796468</v>
+        <v>0.01521678358477605</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1485399976887459</v>
+        <v>0.04475676870728391</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02878746407796468</v>
+        <v>0.02966397788668711</v>
       </c>
       <c r="K251" t="n">
         <v>0.1485399976887459</v>
       </c>
       <c r="L251" t="n">
-        <v>0.06157221857190853</v>
+        <v>0.0591236360328222</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1480181904626772</v>
+        <v>0.1481539650946926</v>
       </c>
       <c r="N251" t="n">
-        <v>0.09140315336129823</v>
+        <v>0.08799670767820189</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1478344457533455</v>
+        <v>0.1479587014478381</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.0289723772778456</v>
+        <v>0.01444128425649407</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1493385998268575</v>
+        <v>0.04471468250413958</v>
       </c>
       <c r="J252" t="n">
-        <v>0.0289723772778456</v>
+        <v>0.02918323380517285</v>
       </c>
       <c r="K252" t="n">
         <v>0.1493385998268575</v>
       </c>
       <c r="L252" t="n">
-        <v>0.06219850547418643</v>
+        <v>0.05919879316609131</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1488139871855948</v>
+        <v>0.1489504917887501</v>
       </c>
       <c r="N252" t="n">
-        <v>0.09012006560914437</v>
+        <v>0.09193911482294376</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1486292546014817</v>
+        <v>0.1487541783373426</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.02935998964144176</v>
+        <v>0.01366405041132608</v>
       </c>
       <c r="G253" t="n">
-        <v>0.150137201964969</v>
+        <v>0.04467171014036216</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02935998964144176</v>
+        <v>0.02929668523251451</v>
       </c>
       <c r="K253" t="n">
         <v>0.150137201964969</v>
       </c>
       <c r="L253" t="n">
-        <v>0.06183709329587475</v>
+        <v>0.06206925184504511</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1496097839085124</v>
+        <v>0.1497470184828076</v>
       </c>
       <c r="N253" t="n">
-        <v>0.09367086152654258</v>
+        <v>0.09111278922190419</v>
       </c>
       <c r="O253" t="n">
-        <v>0.149424063449618</v>
+        <v>0.1495496552268472</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.02930775792950192</v>
+        <v>0.01288508204927205</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1509358041030805</v>
+        <v>0.04462785161595165</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02930775792950192</v>
+        <v>0.02928914102586205</v>
       </c>
       <c r="K254" t="n">
         <v>0.1509358041030805</v>
       </c>
       <c r="L254" t="n">
-        <v>0.05754421948599628</v>
+        <v>0.05997945157973009</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1504055806314301</v>
+        <v>0.1505435451768651</v>
       </c>
       <c r="N254" t="n">
-        <v>0.09060470692396405</v>
+        <v>0.08954956485094362</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1502188722977543</v>
+        <v>0.1503451321163516</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.02824315584207797</v>
+        <v>0.012104379170332</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1517344062411921</v>
+        <v>0.04458310693090804</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02824315584207797</v>
+        <v>0.02846989358730292</v>
       </c>
       <c r="K255" t="n">
         <v>0.1517344062411921</v>
       </c>
       <c r="L255" t="n">
-        <v>0.05971366565087632</v>
+        <v>0.05729028448981185</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1512013773543477</v>
+        <v>0.1513400718709226</v>
       </c>
       <c r="N255" t="n">
-        <v>0.09102095929221748</v>
+        <v>0.08882114836678895</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1510136811458906</v>
+        <v>0.1511406090058562</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.02903907355416778</v>
+        <v>0.01132194177450591</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1525330083793036</v>
+        <v>0.04453747608523136</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02903907355416778</v>
+        <v>0.02867846189592134</v>
       </c>
       <c r="K256" t="n">
         <v>0.1525330083793036</v>
       </c>
       <c r="L256" t="n">
-        <v>0.05869452042798348</v>
+        <v>0.05786763076941984</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1519971740772653</v>
+        <v>0.1521365985649801</v>
       </c>
       <c r="N256" t="n">
-        <v>0.09052639366886017</v>
+        <v>0.09277039522664865</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1518084899940268</v>
+        <v>0.1519360858953606</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.02919202989057949</v>
+        <v>0.01053776986179377</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1533316105174151</v>
+        <v>0.04449095907892159</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02919202989057949</v>
+        <v>0.02838963209419634</v>
       </c>
       <c r="K257" t="n">
         <v>0.1533316105174151</v>
       </c>
       <c r="L257" t="n">
-        <v>0.05781702216451862</v>
+        <v>0.05915275711808463</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1527929708001829</v>
+        <v>0.1529331252590376</v>
       </c>
       <c r="N257" t="n">
-        <v>0.09049190474100077</v>
+        <v>0.08873785675868001</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1526032988421631</v>
+        <v>0.1527315627848652</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.02870066962779318</v>
+        <v>0.009751863432195612</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1541302126555267</v>
+        <v>0.04444355591197871</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02870066962779318</v>
+        <v>0.02901614611570918</v>
       </c>
       <c r="K258" t="n">
         <v>0.1541302126555267</v>
       </c>
       <c r="L258" t="n">
-        <v>0.06049750666094159</v>
+        <v>0.05793533215387978</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1535887675231005</v>
+        <v>0.1537296519530951</v>
       </c>
       <c r="N258" t="n">
-        <v>0.08769545119964711</v>
+        <v>0.09285441843970804</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1533981076902994</v>
+        <v>0.1535270396743697</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.02916359613781319</v>
+        <v>0.008964222485711416</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1549288147936382</v>
+        <v>0.04439526658440276</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02916359613781319</v>
+        <v>0.02878576740662374</v>
       </c>
       <c r="K259" t="n">
         <v>0.1549288147936382</v>
       </c>
       <c r="L259" t="n">
-        <v>0.05972235472191292</v>
+        <v>0.05798475058930194</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1543845642460182</v>
+        <v>0.1545261786471526</v>
       </c>
       <c r="N259" t="n">
-        <v>0.08931910152478956</v>
+        <v>0.08745777713411196</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1541929165384356</v>
+        <v>0.1543225165638742</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.02862623571133134</v>
+        <v>0.008174847022341204</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1557274169317498</v>
+        <v>0.04434609109619371</v>
       </c>
       <c r="J260" t="n">
-        <v>0.02862623571133134</v>
+        <v>0.02934060753579196</v>
       </c>
       <c r="K260" t="n">
         <v>0.1557274169317498</v>
       </c>
       <c r="L260" t="n">
-        <v>0.0595555735384958</v>
+        <v>0.05741875268575361</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1551803609689358</v>
+        <v>0.15532270534121</v>
       </c>
       <c r="N260" t="n">
-        <v>0.08875099807022213</v>
+        <v>0.08564453363145902</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1549877253865719</v>
+        <v>0.1551179934533787</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.02762695438169288</v>
+        <v>0.007383737042084955</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1565260190698613</v>
+        <v>0.04429602944735158</v>
       </c>
       <c r="J261" t="n">
-        <v>0.02762695438169288</v>
+        <v>0.02913593668819014</v>
       </c>
       <c r="K261" t="n">
         <v>0.1565260190698613</v>
       </c>
       <c r="L261" t="n">
-        <v>0.06040245509780906</v>
+        <v>0.05973079253527477</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1559761576918534</v>
+        <v>0.1561192320352675</v>
       </c>
       <c r="N261" t="n">
-        <v>0.08873294604858167</v>
+        <v>0.08933905936266695</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1557825342347081</v>
+        <v>0.1559134703428832</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.02924148651783269</v>
+        <v>0.006590892544942661</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1573246212079729</v>
+        <v>0.04424508163787635</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02924148651783269</v>
+        <v>0.02908750425292503</v>
       </c>
       <c r="K262" t="n">
         <v>0.1573246212079729</v>
       </c>
       <c r="L262" t="n">
-        <v>0.05930889372481268</v>
+        <v>0.05745726927019282</v>
       </c>
       <c r="M262" t="n">
-        <v>0.156771954414771</v>
+        <v>0.156915758729325</v>
       </c>
       <c r="N262" t="n">
-        <v>0.08573089887571494</v>
+        <v>0.09013192087700717</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1565773430828444</v>
+        <v>0.1567089472323877</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.02889451132349291</v>
+        <v>0.005796313530914345</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1581232233460844</v>
+        <v>0.04419324766776803</v>
       </c>
       <c r="J263" t="n">
-        <v>0.02889451132349291</v>
+        <v>0.02773325594000631</v>
       </c>
       <c r="K263" t="n">
         <v>0.1581232233460844</v>
       </c>
       <c r="L263" t="n">
-        <v>0.0579630342867741</v>
+        <v>0.05815571024423385</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1575677511376886</v>
+        <v>0.1577122854233825</v>
       </c>
       <c r="N263" t="n">
-        <v>0.08753777416562736</v>
+        <v>0.09133150330647183</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1573721519309807</v>
+        <v>0.1575044241218922</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.02777337437615462</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1589218254841959</v>
+        <v>0.04414052753702663</v>
       </c>
       <c r="J264" t="n">
-        <v>0.02777337437615462</v>
+        <v>0.02905537999066653</v>
       </c>
       <c r="K264" t="n">
         <v>0.1589218254841959</v>
       </c>
       <c r="L264" t="n">
-        <v>0.05805839941225524</v>
+        <v>0.05807040687143217</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1583635478606062</v>
+        <v>0.15850881211744</v>
       </c>
       <c r="N264" t="n">
-        <v>0.08836683259286382</v>
+        <v>0.09002363560353638</v>
       </c>
       <c r="O264" t="n">
-        <v>0.158166960779117</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1582999010113967</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.04414052753702663</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005636380870981693</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.0441064039257253</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006274394228444349</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.04407316647505703</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.006914040072387988</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.04404081518502188</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007555318402812587</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.04400935005561979</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008198229219718162</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.0439787710868508</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.008842772523104718</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.04394907827871491</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009488948312972229</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.04392027163121209</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01013675658932073</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.04389235114434238</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01078619735215017</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.04386531681810574</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01143727060146061</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.0438391686525022</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01208997633725201</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.04381390664753175</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01274431455952438</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.04378953080319439</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01340028526827775</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.04376604111949012</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01405788846351205</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.04374343759641893</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01471712414522735</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.04372172023398085</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.0153779923134236</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.04370088903217582</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01604049296810083</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.04368094399100392</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01670462610925903</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.04366188511046509</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01737039173689821</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.04364371239055936</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01803778985101837</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.04362642583128671</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01870682045161947</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.04361002543264714</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01937748353870157</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.04359451119464068</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.02004977911226462</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.04357988311726729</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.02072370717230865</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.04356614120052701</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02139926771883366</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.0435532854444198</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02207646075183964</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.0435413158489457</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02275528627132657</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.04353023241410468</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.0234357442772945</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.04352003513989673</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02411783476974337</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.04351072402632189</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02480155774867324</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.04350229907338013</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02548691321408406</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.04349476028107146</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02617390116597586</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.04348810764939588</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02686252160434864</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.0434823411783534</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02755277452920239</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.043477460867944</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.0282446599405371</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.04347346671816769</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02893817783835279</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.04347035872902447</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02963332822264945</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.04346813690051434</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.03033011109342706</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.0434668012326373</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.03102852645068566</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.04346635172539334</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.03172857429442524</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.04346678837878248</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.0324302546246458</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.04346811119280471</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.03313356744134729</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.04347032016746002</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.03383851274452979</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.04347341530274842</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.03454509053419325</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.04347739659866993</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03525330081033767</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.04348226405522451</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.03596314357296307</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.04348801767241217</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.03667461882206945</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.04349465745023294</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03738772655765678</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.04350218338868678</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03810246677972509</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.04351059548777372</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.0388188394882744</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.04351989374749376</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03953684468330465</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.04353007816784688</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.04025648236481588</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.04354114874883309</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.04097775253280807</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.04355310549045238</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.04170065518728125</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.04356594839270477</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.04242519032823538</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.04357967745559024</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.0431513579556705</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.04359429267910881</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.04387915806958657</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.04360979406326047</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.04460859066998364</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.04362618160804521</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.04533965575686168</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.04364345531346304</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.04607235333022067</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.04366161517951397</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.04680668339006064</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.04368066120619797</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.04754264593638158</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.04370059339351508</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.0482802409691835</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.04372141174146527</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.04901946848846638</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.04374311625004854</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.04976032849423022</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.04376570691926491</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.05050282098647506</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.04378918374911437</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.05124694596520085</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.04381354673959692</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.05199270343040761</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.04383879589071255</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.05274009338209537</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.04386493120246128</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.05348911582026408</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.04389195267484309</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.05423977074491376</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.04391986030785799</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.0549920581560444</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.04394865410150599</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.05574597805365604</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.04397833405578708</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.05650153043774864</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.04400890017070124</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.05725871530832222</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.04404035244624851</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.05801753266537675</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.04407269088242886</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.05877798250891225</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.0441059154792423</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.05954006483892874</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.04414002623668882</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.06030377965542617</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.04417502315476843</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.06106912695840462</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.04421090623348115</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.06183610674786402</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.04424767547282695</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.06260471902380439</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.04428533087280583</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.06337496378622572</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.04432387243341781</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.06414684103512804</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.04436330015466287</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.06492035077051132</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.04440361403654102</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.06569549299237556</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.04444481407905227</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.06647226770072079</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.0444869002821966</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.06725067489554698</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.04452987264597402</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.06803071457685417</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.04457373117038453</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.0688123867446423</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.04461847585542813</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.06959569139891141</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.04466410670110482</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.0703806285396615</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.0447106237074146</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.07116719816689253</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.04475802687435746</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.07195540028060456</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.04480631620193342</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.07274523488079757</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.04485549169014248</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.07353670196747153</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.04490555333898461</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.07432980154062646</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.04495650114845983</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.07512453360026237</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.04500833511856814</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.07592089814637924</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.04506105524930955</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.07542089814637924</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.04506105524930955</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.07648732957249701</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.0466486817353992</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.07753644552098815</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.04823630822148885</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.07856763130599329</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.04982393470757852</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.07958027224165305</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.05141156119366817</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.0805737536421081</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.05299918767975782</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.08154746082149907</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.05458681416584748</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.08250077909396658</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.05617444065193713</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.08343309377365135</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.05776206713802678</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.08434379017469396</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.05934969362411644</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.08523225361123501</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.06093732011020609</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.08609786939741529</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.06252494659629575</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.08694002284737526</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.06411257308238541</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.08775809927525571</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.06570019956847506</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.08855148399519722</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.06728782605456472</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.08931956232134045</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.06887545254065437</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.09006171956782605</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.07046307902674402</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.09077734104879459</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.07205070551283368</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.09146581207838683</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.07363833199892333</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.09212651797074331</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.07522595848501298</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.09275884404000476</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.07681358497110265</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.09336217560031174</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.0784012114571923</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.09393589796580495</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.07998883794328195</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.09447939645062503</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.08157646442937161</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.09499205636891261</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.08316409091546126</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.09547326303480833</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.08475171740155092</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.09592240176245281</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.08633934388764057</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.09633887095838758</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.08792697037373023</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.09674188402562875</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.08951459685981987</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.09714689936393747</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.09110222334590953</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.09755062740677839</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.0926898498319992</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.09794977858761619</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.09427747631808885</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.09834106333991552</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.0958651028041785</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.09872119209714106</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.09745272929026816</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.09908687529275748</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.09904035577635782</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.09943482336022938</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1006279822624475</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.09976174673302152</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1022156087485371</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.1000643558445985</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1038032352346268</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.100339361128425</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1053908617207164</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.1005834730179656</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1069784882068061</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.1007934019466852</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1085661146928957</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.1009658583480482</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1101537411789854</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.1010975526555194</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.111741367665075</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.1012278641951723</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1133289941511647</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.1012254967226449</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1149166206372544</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.1012138066236272</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.116504247123344</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.1011461386352494</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1180918736094337</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.1010257168892432</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1196795000955233</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.1008561304856404</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.121267126581613</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.1006409685244728</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1228547530677026</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.1003838201057721</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1244423795537923</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.1000882743295701</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1260300060398819</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.0997579202958985</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1276176325259716</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.09939634710478915</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1292052590120613</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.09900714385627377</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1307928854981509</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.09859389965038412</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1323805119842406</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.09816020358715197</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1339681384703302</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.09770964476660907</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1355557649564199</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.09724581228878723</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1371433914425095</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.09677229525371814</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1387310179285992</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.09629268276143363</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1403186444146888</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.09581056391196544</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1419062709007785</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.09532952780534529</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1434938973868682</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.094853163541605</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1450815238729578</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.09438506022077631</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1466691503590475</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.09392880694289096</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1482567768451371</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.09348799280798076</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.09306620691607745</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1514320298173164</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.09266703836721277</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1530196563034061</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.0922940762614185</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1546072827894957</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.09194901516079496</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1561949092755854</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.09161162492889799</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.157782535761675</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.09127552841728176</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1593701622477647</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.09094074309450398</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1609577887338543</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.09060728642912236</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.162545415219944</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.09027517588969453</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1641330417060336</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.08994442894477819</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1657206681921233</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.08961506306293107</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.167308294678213</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.08928709571271079</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1688959211643026</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.08896054436267509</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1704835476503923</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.08863542648138165</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1720711741364819</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.0883117595373881</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1736588006225716</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.08798956099925218</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1752464271086612</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.08766884833553157</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1768340535947509</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.0873496390147839</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1784216800808405</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.08703195050556695</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1800093065669302</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.08671580027643833</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1815969330530198</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.08640120579595575</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1831845595391095</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.08608818453267691</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1847721860251992</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.08577675395515949</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1863598125112888</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.08546693153196114</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.1879474389973785</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.08515873473163957</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.1895350654834681</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.08485218102275247</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.1911226919695578</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.08454728787385751</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.1927103184556474</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.08424407275351242</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.1942979449417371</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.08394255313027482</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.1958855714278267</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.08364274647270242</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.1974731979139164</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.08334467024935294</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.1990608244000061</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.08304834192878402</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2006484508860957</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.08275377897955337</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2022360773721854</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
